--- a/consolidado3.xlsx
+++ b/consolidado3.xlsx
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1311,7 +1311,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
@@ -1324,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>12976</v>
+        <v>13188</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1332,7 +1336,7 @@
         </is>
       </c>
       <c r="U15" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1611,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1651,7 +1655,11 @@
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
@@ -1664,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7626</v>
+        <v>7750</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1672,7 +1680,7 @@
         </is>
       </c>
       <c r="U19" s="2" t="n">
-        <v>45216</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="20">
@@ -1688,7 +1696,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1753,7 +1761,7 @@
         </is>
       </c>
       <c r="U20" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="21">
@@ -1769,7 +1777,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1817,7 +1825,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
@@ -1830,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4082</v>
+        <v>4113</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -1838,7 +1850,7 @@
         </is>
       </c>
       <c r="U21" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="22">
@@ -1854,7 +1866,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1927,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43940</v>
+        <v>44422</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -1935,7 +1947,7 @@
         </is>
       </c>
       <c r="U22" s="2" t="n">
-        <v>45238</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="23">
@@ -1951,7 +1963,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1999,7 +2011,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
@@ -2012,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31662</v>
+        <v>32215</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2020,7 +2036,7 @@
         </is>
       </c>
       <c r="U23" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="24">
@@ -2036,7 +2052,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2084,7 +2100,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
@@ -2097,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171209</v>
+        <v>174035</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2105,7 +2125,7 @@
         </is>
       </c>
       <c r="U24" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="25">
@@ -2380,7 +2400,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2428,7 +2448,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
@@ -2441,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18685</v>
+        <v>18928</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2449,7 +2473,7 @@
         </is>
       </c>
       <c r="U28" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="29">
@@ -2562,7 +2586,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2610,7 +2634,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
@@ -2623,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>29100</v>
+        <v>30312</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2631,7 +2659,7 @@
         </is>
       </c>
       <c r="U30" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="31">
@@ -2647,7 +2675,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2695,7 +2723,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
@@ -2708,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>101990</v>
+        <v>103517</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -2716,7 +2748,7 @@
         </is>
       </c>
       <c r="U31" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="32">
@@ -2732,7 +2764,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2780,7 +2812,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
@@ -2793,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15167</v>
+        <v>15329</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -2801,7 +2837,7 @@
         </is>
       </c>
       <c r="U32" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="33">
@@ -2817,7 +2853,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2861,7 +2897,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
@@ -2874,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>10610</v>
+        <v>10796</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -2882,7 +2922,7 @@
         </is>
       </c>
       <c r="U33" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="34">
@@ -2898,7 +2938,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2946,7 +2986,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
@@ -2959,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>135720</v>
+        <v>138079</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -2967,7 +3011,7 @@
         </is>
       </c>
       <c r="U34" s="2" t="n">
-        <v>45230</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="35">
@@ -2983,7 +3027,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3031,7 +3075,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
@@ -3044,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47635</v>
+        <v>48438</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3052,7 +3100,7 @@
         </is>
       </c>
       <c r="U35" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="36">
@@ -3275,7 +3323,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3323,7 +3371,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
@@ -3336,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>5514</v>
+        <v>5580</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -3344,7 +3396,7 @@
         </is>
       </c>
       <c r="U39" s="2" t="n">
-        <v>45219</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="40">
@@ -3360,7 +3412,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3429,7 +3481,7 @@
         </is>
       </c>
       <c r="U40" s="2" t="n">
-        <v>45212</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="41">
@@ -3445,7 +3497,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3493,7 +3545,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
@@ -3506,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71002</v>
+        <v>72200</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -3514,7 +3570,7 @@
         </is>
       </c>
       <c r="U41" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="42">
@@ -3615,7 +3671,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3680,7 +3736,7 @@
         </is>
       </c>
       <c r="U43" s="2" t="n">
-        <v>45240</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="44">
@@ -3696,7 +3752,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3744,7 +3800,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
@@ -3757,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>15703</v>
+        <v>15810</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -3765,7 +3825,7 @@
         </is>
       </c>
       <c r="U44" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="45">
@@ -4226,7 +4286,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4274,7 +4334,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
@@ -4287,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>7106</v>
+        <v>7339</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -4295,7 +4359,7 @@
         </is>
       </c>
       <c r="U50" s="2" t="n">
-        <v>45244</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="51">
@@ -4311,7 +4375,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4380,7 +4444,7 @@
         </is>
       </c>
       <c r="U51" s="2" t="n">
-        <v>45217</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="52">
@@ -4534,7 +4598,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4582,7 +4646,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
@@ -4595,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>11237</v>
+        <v>11360</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -4603,7 +4671,7 @@
         </is>
       </c>
       <c r="U54" s="2" t="n">
-        <v>45222</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="55">
@@ -4619,7 +4687,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4684,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>10841</v>
+        <v>10858</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -4692,7 +4760,7 @@
         </is>
       </c>
       <c r="U55" s="2" t="n">
-        <v>45238</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="56">
@@ -4797,7 +4865,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4845,7 +4913,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
@@ -4858,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>5817</v>
+        <v>5833</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -4866,7 +4938,7 @@
         </is>
       </c>
       <c r="U57" s="2" t="n">
-        <v>45219</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="58">
@@ -5141,7 +5213,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5185,7 +5257,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
@@ -5198,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>95558</v>
+        <v>97284</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -5206,7 +5282,7 @@
         </is>
       </c>
       <c r="U61" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="62">
@@ -5396,7 +5472,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5444,7 +5520,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
@@ -5457,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>4926</v>
+        <v>5027</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -5465,7 +5545,7 @@
         </is>
       </c>
       <c r="U64" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="65">
@@ -5481,7 +5561,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5529,7 +5609,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
@@ -5542,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>8525</v>
+        <v>8651</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -5550,7 +5634,7 @@
         </is>
       </c>
       <c r="U65" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="66">
@@ -6003,7 +6087,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -6051,7 +6135,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
@@ -6064,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>3980</v>
+        <v>4021</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -6072,7 +6160,7 @@
         </is>
       </c>
       <c r="U71" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="72">
@@ -6088,7 +6176,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6131,7 +6219,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -6145,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>6228</v>
+        <v>6256</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -6153,7 +6245,7 @@
         </is>
       </c>
       <c r="U72" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="73">
@@ -6258,7 +6350,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -6331,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>8791</v>
+        <v>8863</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -6339,7 +6431,7 @@
         </is>
       </c>
       <c r="U74" s="2" t="n">
-        <v>45239</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="75">
@@ -6529,7 +6621,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6577,7 +6669,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
@@ -6590,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>14890</v>
+        <v>15082</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -6598,7 +6694,7 @@
         </is>
       </c>
       <c r="U77" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="78">
@@ -6614,7 +6710,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6662,7 +6758,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
@@ -6675,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>12187</v>
+        <v>12390</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -6683,7 +6783,7 @@
         </is>
       </c>
       <c r="U78" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="79">
@@ -6784,7 +6884,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6832,7 +6932,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
@@ -6845,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>24663</v>
+        <v>24940</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -6853,7 +6957,7 @@
         </is>
       </c>
       <c r="U80" s="2" t="n">
-        <v>45214</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="81">
@@ -6958,7 +7062,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -7006,7 +7110,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
@@ -7019,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>134396</v>
+        <v>136813</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -7027,7 +7135,7 @@
         </is>
       </c>
       <c r="U82" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="83">
@@ -7043,7 +7151,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -7091,7 +7199,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
@@ -7104,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>135682</v>
+        <v>137880</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -7112,7 +7224,7 @@
         </is>
       </c>
       <c r="U83" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="84">
@@ -7128,7 +7240,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -7176,7 +7288,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
@@ -7189,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>22973</v>
+        <v>23426</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
@@ -7197,7 +7313,7 @@
         </is>
       </c>
       <c r="U84" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="85">
@@ -7391,7 +7507,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -7439,7 +7555,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
@@ -7452,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>17088</v>
+        <v>17393</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -7460,7 +7580,7 @@
         </is>
       </c>
       <c r="U87" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="88">
@@ -7476,7 +7596,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2023/09/20</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -7519,8 +7639,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
@@ -7533,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>168754</v>
+        <v>173114</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -7541,7 +7669,7 @@
         </is>
       </c>
       <c r="U88" s="2" t="n">
-        <v>45189</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="89">
@@ -7557,7 +7685,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -7605,7 +7733,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
@@ -7618,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>148504</v>
+        <v>151942</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -7626,7 +7758,7 @@
         </is>
       </c>
       <c r="U89" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="90">
@@ -7816,7 +7948,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -7864,7 +7996,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
@@ -7877,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>24330</v>
+        <v>24553</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -7885,7 +8021,7 @@
         </is>
       </c>
       <c r="U92" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="93">
@@ -7901,7 +8037,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -7949,7 +8085,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
@@ -7962,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>6250</v>
+        <v>6327</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -7970,7 +8110,7 @@
         </is>
       </c>
       <c r="U93" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="94">
@@ -8245,7 +8385,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -8293,7 +8433,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
@@ -8306,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>49948</v>
+        <v>50321</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
@@ -8314,7 +8458,7 @@
         </is>
       </c>
       <c r="U97" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="98">
@@ -8508,7 +8652,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -8577,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>13757</v>
+        <v>13845</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -8585,7 +8729,7 @@
         </is>
       </c>
       <c r="U100" s="2" t="n">
-        <v>45243</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="101">
@@ -8860,7 +9004,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -8908,7 +9052,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
@@ -8921,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>111323</v>
+        <v>113206</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -8929,7 +9077,7 @@
         </is>
       </c>
       <c r="U104" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="105">
@@ -9394,7 +9542,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -9442,7 +9590,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="n">
@@ -9455,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>104943</v>
+        <v>105935</v>
       </c>
       <c r="T110" t="inlineStr">
         <is>
@@ -9463,7 +9615,7 @@
         </is>
       </c>
       <c r="U110" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="111">
@@ -9564,7 +9716,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -9612,7 +9764,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
@@ -9625,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>166934</v>
+        <v>168133</v>
       </c>
       <c r="T112" t="inlineStr">
         <is>
@@ -9633,7 +9789,7 @@
         </is>
       </c>
       <c r="U112" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="113">
@@ -9827,7 +9983,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -9872,7 +10028,7 @@
         </is>
       </c>
       <c r="U115" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="116">
@@ -9977,7 +10133,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -10025,7 +10181,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
@@ -10038,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>9030</v>
+        <v>9162</v>
       </c>
       <c r="T117" t="inlineStr">
         <is>
@@ -10046,7 +10206,7 @@
         </is>
       </c>
       <c r="U117" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="118">
@@ -10151,7 +10311,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -10199,7 +10359,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="n">
@@ -10212,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>143038</v>
+        <v>145535</v>
       </c>
       <c r="T119" t="inlineStr">
         <is>
@@ -10220,7 +10384,7 @@
         </is>
       </c>
       <c r="U119" s="2" t="n">
-        <v>45214</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="120">
@@ -10325,7 +10489,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -10373,7 +10537,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="n">
@@ -10386,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>3950</v>
+        <v>4055</v>
       </c>
       <c r="T121" t="inlineStr">
         <is>
@@ -10394,7 +10562,7 @@
         </is>
       </c>
       <c r="U121" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="122">
@@ -10410,7 +10578,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -10475,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>6946</v>
+        <v>6974</v>
       </c>
       <c r="T122" t="inlineStr">
         <is>
@@ -10483,7 +10651,7 @@
         </is>
       </c>
       <c r="U122" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="123">
@@ -10499,7 +10667,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -10547,7 +10715,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="n">
@@ -10560,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>16838</v>
+        <v>17110</v>
       </c>
       <c r="T123" t="inlineStr">
         <is>
@@ -10568,7 +10740,7 @@
         </is>
       </c>
       <c r="U123" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="124">
@@ -10948,7 +11120,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -10996,7 +11168,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="n">
@@ -11009,7 +11185,7 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>13738</v>
+        <v>13876</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
@@ -11017,7 +11193,7 @@
         </is>
       </c>
       <c r="U128" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="129">
@@ -11033,7 +11209,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -11090,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>44093</v>
+        <v>44834</v>
       </c>
       <c r="T129" t="inlineStr">
         <is>
@@ -11098,7 +11274,7 @@
         </is>
       </c>
       <c r="U129" s="2" t="n">
-        <v>45190</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="130">
@@ -11114,7 +11290,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2023/09/22</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -11157,8 +11333,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="n">
@@ -11171,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>14846</v>
+        <v>14897</v>
       </c>
       <c r="T130" t="inlineStr">
         <is>
@@ -11179,7 +11363,7 @@
         </is>
       </c>
       <c r="U130" s="2" t="n">
-        <v>45191</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="131">
@@ -11284,7 +11468,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -11332,7 +11516,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="n">
@@ -11345,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>3448</v>
+        <v>3476</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
@@ -11353,7 +11541,7 @@
         </is>
       </c>
       <c r="U132" s="2" t="n">
-        <v>45209</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="133">
@@ -11369,7 +11557,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -11438,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>8746</v>
+        <v>8802</v>
       </c>
       <c r="T133" t="inlineStr">
         <is>
@@ -11446,7 +11634,7 @@
         </is>
       </c>
       <c r="U133" s="2" t="n">
-        <v>45224</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="134">
@@ -11462,7 +11650,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -11510,7 +11698,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="n">
@@ -11523,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>9671</v>
+        <v>9805</v>
       </c>
       <c r="T134" t="inlineStr">
         <is>
@@ -11531,7 +11723,7 @@
         </is>
       </c>
       <c r="U134" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="135">
@@ -11636,7 +11828,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -11684,7 +11876,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N136" t="inlineStr">
         <is>
           <t>x</t>
@@ -11701,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>6078</v>
+        <v>6184</v>
       </c>
       <c r="T136" t="inlineStr">
         <is>
@@ -11709,7 +11905,7 @@
         </is>
       </c>
       <c r="U136" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="137">
@@ -13044,7 +13240,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -13092,7 +13288,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="n">
@@ -13105,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="S152" t="n">
-        <v>41343</v>
+        <v>41983</v>
       </c>
       <c r="T152" t="inlineStr">
         <is>
@@ -13113,7 +13313,7 @@
         </is>
       </c>
       <c r="U152" s="2" t="n">
-        <v>45209</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="153">
@@ -13303,7 +13503,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -13351,7 +13551,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="n">
@@ -13364,7 +13568,7 @@
         <v>0</v>
       </c>
       <c r="S155" t="n">
-        <v>14019</v>
+        <v>14229</v>
       </c>
       <c r="T155" t="inlineStr">
         <is>
@@ -13372,7 +13576,7 @@
         </is>
       </c>
       <c r="U155" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="156">
@@ -13477,7 +13681,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -13542,7 +13746,7 @@
         <v>0</v>
       </c>
       <c r="S157" t="n">
-        <v>51050</v>
+        <v>51780</v>
       </c>
       <c r="T157" t="inlineStr">
         <is>
@@ -13550,7 +13754,7 @@
         </is>
       </c>
       <c r="U157" s="2" t="n">
-        <v>45233</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="158">
@@ -13655,7 +13859,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -13703,7 +13907,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="n">
@@ -13716,7 +13924,7 @@
         <v>0</v>
       </c>
       <c r="S159" t="n">
-        <v>29654</v>
+        <v>30280</v>
       </c>
       <c r="T159" t="inlineStr">
         <is>
@@ -13724,7 +13932,7 @@
         </is>
       </c>
       <c r="U159" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="160">
@@ -14169,7 +14377,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -14242,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="S165" t="n">
-        <v>76066</v>
+        <v>77321</v>
       </c>
       <c r="T165" t="inlineStr">
         <is>
@@ -14250,7 +14458,7 @@
         </is>
       </c>
       <c r="U165" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="166">
@@ -14266,7 +14474,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
@@ -14299,7 +14507,7 @@
         </is>
       </c>
       <c r="U166" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="167">
@@ -14497,7 +14705,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -14545,7 +14753,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="n">
@@ -14558,7 +14770,7 @@
         <v>0</v>
       </c>
       <c r="S169" t="n">
-        <v>15475</v>
+        <v>15768</v>
       </c>
       <c r="T169" t="inlineStr">
         <is>
@@ -14566,7 +14778,7 @@
         </is>
       </c>
       <c r="U169" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="170">
@@ -14582,7 +14794,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -14630,7 +14842,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="n">
@@ -14643,7 +14859,7 @@
         <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>17208</v>
+        <v>17419</v>
       </c>
       <c r="T170" t="inlineStr">
         <is>
@@ -14651,7 +14867,7 @@
         </is>
       </c>
       <c r="U170" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="171">
@@ -14667,7 +14883,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -14715,7 +14931,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="n">
@@ -14728,7 +14948,7 @@
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>19135</v>
+        <v>19286</v>
       </c>
       <c r="T171" t="inlineStr">
         <is>
@@ -14736,7 +14956,7 @@
         </is>
       </c>
       <c r="U171" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="172">
@@ -14841,7 +15061,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -14914,7 +15134,7 @@
         <v>0</v>
       </c>
       <c r="S173" t="n">
-        <v>36713</v>
+        <v>37003</v>
       </c>
       <c r="T173" t="inlineStr">
         <is>
@@ -14922,7 +15142,7 @@
         </is>
       </c>
       <c r="U173" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="174">
@@ -15027,7 +15247,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -15096,7 +15316,7 @@
         </is>
       </c>
       <c r="U175" s="2" t="n">
-        <v>45219</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="176">
@@ -15290,7 +15510,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -15338,7 +15558,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="n">
@@ -15351,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>15237</v>
+        <v>15404</v>
       </c>
       <c r="T178" t="inlineStr">
         <is>
@@ -15359,7 +15583,7 @@
         </is>
       </c>
       <c r="U178" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="179">
@@ -15553,7 +15777,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -15626,7 +15850,7 @@
         <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>11400</v>
+        <v>11639</v>
       </c>
       <c r="T181" t="inlineStr">
         <is>
@@ -15634,7 +15858,7 @@
         </is>
       </c>
       <c r="U181" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="182">
@@ -15735,7 +15959,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -15783,7 +16007,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="n">
@@ -15796,7 +16024,7 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>2694</v>
+        <v>2755</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -15804,7 +16032,7 @@
         </is>
       </c>
       <c r="U183" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="184">
@@ -16087,7 +16315,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -16135,7 +16363,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="n">
@@ -16148,7 +16380,7 @@
         <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>55143</v>
+        <v>55704</v>
       </c>
       <c r="T187" t="inlineStr">
         <is>
@@ -16156,7 +16388,7 @@
         </is>
       </c>
       <c r="U187" s="2" t="n">
-        <v>45223</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="188">
@@ -16439,7 +16671,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -16487,7 +16719,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="n">
@@ -16500,7 +16736,7 @@
         <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>22970</v>
+        <v>23033</v>
       </c>
       <c r="T191" t="inlineStr">
         <is>
@@ -16508,7 +16744,7 @@
         </is>
       </c>
       <c r="U191" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="192">
@@ -16613,7 +16849,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -16661,7 +16897,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
@@ -16674,7 +16914,7 @@
         <v>0</v>
       </c>
       <c r="S193" t="n">
-        <v>14695</v>
+        <v>14921</v>
       </c>
       <c r="T193" t="inlineStr">
         <is>
@@ -16682,7 +16922,7 @@
         </is>
       </c>
       <c r="U193" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="194">
@@ -17054,7 +17294,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -17102,7 +17342,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="n">
@@ -17115,7 +17359,7 @@
         <v>0</v>
       </c>
       <c r="S198" t="n">
-        <v>69619</v>
+        <v>70690</v>
       </c>
       <c r="T198" t="inlineStr">
         <is>
@@ -17123,7 +17367,7 @@
         </is>
       </c>
       <c r="U198" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="199">
@@ -17224,7 +17468,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -17297,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>24674</v>
+        <v>24951</v>
       </c>
       <c r="T200" t="inlineStr">
         <is>
@@ -17305,7 +17549,7 @@
         </is>
       </c>
       <c r="U200" s="2" t="n">
-        <v>45210</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="201">
@@ -17321,7 +17565,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -17386,7 +17630,7 @@
         <v>0</v>
       </c>
       <c r="S201" t="n">
-        <v>9895</v>
+        <v>9902</v>
       </c>
       <c r="T201" t="inlineStr">
         <is>
@@ -17394,7 +17638,7 @@
         </is>
       </c>
       <c r="U201" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="202">
@@ -17499,7 +17743,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -17547,7 +17791,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="n">
@@ -17560,7 +17808,7 @@
         <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>12134</v>
+        <v>12261</v>
       </c>
       <c r="T203" t="inlineStr">
         <is>
@@ -17568,7 +17816,7 @@
         </is>
       </c>
       <c r="U203" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="204">
@@ -18632,7 +18880,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -18680,7 +18928,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="n">
@@ -18693,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="S216" t="n">
-        <v>49326</v>
+        <v>50119</v>
       </c>
       <c r="T216" t="inlineStr">
         <is>
@@ -18701,7 +18953,7 @@
         </is>
       </c>
       <c r="U216" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="217">
@@ -18717,7 +18969,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -18790,7 +19042,7 @@
         <v>0</v>
       </c>
       <c r="S217" t="n">
-        <v>30774</v>
+        <v>31107</v>
       </c>
       <c r="T217" t="inlineStr">
         <is>
@@ -18798,7 +19050,7 @@
         </is>
       </c>
       <c r="U217" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="218">
@@ -18903,7 +19155,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -18951,7 +19203,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="n">
@@ -18964,7 +19220,7 @@
         <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>7123</v>
+        <v>7215</v>
       </c>
       <c r="T219" t="inlineStr">
         <is>
@@ -18972,7 +19228,7 @@
         </is>
       </c>
       <c r="U219" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="220">
@@ -19037,7 +19293,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -19085,7 +19341,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="n">
@@ -19098,7 +19358,7 @@
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>72374</v>
+        <v>73631</v>
       </c>
       <c r="T221" t="inlineStr">
         <is>
@@ -19106,7 +19366,7 @@
         </is>
       </c>
       <c r="U221" s="2" t="n">
-        <v>45214</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="222">
@@ -19122,7 +19382,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -19170,7 +19430,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="n">
@@ -19183,7 +19447,7 @@
         <v>0</v>
       </c>
       <c r="S222" t="n">
-        <v>3389</v>
+        <v>3474</v>
       </c>
       <c r="T222" t="inlineStr">
         <is>
@@ -19191,7 +19455,7 @@
         </is>
       </c>
       <c r="U222" s="2" t="n">
-        <v>45217</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="223">
@@ -19207,7 +19471,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -19255,7 +19519,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="n">
@@ -19268,7 +19536,7 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>16767</v>
+        <v>16872</v>
       </c>
       <c r="T223" t="inlineStr">
         <is>
@@ -19276,7 +19544,7 @@
         </is>
       </c>
       <c r="U223" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="224">
@@ -19377,7 +19645,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -19442,7 +19710,7 @@
         <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>17273</v>
+        <v>17354</v>
       </c>
       <c r="T225" t="inlineStr">
         <is>
@@ -19450,7 +19718,7 @@
         </is>
       </c>
       <c r="U225" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="226">
@@ -19814,7 +20082,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -19862,7 +20130,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="n">
@@ -19875,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="S230" t="n">
-        <v>44069</v>
+        <v>44804</v>
       </c>
       <c r="T230" t="inlineStr">
         <is>
@@ -19883,7 +20155,7 @@
         </is>
       </c>
       <c r="U230" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="231">
@@ -19956,7 +20228,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -20004,7 +20276,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="n">
@@ -20017,7 +20293,7 @@
         <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>10641</v>
+        <v>10805</v>
       </c>
       <c r="T232" t="inlineStr">
         <is>
@@ -20025,7 +20301,7 @@
         </is>
       </c>
       <c r="U232" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="233">
@@ -20470,7 +20746,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -20518,7 +20794,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="n">
@@ -20531,7 +20811,7 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>4373</v>
+        <v>4417</v>
       </c>
       <c r="T238" t="inlineStr">
         <is>
@@ -20539,7 +20819,7 @@
         </is>
       </c>
       <c r="U238" s="2" t="n">
-        <v>45216</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="239">
@@ -20640,7 +20920,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -20688,7 +20968,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="n">
@@ -20701,7 +20985,7 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>31667</v>
+        <v>32207</v>
       </c>
       <c r="T240" t="inlineStr">
         <is>
@@ -20709,7 +20993,7 @@
         </is>
       </c>
       <c r="U240" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="241">
@@ -20725,7 +21009,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -20773,7 +21057,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
       <c r="P241" t="n">
@@ -20786,7 +21074,7 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>17720</v>
+        <v>17874</v>
       </c>
       <c r="T241" t="inlineStr">
         <is>
@@ -20794,7 +21082,7 @@
         </is>
       </c>
       <c r="U241" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="242">
@@ -20899,7 +21187,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -20972,7 +21260,7 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>11305</v>
+        <v>11381</v>
       </c>
       <c r="T243" t="inlineStr">
         <is>
@@ -20980,7 +21268,7 @@
         </is>
       </c>
       <c r="U243" s="2" t="n">
-        <v>45209</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="244">
@@ -21449,7 +21737,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -21497,7 +21785,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="n">
@@ -21510,7 +21802,7 @@
         <v>0</v>
       </c>
       <c r="S249" t="n">
-        <v>4997</v>
+        <v>5065</v>
       </c>
       <c r="T249" t="inlineStr">
         <is>
@@ -21518,7 +21810,7 @@
         </is>
       </c>
       <c r="U249" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="250">
@@ -21534,7 +21826,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -21582,7 +21874,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="n">
@@ -21595,7 +21891,7 @@
         <v>0</v>
       </c>
       <c r="S250" t="n">
-        <v>44066</v>
+        <v>44682</v>
       </c>
       <c r="T250" t="inlineStr">
         <is>
@@ -21603,7 +21899,7 @@
         </is>
       </c>
       <c r="U250" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="251">
@@ -21886,7 +22182,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -21934,7 +22230,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
       <c r="P254" t="n">
@@ -21947,7 +22247,7 @@
         <v>0</v>
       </c>
       <c r="S254" t="n">
-        <v>8905</v>
+        <v>8951</v>
       </c>
       <c r="T254" t="inlineStr">
         <is>
@@ -21955,7 +22255,7 @@
         </is>
       </c>
       <c r="U254" s="2" t="n">
-        <v>45211</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="255">
@@ -22141,7 +22441,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -22189,7 +22489,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="n">
@@ -22202,7 +22506,7 @@
         <v>0</v>
       </c>
       <c r="S257" t="n">
-        <v>50995</v>
+        <v>51469</v>
       </c>
       <c r="T257" t="inlineStr">
         <is>
@@ -22210,7 +22514,7 @@
         </is>
       </c>
       <c r="U257" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="258">
@@ -22226,7 +22530,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -22274,7 +22578,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="n">
@@ -22287,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S258" t="n">
-        <v>6877</v>
+        <v>6958</v>
       </c>
       <c r="T258" t="inlineStr">
         <is>
@@ -22295,7 +22603,7 @@
         </is>
       </c>
       <c r="U258" s="2" t="n">
-        <v>45214</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="259">
@@ -23448,7 +23756,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -23496,7 +23804,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
       <c r="P272" t="n">
@@ -23509,7 +23821,7 @@
         <v>0</v>
       </c>
       <c r="S272" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="T272" t="inlineStr">
         <is>
@@ -23517,7 +23829,7 @@
         </is>
       </c>
       <c r="U272" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="273">
@@ -23699,7 +24011,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -23747,7 +24059,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
@@ -23764,7 +24080,7 @@
         <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>31098</v>
+        <v>31562</v>
       </c>
       <c r="T275" t="inlineStr">
         <is>
@@ -23772,7 +24088,7 @@
         </is>
       </c>
       <c r="U275" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="276">
@@ -24662,7 +24978,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -24710,7 +25026,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
       <c r="P286" t="n">
@@ -24723,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="S286" t="n">
-        <v>9329</v>
+        <v>9411</v>
       </c>
       <c r="T286" t="inlineStr">
         <is>
@@ -24731,7 +25051,7 @@
         </is>
       </c>
       <c r="U286" s="2" t="n">
-        <v>45219</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="287">
@@ -24925,7 +25245,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -24973,7 +25293,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
       <c r="P289" t="n">
@@ -24986,7 +25310,7 @@
         <v>0</v>
       </c>
       <c r="S289" t="n">
-        <v>7885</v>
+        <v>8016</v>
       </c>
       <c r="T289" t="inlineStr">
         <is>
@@ -24994,7 +25318,7 @@
         </is>
       </c>
       <c r="U289" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="290">
@@ -25188,7 +25512,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -25236,7 +25560,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="n">
@@ -25249,7 +25577,7 @@
         <v>0</v>
       </c>
       <c r="S292" t="n">
-        <v>23348</v>
+        <v>23739</v>
       </c>
       <c r="T292" t="inlineStr">
         <is>
@@ -25257,7 +25585,7 @@
         </is>
       </c>
       <c r="U292" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="293">
@@ -25447,7 +25775,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -25495,7 +25823,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
       <c r="P295" t="n">
@@ -25508,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="S295" t="n">
-        <v>8023</v>
+        <v>8081</v>
       </c>
       <c r="T295" t="inlineStr">
         <is>
@@ -25516,7 +25848,7 @@
         </is>
       </c>
       <c r="U295" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="296">
@@ -25706,7 +26038,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -25754,7 +26086,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
       <c r="P298" t="n">
@@ -25767,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="S298" t="n">
-        <v>14236</v>
+        <v>14305</v>
       </c>
       <c r="T298" t="inlineStr">
         <is>
@@ -25775,7 +26111,7 @@
         </is>
       </c>
       <c r="U298" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="299">
@@ -25791,7 +26127,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -25839,7 +26175,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
       <c r="P299" t="n">
@@ -25852,7 +26192,7 @@
         <v>0</v>
       </c>
       <c r="S299" t="n">
-        <v>12467</v>
+        <v>12641</v>
       </c>
       <c r="T299" t="inlineStr">
         <is>
@@ -25860,7 +26200,7 @@
         </is>
       </c>
       <c r="U299" s="2" t="n">
-        <v>45225</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="300">
@@ -25965,7 +26305,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -26030,7 +26370,7 @@
         <v>0</v>
       </c>
       <c r="S301" t="n">
-        <v>11119</v>
+        <v>11163</v>
       </c>
       <c r="T301" t="inlineStr">
         <is>
@@ -26038,7 +26378,7 @@
         </is>
       </c>
       <c r="U301" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="302">
@@ -26220,7 +26560,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -26293,7 +26633,7 @@
         </is>
       </c>
       <c r="U304" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="305">
@@ -26309,7 +26649,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -26382,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="S305" t="n">
-        <v>15599</v>
+        <v>15807</v>
       </c>
       <c r="T305" t="inlineStr">
         <is>
@@ -26390,7 +26730,7 @@
         </is>
       </c>
       <c r="U305" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="306">
@@ -26495,7 +26835,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -26544,7 +26884,11 @@
         </is>
       </c>
       <c r="M307" t="inlineStr"/>
-      <c r="N307" t="inlineStr"/>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O307" t="inlineStr"/>
       <c r="P307" t="n">
         <v>0</v>
@@ -26556,7 +26900,7 @@
         <v>0</v>
       </c>
       <c r="S307" t="n">
-        <v>16648</v>
+        <v>16841</v>
       </c>
       <c r="T307" t="inlineStr">
         <is>
@@ -26564,7 +26908,7 @@
         </is>
       </c>
       <c r="U307" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="308">
@@ -26754,7 +27098,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -26798,7 +27142,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr"/>
       <c r="P310" t="n">
@@ -26811,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="S310" t="n">
-        <v>47938</v>
+        <v>48742</v>
       </c>
       <c r="T310" t="inlineStr">
         <is>
@@ -26819,7 +27167,7 @@
         </is>
       </c>
       <c r="U310" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="311">
@@ -26924,7 +27272,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -26972,7 +27320,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr"/>
       <c r="P312" t="n">
@@ -26985,7 +27337,7 @@
         <v>0</v>
       </c>
       <c r="S312" t="n">
-        <v>19671</v>
+        <v>19874</v>
       </c>
       <c r="T312" t="inlineStr">
         <is>
@@ -26993,7 +27345,7 @@
         </is>
       </c>
       <c r="U312" s="2" t="n">
-        <v>45212</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="313">
@@ -27543,7 +27895,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D319" t="inlineStr"/>
@@ -27576,7 +27928,7 @@
         </is>
       </c>
       <c r="U319" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="320">
@@ -27592,7 +27944,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -27661,7 +28013,7 @@
         </is>
       </c>
       <c r="U320" s="2" t="n">
-        <v>45232</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="321">
@@ -28037,7 +28389,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -28085,7 +28437,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr"/>
       <c r="P325" t="n">
@@ -28098,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S325" t="n">
-        <v>47132</v>
+        <v>47917</v>
       </c>
       <c r="T325" t="inlineStr">
         <is>
@@ -28106,7 +28462,7 @@
         </is>
       </c>
       <c r="U325" s="2" t="n">
-        <v>45204</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="326">
@@ -28122,7 +28478,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -28195,7 +28551,7 @@
         </is>
       </c>
       <c r="U326" s="2" t="n">
-        <v>45240</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="327">
@@ -28470,7 +28826,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -28518,7 +28874,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr"/>
       <c r="P330" t="n">
@@ -28531,7 +28891,7 @@
         <v>0</v>
       </c>
       <c r="S330" t="n">
-        <v>99079</v>
+        <v>100783</v>
       </c>
       <c r="T330" t="inlineStr">
         <is>
@@ -28539,7 +28899,7 @@
         </is>
       </c>
       <c r="U330" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="331">
@@ -29077,7 +29437,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -29125,7 +29485,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="n">
@@ -29138,7 +29502,7 @@
         <v>0</v>
       </c>
       <c r="S337" t="n">
-        <v>160941</v>
+        <v>163548</v>
       </c>
       <c r="T337" t="inlineStr">
         <is>
@@ -29146,7 +29510,7 @@
         </is>
       </c>
       <c r="U337" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="338">
@@ -29340,7 +29704,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -29413,7 +29777,7 @@
         </is>
       </c>
       <c r="U340" s="2" t="n">
-        <v>45238</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="341">
@@ -29696,7 +30060,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -29744,7 +30108,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
       <c r="P344" t="n">
@@ -29757,7 +30125,7 @@
         <v>0</v>
       </c>
       <c r="S344" t="n">
-        <v>52384</v>
+        <v>53214</v>
       </c>
       <c r="T344" t="inlineStr">
         <is>
@@ -29765,7 +30133,7 @@
         </is>
       </c>
       <c r="U344" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="345">
@@ -29781,7 +30149,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -29846,7 +30214,7 @@
         <v>0</v>
       </c>
       <c r="S345" t="n">
-        <v>5985</v>
+        <v>6000</v>
       </c>
       <c r="T345" t="inlineStr">
         <is>
@@ -29854,7 +30222,7 @@
         </is>
       </c>
       <c r="U345" s="2" t="n">
-        <v>45238</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="346">
@@ -30133,7 +30501,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -30181,7 +30549,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M349" t="inlineStr"/>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
       <c r="P349" t="n">
@@ -30194,7 +30566,7 @@
         <v>0</v>
       </c>
       <c r="S349" t="n">
-        <v>102865</v>
+        <v>104376</v>
       </c>
       <c r="T349" t="inlineStr">
         <is>
@@ -30202,7 +30574,7 @@
         </is>
       </c>
       <c r="U349" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="350">
@@ -30218,7 +30590,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -30266,7 +30638,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M350" t="inlineStr"/>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr"/>
       <c r="P350" t="n">
@@ -30279,7 +30655,7 @@
         <v>0</v>
       </c>
       <c r="S350" t="n">
-        <v>26664</v>
+        <v>27085</v>
       </c>
       <c r="T350" t="inlineStr">
         <is>
@@ -30287,7 +30663,7 @@
         </is>
       </c>
       <c r="U350" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="351">
@@ -30303,7 +30679,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -30372,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="S351" t="n">
-        <v>18716</v>
+        <v>19139</v>
       </c>
       <c r="T351" t="inlineStr">
         <is>
@@ -30380,7 +30756,7 @@
         </is>
       </c>
       <c r="U351" s="2" t="n">
-        <v>45211</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="352">
@@ -30396,7 +30772,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -30444,7 +30820,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M352" t="inlineStr"/>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
       <c r="P352" t="n">
@@ -30457,7 +30837,7 @@
         <v>0</v>
       </c>
       <c r="S352" t="n">
-        <v>72652</v>
+        <v>73742</v>
       </c>
       <c r="T352" t="inlineStr">
         <is>
@@ -30465,7 +30845,7 @@
         </is>
       </c>
       <c r="U352" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="353">
@@ -30748,7 +31128,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -30796,7 +31176,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M356" t="inlineStr"/>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
       <c r="P356" t="n">
@@ -30809,7 +31193,7 @@
         <v>0</v>
       </c>
       <c r="S356" t="n">
-        <v>24546</v>
+        <v>24928</v>
       </c>
       <c r="T356" t="inlineStr">
         <is>
@@ -30817,7 +31201,7 @@
         </is>
       </c>
       <c r="U356" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="357">
@@ -31015,7 +31399,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -31063,7 +31447,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M359" t="inlineStr"/>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr"/>
       <c r="P359" t="n">
@@ -31076,7 +31464,7 @@
         <v>0</v>
       </c>
       <c r="S359" t="n">
-        <v>105413</v>
+        <v>107671</v>
       </c>
       <c r="T359" t="inlineStr">
         <is>
@@ -31084,7 +31472,7 @@
         </is>
       </c>
       <c r="U359" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="360">
@@ -31100,7 +31488,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -31148,7 +31536,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M360" t="inlineStr"/>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
@@ -31165,7 +31557,7 @@
         <v>0</v>
       </c>
       <c r="S360" t="n">
-        <v>25578</v>
+        <v>25878</v>
       </c>
       <c r="T360" t="inlineStr">
         <is>
@@ -31173,7 +31565,7 @@
         </is>
       </c>
       <c r="U360" s="2" t="n">
-        <v>45216</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="361">
@@ -31375,7 +31767,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -31423,7 +31815,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M363" t="inlineStr"/>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
       <c r="P363" t="n">
@@ -31436,7 +31832,7 @@
         <v>0</v>
       </c>
       <c r="S363" t="n">
-        <v>7994</v>
+        <v>8015</v>
       </c>
       <c r="T363" t="inlineStr">
         <is>
@@ -31444,7 +31840,7 @@
         </is>
       </c>
       <c r="U363" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="364">
@@ -31460,7 +31856,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -31508,7 +31904,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M364" t="inlineStr"/>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr"/>
       <c r="P364" t="n">
@@ -31521,7 +31921,7 @@
         <v>0</v>
       </c>
       <c r="S364" t="n">
-        <v>13446</v>
+        <v>13612</v>
       </c>
       <c r="T364" t="inlineStr">
         <is>
@@ -31529,7 +31929,7 @@
         </is>
       </c>
       <c r="U364" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="365">
@@ -31545,7 +31945,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -31593,7 +31993,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M365" t="inlineStr"/>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr"/>
       <c r="P365" t="n">
@@ -31606,7 +32010,7 @@
         <v>0</v>
       </c>
       <c r="S365" t="n">
-        <v>1631</v>
+        <v>1648</v>
       </c>
       <c r="T365" t="inlineStr">
         <is>
@@ -31614,7 +32018,7 @@
         </is>
       </c>
       <c r="U365" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="366">
@@ -31630,7 +32034,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -31661,12 +32065,12 @@
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M366" t="inlineStr"/>
+      <c r="L366" t="inlineStr"/>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
       <c r="P366" t="n">
@@ -31679,7 +32083,7 @@
         <v>0</v>
       </c>
       <c r="S366" t="n">
-        <v>41633</v>
+        <v>41626</v>
       </c>
       <c r="T366" t="inlineStr">
         <is>
@@ -31687,7 +32091,7 @@
         </is>
       </c>
       <c r="U366" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="367">
@@ -31877,7 +32281,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -31925,7 +32329,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M369" t="inlineStr"/>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr"/>
       <c r="P369" t="n">
@@ -31938,7 +32346,7 @@
         <v>0</v>
       </c>
       <c r="S369" t="n">
-        <v>77254</v>
+        <v>78503</v>
       </c>
       <c r="T369" t="inlineStr">
         <is>
@@ -31946,7 +32354,7 @@
         </is>
       </c>
       <c r="U369" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="370">
@@ -32051,7 +32459,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -32099,7 +32507,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M371" t="inlineStr"/>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr"/>
       <c r="P371" t="n">
@@ -32112,7 +32524,7 @@
         <v>0</v>
       </c>
       <c r="S371" t="n">
-        <v>1403</v>
+        <v>1423</v>
       </c>
       <c r="T371" t="inlineStr">
         <is>
@@ -32120,7 +32532,7 @@
         </is>
       </c>
       <c r="U371" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="372">
@@ -32488,7 +32900,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -32536,7 +32948,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M376" t="inlineStr"/>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr"/>
       <c r="P376" t="n">
@@ -32549,7 +32965,7 @@
         <v>0</v>
       </c>
       <c r="S376" t="n">
-        <v>60045</v>
+        <v>61107</v>
       </c>
       <c r="T376" t="inlineStr">
         <is>
@@ -32557,7 +32973,7 @@
         </is>
       </c>
       <c r="U376" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="377">
@@ -33107,7 +33523,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -33180,7 +33596,7 @@
         </is>
       </c>
       <c r="U383" s="2" t="n">
-        <v>45239</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="384">
@@ -33366,7 +33782,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -33414,7 +33830,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M386" t="inlineStr"/>
+      <c r="M386" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr"/>
       <c r="P386" t="n">
@@ -33427,7 +33847,7 @@
         <v>0</v>
       </c>
       <c r="S386" t="n">
-        <v>237399</v>
+        <v>241346</v>
       </c>
       <c r="T386" t="inlineStr">
         <is>
@@ -33435,7 +33855,7 @@
         </is>
       </c>
       <c r="U386" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="387">
@@ -33981,7 +34401,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -34046,7 +34466,7 @@
         <v>0</v>
       </c>
       <c r="S393" t="n">
-        <v>63013</v>
+        <v>63271</v>
       </c>
       <c r="T393" t="inlineStr">
         <is>
@@ -34054,7 +34474,7 @@
         </is>
       </c>
       <c r="U393" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="394">
@@ -34685,7 +35105,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -34733,7 +35153,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M401" t="inlineStr"/>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr"/>
       <c r="P401" t="n">
@@ -34746,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="S401" t="n">
-        <v>133567</v>
+        <v>135897</v>
       </c>
       <c r="T401" t="inlineStr">
         <is>
@@ -34754,7 +35178,7 @@
         </is>
       </c>
       <c r="U401" s="2" t="n">
-        <v>45219</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="402">
@@ -34859,7 +35283,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -34907,7 +35331,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M403" t="inlineStr"/>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr"/>
       <c r="P403" t="n">
@@ -34920,7 +35348,7 @@
         <v>0</v>
       </c>
       <c r="S403" t="n">
-        <v>8552</v>
+        <v>8641</v>
       </c>
       <c r="T403" t="inlineStr">
         <is>
@@ -34928,7 +35356,7 @@
         </is>
       </c>
       <c r="U403" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="404">
@@ -34944,7 +35372,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -35013,7 +35441,7 @@
         </is>
       </c>
       <c r="U404" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="405">
@@ -35207,7 +35635,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -35255,7 +35683,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M407" t="inlineStr"/>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr"/>
       <c r="P407" t="n">
@@ -35268,7 +35700,7 @@
         <v>0</v>
       </c>
       <c r="S407" t="n">
-        <v>9051</v>
+        <v>9114</v>
       </c>
       <c r="T407" t="inlineStr">
         <is>
@@ -35276,7 +35708,7 @@
         </is>
       </c>
       <c r="U407" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="408">
@@ -35292,7 +35724,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -35365,7 +35797,7 @@
         </is>
       </c>
       <c r="U408" s="2" t="n">
-        <v>45239</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="409">
@@ -35571,7 +36003,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -35619,7 +36051,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M411" t="inlineStr"/>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr"/>
       <c r="P411" t="n">
@@ -35632,7 +36068,7 @@
         <v>0</v>
       </c>
       <c r="S411" t="n">
-        <v>9481</v>
+        <v>9639</v>
       </c>
       <c r="T411" t="inlineStr">
         <is>
@@ -35640,7 +36076,7 @@
         </is>
       </c>
       <c r="U411" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="412">
@@ -35656,7 +36092,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -35704,7 +36140,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M412" t="inlineStr"/>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr"/>
       <c r="P412" t="n">
@@ -35717,7 +36157,7 @@
         <v>0</v>
       </c>
       <c r="S412" t="n">
-        <v>17345</v>
+        <v>17607</v>
       </c>
       <c r="T412" t="inlineStr">
         <is>
@@ -35725,7 +36165,7 @@
         </is>
       </c>
       <c r="U412" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="413">
@@ -35741,7 +36181,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -35789,7 +36229,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M413" t="inlineStr"/>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr"/>
       <c r="P413" t="n">
@@ -35802,7 +36246,7 @@
         <v>0</v>
       </c>
       <c r="S413" t="n">
-        <v>9130</v>
+        <v>9309</v>
       </c>
       <c r="T413" t="inlineStr">
         <is>
@@ -35810,7 +36254,7 @@
         </is>
       </c>
       <c r="U413" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="414">
@@ -36089,7 +36533,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -36137,7 +36581,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M417" t="inlineStr"/>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr"/>
       <c r="P417" t="n">
@@ -36150,7 +36598,7 @@
         <v>0</v>
       </c>
       <c r="S417" t="n">
-        <v>10362</v>
+        <v>10519</v>
       </c>
       <c r="T417" t="inlineStr">
         <is>
@@ -36158,7 +36606,7 @@
         </is>
       </c>
       <c r="U417" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="418">
@@ -36174,7 +36622,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -36239,7 +36687,7 @@
         <v>0</v>
       </c>
       <c r="S418" t="n">
-        <v>23406</v>
+        <v>23728</v>
       </c>
       <c r="T418" t="inlineStr">
         <is>
@@ -36247,7 +36695,7 @@
         </is>
       </c>
       <c r="U418" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="419">
@@ -36263,7 +36711,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -36311,7 +36759,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M419" t="inlineStr"/>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr"/>
       <c r="P419" t="n">
@@ -36324,7 +36776,7 @@
         <v>0</v>
       </c>
       <c r="S419" t="n">
-        <v>18828</v>
+        <v>19142</v>
       </c>
       <c r="T419" t="inlineStr">
         <is>
@@ -36332,7 +36784,7 @@
         </is>
       </c>
       <c r="U419" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="420">
@@ -36522,7 +36974,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -36587,7 +37039,7 @@
         <v>0</v>
       </c>
       <c r="S422" t="n">
-        <v>9427</v>
+        <v>9455</v>
       </c>
       <c r="T422" t="inlineStr">
         <is>
@@ -36595,7 +37047,7 @@
         </is>
       </c>
       <c r="U422" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="423">
@@ -36704,7 +37156,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -36752,7 +37204,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M424" t="inlineStr"/>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr"/>
       <c r="P424" t="n">
@@ -36765,7 +37221,7 @@
         <v>0</v>
       </c>
       <c r="S424" t="n">
-        <v>11137</v>
+        <v>11306</v>
       </c>
       <c r="T424" t="inlineStr">
         <is>
@@ -36773,7 +37229,7 @@
         </is>
       </c>
       <c r="U424" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="425">
@@ -37056,7 +37512,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -37099,7 +37555,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M428" t="inlineStr"/>
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr"/>
@@ -37113,7 +37573,7 @@
         <v>0</v>
       </c>
       <c r="S428" t="n">
-        <v>35837</v>
+        <v>36268</v>
       </c>
       <c r="T428" t="inlineStr">
         <is>
@@ -37121,7 +37581,7 @@
         </is>
       </c>
       <c r="U428" s="2" t="n">
-        <v>45203</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="429">
@@ -37137,7 +37597,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -37185,7 +37645,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M429" t="inlineStr"/>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr"/>
       <c r="P429" t="n">
@@ -37198,7 +37662,7 @@
         <v>0</v>
       </c>
       <c r="S429" t="n">
-        <v>61569</v>
+        <v>62732</v>
       </c>
       <c r="T429" t="inlineStr">
         <is>
@@ -37206,7 +37670,7 @@
         </is>
       </c>
       <c r="U429" s="2" t="n">
-        <v>45218</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="430">
@@ -37400,7 +37864,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -37448,7 +37912,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M432" t="inlineStr"/>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr"/>
       <c r="P432" t="n">
@@ -37461,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="S432" t="n">
-        <v>19429</v>
+        <v>19739</v>
       </c>
       <c r="T432" t="inlineStr">
         <is>
@@ -37469,7 +37937,7 @@
         </is>
       </c>
       <c r="U432" s="2" t="n">
-        <v>45217</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="433">
@@ -37534,7 +38002,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -37582,7 +38050,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M434" t="inlineStr"/>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr"/>
       <c r="P434" t="n">
@@ -37595,7 +38067,7 @@
         <v>0</v>
       </c>
       <c r="S434" t="n">
-        <v>19139</v>
+        <v>19454</v>
       </c>
       <c r="T434" t="inlineStr">
         <is>
@@ -37603,7 +38075,7 @@
         </is>
       </c>
       <c r="U434" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="435">
@@ -37708,7 +38180,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -37756,7 +38228,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M436" t="inlineStr"/>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr"/>
       <c r="P436" t="n">
@@ -37769,7 +38245,7 @@
         <v>0</v>
       </c>
       <c r="S436" t="n">
-        <v>18924</v>
+        <v>19590</v>
       </c>
       <c r="T436" t="inlineStr">
         <is>
@@ -37777,7 +38253,7 @@
         </is>
       </c>
       <c r="U436" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="437">
@@ -37882,7 +38358,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -37947,7 +38423,7 @@
         <v>0</v>
       </c>
       <c r="S438" t="n">
-        <v>290778</v>
+        <v>288393</v>
       </c>
       <c r="T438" t="inlineStr">
         <is>
@@ -37955,7 +38431,7 @@
         </is>
       </c>
       <c r="U438" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="439">
@@ -37971,7 +38447,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -38036,7 +38512,7 @@
         <v>0</v>
       </c>
       <c r="S439" t="n">
-        <v>62815</v>
+        <v>63009</v>
       </c>
       <c r="T439" t="inlineStr">
         <is>
@@ -38044,7 +38520,7 @@
         </is>
       </c>
       <c r="U439" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="440">
@@ -38315,7 +38791,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -38363,7 +38839,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M443" t="inlineStr"/>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr"/>
       <c r="P443" t="n">
@@ -38376,7 +38856,7 @@
         <v>0</v>
       </c>
       <c r="S443" t="n">
-        <v>2061</v>
+        <v>2096</v>
       </c>
       <c r="T443" t="inlineStr">
         <is>
@@ -38384,7 +38864,7 @@
         </is>
       </c>
       <c r="U443" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="444">
@@ -38400,7 +38880,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -38448,7 +38928,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M444" t="inlineStr"/>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr"/>
       <c r="P444" t="n">
@@ -38461,7 +38945,7 @@
         <v>0</v>
       </c>
       <c r="S444" t="n">
-        <v>39542</v>
+        <v>40139</v>
       </c>
       <c r="T444" t="inlineStr">
         <is>
@@ -38469,7 +38953,7 @@
         </is>
       </c>
       <c r="U444" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="445">
@@ -38655,7 +39139,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -38703,7 +39187,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M447" t="inlineStr"/>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr"/>
       <c r="P447" t="n">
@@ -38716,7 +39204,7 @@
         <v>0</v>
       </c>
       <c r="S447" t="n">
-        <v>32112</v>
+        <v>32588</v>
       </c>
       <c r="T447" t="inlineStr">
         <is>
@@ -38724,7 +39212,7 @@
         </is>
       </c>
       <c r="U447" s="2" t="n">
-        <v>45219</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="448">
@@ -38825,7 +39313,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -38890,7 +39378,7 @@
         <v>0</v>
       </c>
       <c r="S449" t="n">
-        <v>6602</v>
+        <v>6693</v>
       </c>
       <c r="T449" t="inlineStr">
         <is>
@@ -38898,7 +39386,7 @@
         </is>
       </c>
       <c r="U449" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="450">
@@ -38914,7 +39402,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -38979,7 +39467,7 @@
         <v>0</v>
       </c>
       <c r="S450" t="n">
-        <v>4592</v>
+        <v>4617</v>
       </c>
       <c r="T450" t="inlineStr">
         <is>
@@ -38987,7 +39475,7 @@
         </is>
       </c>
       <c r="U450" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="451">
@@ -39003,7 +39491,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -39068,7 +39556,7 @@
         <v>0</v>
       </c>
       <c r="S451" t="n">
-        <v>64056</v>
+        <v>64421</v>
       </c>
       <c r="T451" t="inlineStr">
         <is>
@@ -39076,7 +39564,7 @@
         </is>
       </c>
       <c r="U451" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="452">
@@ -39262,7 +39750,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -39310,7 +39798,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M454" t="inlineStr"/>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr"/>
       <c r="P454" t="n">
@@ -39323,7 +39815,7 @@
         <v>0</v>
       </c>
       <c r="S454" t="n">
-        <v>9616</v>
+        <v>9756</v>
       </c>
       <c r="T454" t="inlineStr">
         <is>
@@ -39331,7 +39823,7 @@
         </is>
       </c>
       <c r="U454" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="455">
@@ -39347,7 +39839,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -39395,7 +39887,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M455" t="inlineStr"/>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr"/>
       <c r="P455" t="n">
@@ -39408,7 +39904,7 @@
         <v>0</v>
       </c>
       <c r="S455" t="n">
-        <v>7057</v>
+        <v>7395</v>
       </c>
       <c r="T455" t="inlineStr">
         <is>
@@ -39416,7 +39912,7 @@
         </is>
       </c>
       <c r="U455" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="456">
@@ -39521,7 +40017,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -39569,7 +40065,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M457" t="inlineStr"/>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr"/>
       <c r="P457" t="n">
@@ -39582,7 +40082,7 @@
         <v>0</v>
       </c>
       <c r="S457" t="n">
-        <v>44067</v>
+        <v>45062</v>
       </c>
       <c r="T457" t="inlineStr">
         <is>
@@ -39590,7 +40090,7 @@
         </is>
       </c>
       <c r="U457" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="458">
@@ -39691,7 +40191,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -39760,7 +40260,7 @@
         </is>
       </c>
       <c r="U459" s="2" t="n">
-        <v>45222</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="460">
@@ -39865,7 +40365,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -39930,7 +40430,7 @@
         <v>0</v>
       </c>
       <c r="S461" t="n">
-        <v>19388</v>
+        <v>19542</v>
       </c>
       <c r="T461" t="inlineStr">
         <is>
@@ -39938,7 +40438,7 @@
         </is>
       </c>
       <c r="U461" s="2" t="n">
-        <v>45240</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="462">
@@ -40043,7 +40543,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -40116,7 +40616,7 @@
         <v>0</v>
       </c>
       <c r="S463" t="n">
-        <v>75548</v>
+        <v>75964</v>
       </c>
       <c r="T463" t="inlineStr">
         <is>
@@ -40124,7 +40624,7 @@
         </is>
       </c>
       <c r="U463" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="464">
@@ -40310,7 +40810,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -40358,7 +40858,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M466" t="inlineStr"/>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr"/>
       <c r="P466" t="n">
@@ -40371,7 +40875,7 @@
         <v>0</v>
       </c>
       <c r="S466" t="n">
-        <v>27692</v>
+        <v>27964</v>
       </c>
       <c r="T466" t="inlineStr">
         <is>
@@ -40379,7 +40883,7 @@
         </is>
       </c>
       <c r="U466" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="467">
@@ -40395,7 +40899,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -40443,7 +40947,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M467" t="inlineStr"/>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr"/>
       <c r="P467" t="n">
@@ -40456,7 +40964,7 @@
         <v>0</v>
       </c>
       <c r="S467" t="n">
-        <v>8360</v>
+        <v>8498</v>
       </c>
       <c r="T467" t="inlineStr">
         <is>
@@ -40464,7 +40972,7 @@
         </is>
       </c>
       <c r="U467" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="468">
@@ -40480,7 +40988,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -40545,7 +41053,7 @@
         <v>0</v>
       </c>
       <c r="S468" t="n">
-        <v>24211</v>
+        <v>24381</v>
       </c>
       <c r="T468" t="inlineStr">
         <is>
@@ -40553,7 +41061,7 @@
         </is>
       </c>
       <c r="U468" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="469">
@@ -40569,7 +41077,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -40617,7 +41125,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M469" t="inlineStr"/>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr"/>
       <c r="P469" t="n">
@@ -40630,7 +41142,7 @@
         <v>0</v>
       </c>
       <c r="S469" t="n">
-        <v>11909</v>
+        <v>12011</v>
       </c>
       <c r="T469" t="inlineStr">
         <is>
@@ -40638,7 +41150,7 @@
         </is>
       </c>
       <c r="U469" s="2" t="n">
-        <v>45212</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="470">
@@ -40654,7 +41166,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -40702,7 +41214,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M470" t="inlineStr"/>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr"/>
       <c r="P470" t="n">
@@ -40715,7 +41231,7 @@
         <v>0</v>
       </c>
       <c r="S470" t="n">
-        <v>157938</v>
+        <v>160655</v>
       </c>
       <c r="T470" t="inlineStr">
         <is>
@@ -40723,7 +41239,7 @@
         </is>
       </c>
       <c r="U470" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="471">
@@ -40739,7 +41255,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -40787,7 +41303,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M471" t="inlineStr"/>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr"/>
       <c r="P471" t="n">
@@ -40800,7 +41320,7 @@
         <v>0</v>
       </c>
       <c r="S471" t="n">
-        <v>5083</v>
+        <v>5168</v>
       </c>
       <c r="T471" t="inlineStr">
         <is>
@@ -40808,7 +41328,7 @@
         </is>
       </c>
       <c r="U471" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="472">
@@ -40913,7 +41433,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -40961,7 +41481,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M473" t="inlineStr"/>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr"/>
       <c r="P473" t="n">
@@ -40974,7 +41498,7 @@
         <v>0</v>
       </c>
       <c r="S473" t="n">
-        <v>9516</v>
+        <v>9667</v>
       </c>
       <c r="T473" t="inlineStr">
         <is>
@@ -40982,7 +41506,7 @@
         </is>
       </c>
       <c r="U473" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="474">
@@ -40998,7 +41522,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -41071,7 +41595,7 @@
         <v>0</v>
       </c>
       <c r="S474" t="n">
-        <v>5432</v>
+        <v>5485</v>
       </c>
       <c r="T474" t="inlineStr">
         <is>
@@ -41079,7 +41603,7 @@
         </is>
       </c>
       <c r="U474" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="475">
@@ -41273,7 +41797,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -41321,7 +41845,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M477" t="inlineStr"/>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr"/>
       <c r="P477" t="n">
@@ -41334,7 +41862,7 @@
         <v>0</v>
       </c>
       <c r="S477" t="n">
-        <v>44154</v>
+        <v>44846</v>
       </c>
       <c r="T477" t="inlineStr">
         <is>
@@ -41342,7 +41870,7 @@
         </is>
       </c>
       <c r="U477" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="478">
@@ -41447,7 +41975,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
@@ -41496,7 +42024,7 @@
         </is>
       </c>
       <c r="U479" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="480">
@@ -41512,7 +42040,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -41560,7 +42088,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M480" t="inlineStr"/>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr"/>
       <c r="P480" t="n">
@@ -41573,7 +42105,7 @@
         <v>0</v>
       </c>
       <c r="S480" t="n">
-        <v>22999</v>
+        <v>23413</v>
       </c>
       <c r="T480" t="inlineStr">
         <is>
@@ -41581,7 +42113,7 @@
         </is>
       </c>
       <c r="U480" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="481">
@@ -41771,7 +42303,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -41819,7 +42351,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M483" t="inlineStr"/>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr"/>
       <c r="P483" t="n">
@@ -41832,7 +42368,7 @@
         <v>0</v>
       </c>
       <c r="S483" t="n">
-        <v>6995</v>
+        <v>7102</v>
       </c>
       <c r="T483" t="inlineStr">
         <is>
@@ -41840,7 +42376,7 @@
         </is>
       </c>
       <c r="U483" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="484">
@@ -41945,7 +42481,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>2023/10/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -42010,7 +42546,7 @@
         <v>0</v>
       </c>
       <c r="S485" t="n">
-        <v>42155</v>
+        <v>42729</v>
       </c>
       <c r="T485" t="inlineStr">
         <is>
@@ -42018,7 +42554,7 @@
         </is>
       </c>
       <c r="U485" s="2" t="n">
-        <v>45213</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="486">
@@ -42208,7 +42744,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -42281,7 +42817,7 @@
         </is>
       </c>
       <c r="U488" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="489">
@@ -42382,7 +42918,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -42430,7 +42966,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M490" t="inlineStr"/>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr"/>
       <c r="P490" t="n">
@@ -42443,7 +42983,7 @@
         <v>0</v>
       </c>
       <c r="S490" t="n">
-        <v>10282</v>
+        <v>10433</v>
       </c>
       <c r="T490" t="inlineStr">
         <is>
@@ -42451,7 +42991,7 @@
         </is>
       </c>
       <c r="U490" s="2" t="n">
-        <v>45205</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="491">
@@ -43001,7 +43541,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -43074,7 +43614,7 @@
         </is>
       </c>
       <c r="U497" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="498">
@@ -43090,7 +43630,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/18</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -43155,7 +43695,7 @@
         <v>0</v>
       </c>
       <c r="S498" t="n">
-        <v>15678</v>
+        <v>15746</v>
       </c>
       <c r="T498" t="inlineStr">
         <is>
@@ -43163,7 +43703,7 @@
         </is>
       </c>
       <c r="U498" s="2" t="n">
-        <v>45244</v>
+        <v>45248</v>
       </c>
     </row>
     <row r="499">
@@ -43179,7 +43719,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -43227,7 +43767,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M499" t="inlineStr"/>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N499" t="inlineStr"/>
       <c r="O499" t="inlineStr"/>
       <c r="P499" t="n">
@@ -43240,7 +43784,7 @@
         <v>0</v>
       </c>
       <c r="S499" t="n">
-        <v>2483</v>
+        <v>2491</v>
       </c>
       <c r="T499" t="inlineStr">
         <is>
@@ -43248,7 +43792,7 @@
         </is>
       </c>
       <c r="U499" s="2" t="n">
-        <v>45224</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="500">
@@ -43264,7 +43808,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -43312,7 +43856,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M500" t="inlineStr"/>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N500" t="inlineStr"/>
       <c r="O500" t="inlineStr"/>
       <c r="P500" t="n">
@@ -43325,7 +43873,7 @@
         <v>0</v>
       </c>
       <c r="S500" t="n">
-        <v>27744</v>
+        <v>28012</v>
       </c>
       <c r="T500" t="inlineStr">
         <is>
@@ -43333,7 +43881,7 @@
         </is>
       </c>
       <c r="U500" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="501">
@@ -43349,7 +43897,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -43397,7 +43945,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M501" t="inlineStr"/>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N501" t="inlineStr"/>
       <c r="O501" t="inlineStr">
         <is>
@@ -43414,7 +43966,7 @@
         <v>0</v>
       </c>
       <c r="S501" t="n">
-        <v>4124</v>
+        <v>4184</v>
       </c>
       <c r="T501" t="inlineStr">
         <is>
@@ -43422,7 +43974,7 @@
         </is>
       </c>
       <c r="U501" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="502">
@@ -43438,7 +43990,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -43503,7 +44055,7 @@
         <v>0</v>
       </c>
       <c r="S502" t="n">
-        <v>8693</v>
+        <v>8753</v>
       </c>
       <c r="T502" t="inlineStr">
         <is>
@@ -43511,7 +44063,7 @@
         </is>
       </c>
       <c r="U502" s="2" t="n">
-        <v>45236</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="503">
@@ -43624,7 +44176,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -43672,7 +44224,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M504" t="inlineStr"/>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N504" t="inlineStr"/>
       <c r="O504" t="inlineStr"/>
       <c r="P504" t="n">
@@ -43685,7 +44241,7 @@
         <v>0</v>
       </c>
       <c r="S504" t="n">
-        <v>23144</v>
+        <v>23500</v>
       </c>
       <c r="T504" t="inlineStr">
         <is>
@@ -43693,7 +44249,7 @@
         </is>
       </c>
       <c r="U504" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="505">
@@ -43794,7 +44350,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -43842,7 +44398,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M506" t="inlineStr"/>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N506" t="inlineStr">
         <is>
           <t>x</t>
@@ -43863,7 +44423,7 @@
         <v>0</v>
       </c>
       <c r="S506" t="n">
-        <v>13165</v>
+        <v>13341</v>
       </c>
       <c r="T506" t="inlineStr">
         <is>
@@ -43871,7 +44431,7 @@
         </is>
       </c>
       <c r="U506" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="507">
@@ -43887,7 +44447,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>2023/10/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -43935,7 +44495,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M507" t="inlineStr"/>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N507" t="inlineStr"/>
       <c r="O507" t="inlineStr"/>
       <c r="P507" t="n">
@@ -43948,7 +44512,7 @@
         <v>0</v>
       </c>
       <c r="S507" t="n">
-        <v>25511</v>
+        <v>25642</v>
       </c>
       <c r="T507" t="inlineStr">
         <is>
@@ -43956,7 +44520,7 @@
         </is>
       </c>
       <c r="U507" s="2" t="n">
-        <v>45213</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="508">
@@ -44061,7 +44625,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -44109,7 +44673,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M509" t="inlineStr"/>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr"/>
       <c r="P509" t="n">
@@ -44122,7 +44690,7 @@
         <v>0</v>
       </c>
       <c r="S509" t="n">
-        <v>7261</v>
+        <v>7352</v>
       </c>
       <c r="T509" t="inlineStr">
         <is>
@@ -44130,7 +44698,7 @@
         </is>
       </c>
       <c r="U509" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="510">
@@ -44320,7 +44888,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -44368,7 +44936,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M512" t="inlineStr"/>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N512" t="inlineStr"/>
       <c r="O512" t="inlineStr"/>
       <c r="P512" t="n">
@@ -44381,7 +44953,7 @@
         <v>0</v>
       </c>
       <c r="S512" t="n">
-        <v>67443</v>
+        <v>68165</v>
       </c>
       <c r="T512" t="inlineStr">
         <is>
@@ -44389,7 +44961,7 @@
         </is>
       </c>
       <c r="U512" s="2" t="n">
-        <v>45214</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="513">
@@ -44834,7 +45406,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/18</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -44899,7 +45471,7 @@
         <v>0</v>
       </c>
       <c r="S518" t="n">
-        <v>18099</v>
+        <v>18225</v>
       </c>
       <c r="T518" t="inlineStr">
         <is>
@@ -44907,7 +45479,7 @@
         </is>
       </c>
       <c r="U518" s="2" t="n">
-        <v>45239</v>
+        <v>45248</v>
       </c>
     </row>
     <row r="519">
@@ -44923,7 +45495,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -44988,7 +45560,7 @@
         <v>0</v>
       </c>
       <c r="S519" t="n">
-        <v>21811</v>
+        <v>21893</v>
       </c>
       <c r="T519" t="inlineStr">
         <is>
@@ -44996,7 +45568,7 @@
         </is>
       </c>
       <c r="U519" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="520">
@@ -45012,7 +45584,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -45060,7 +45632,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M520" t="inlineStr"/>
+      <c r="M520" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr"/>
       <c r="P520" t="n">
@@ -45073,7 +45649,7 @@
         <v>0</v>
       </c>
       <c r="S520" t="n">
-        <v>3198</v>
+        <v>3276</v>
       </c>
       <c r="T520" t="inlineStr">
         <is>
@@ -45081,7 +45657,7 @@
         </is>
       </c>
       <c r="U520" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="521">
@@ -45453,7 +46029,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -45501,7 +46077,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M525" t="inlineStr"/>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr"/>
       <c r="P525" t="n">
@@ -45514,7 +46094,7 @@
         <v>0</v>
       </c>
       <c r="S525" t="n">
-        <v>65993</v>
+        <v>66876</v>
       </c>
       <c r="T525" t="inlineStr">
         <is>
@@ -45522,7 +46102,7 @@
         </is>
       </c>
       <c r="U525" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="526">
@@ -45720,7 +46300,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -45764,7 +46344,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M528" t="inlineStr"/>
+      <c r="M528" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N528" t="inlineStr"/>
       <c r="O528" t="inlineStr">
         <is>
@@ -45781,7 +46365,7 @@
         <v>0</v>
       </c>
       <c r="S528" t="n">
-        <v>84954</v>
+        <v>85659</v>
       </c>
       <c r="T528" t="inlineStr">
         <is>
@@ -45789,7 +46373,7 @@
         </is>
       </c>
       <c r="U528" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="529">
@@ -45979,7 +46563,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -46027,7 +46611,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M531" t="inlineStr"/>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N531" t="inlineStr"/>
       <c r="O531" t="inlineStr"/>
       <c r="P531" t="n">
@@ -46040,7 +46628,7 @@
         <v>0</v>
       </c>
       <c r="S531" t="n">
-        <v>16939</v>
+        <v>17163</v>
       </c>
       <c r="T531" t="inlineStr">
         <is>
@@ -46048,7 +46636,7 @@
         </is>
       </c>
       <c r="U531" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="532">
@@ -46064,7 +46652,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>2023/08/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -46102,7 +46690,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L532" t="inlineStr"/>
       <c r="M532" t="inlineStr"/>
       <c r="N532" t="inlineStr"/>
@@ -46117,7 +46709,7 @@
         <v>0</v>
       </c>
       <c r="S532" t="n">
-        <v>50004</v>
+        <v>51371</v>
       </c>
       <c r="T532" t="inlineStr">
         <is>
@@ -46125,7 +46717,7 @@
         </is>
       </c>
       <c r="U532" s="2" t="n">
-        <v>45156</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="533">
@@ -46141,7 +46733,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -46189,7 +46781,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M533" t="inlineStr"/>
+      <c r="M533" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N533" t="inlineStr"/>
       <c r="O533" t="inlineStr"/>
       <c r="P533" t="n">
@@ -46202,7 +46798,7 @@
         <v>0</v>
       </c>
       <c r="S533" t="n">
-        <v>12848</v>
+        <v>13057</v>
       </c>
       <c r="T533" t="inlineStr">
         <is>
@@ -46210,7 +46806,7 @@
         </is>
       </c>
       <c r="U533" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="534">
@@ -46453,7 +47049,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -46501,7 +47097,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M537" t="inlineStr"/>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N537" t="inlineStr"/>
       <c r="O537" t="inlineStr"/>
       <c r="P537" t="n">
@@ -46514,7 +47114,7 @@
         <v>0</v>
       </c>
       <c r="S537" t="n">
-        <v>11590</v>
+        <v>11618</v>
       </c>
       <c r="T537" t="inlineStr">
         <is>
@@ -46522,7 +47122,7 @@
         </is>
       </c>
       <c r="U537" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="538">
@@ -46631,7 +47231,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -46679,7 +47279,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M539" t="inlineStr"/>
+      <c r="M539" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N539" t="inlineStr"/>
       <c r="O539" t="inlineStr"/>
       <c r="P539" t="n">
@@ -46692,7 +47296,7 @@
         <v>0</v>
       </c>
       <c r="S539" t="n">
-        <v>27585</v>
+        <v>27888</v>
       </c>
       <c r="T539" t="inlineStr">
         <is>
@@ -46700,7 +47304,7 @@
         </is>
       </c>
       <c r="U539" s="2" t="n">
-        <v>45218</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="540">
@@ -46716,7 +47320,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -46781,7 +47385,7 @@
         <v>0</v>
       </c>
       <c r="S540" t="n">
-        <v>20818</v>
+        <v>20925</v>
       </c>
       <c r="T540" t="inlineStr">
         <is>
@@ -46789,7 +47393,7 @@
         </is>
       </c>
       <c r="U540" s="2" t="n">
-        <v>45239</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="541">
@@ -46979,7 +47583,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -47027,7 +47631,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M543" t="inlineStr"/>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N543" t="inlineStr"/>
       <c r="O543" t="inlineStr"/>
       <c r="P543" t="n">
@@ -47040,7 +47648,7 @@
         <v>0</v>
       </c>
       <c r="S543" t="n">
-        <v>95038</v>
+        <v>97188</v>
       </c>
       <c r="T543" t="inlineStr">
         <is>
@@ -47048,7 +47656,7 @@
         </is>
       </c>
       <c r="U543" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="544">
@@ -47153,7 +47761,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -47201,7 +47809,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M545" t="inlineStr"/>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N545" t="inlineStr"/>
       <c r="O545" t="inlineStr"/>
       <c r="P545" t="n">
@@ -47214,7 +47826,7 @@
         <v>0</v>
       </c>
       <c r="S545" t="n">
-        <v>101144</v>
+        <v>102666</v>
       </c>
       <c r="T545" t="inlineStr">
         <is>
@@ -47222,7 +47834,7 @@
         </is>
       </c>
       <c r="U545" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="546">
@@ -47416,7 +48028,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -47485,7 +48097,7 @@
         </is>
       </c>
       <c r="U548" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="549">
@@ -47501,7 +48113,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -47549,7 +48161,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M549" t="inlineStr"/>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N549" t="inlineStr"/>
       <c r="O549" t="inlineStr"/>
       <c r="P549" t="n">
@@ -47562,7 +48178,7 @@
         <v>0</v>
       </c>
       <c r="S549" t="n">
-        <v>37418</v>
+        <v>38302</v>
       </c>
       <c r="T549" t="inlineStr">
         <is>
@@ -47570,7 +48186,7 @@
         </is>
       </c>
       <c r="U549" s="2" t="n">
-        <v>45236</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="550">
@@ -47675,7 +48291,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -47740,7 +48356,7 @@
         </is>
       </c>
       <c r="U551" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="552">
@@ -47934,7 +48550,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -47999,7 +48615,7 @@
         <v>0</v>
       </c>
       <c r="S554" t="n">
-        <v>21249</v>
+        <v>21413</v>
       </c>
       <c r="T554" t="inlineStr">
         <is>
@@ -48007,7 +48623,7 @@
         </is>
       </c>
       <c r="U554" s="2" t="n">
-        <v>45239</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="555">
@@ -48023,7 +48639,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -48096,7 +48712,7 @@
         </is>
       </c>
       <c r="U555" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="556">
@@ -48112,7 +48728,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -48160,7 +48776,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M556" t="inlineStr"/>
+      <c r="M556" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N556" t="inlineStr"/>
       <c r="O556" t="inlineStr"/>
       <c r="P556" t="n">
@@ -48173,7 +48793,7 @@
         <v>0</v>
       </c>
       <c r="S556" t="n">
-        <v>46289</v>
+        <v>47431</v>
       </c>
       <c r="T556" t="inlineStr">
         <is>
@@ -48181,7 +48801,7 @@
         </is>
       </c>
       <c r="U556" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="557">
@@ -48379,7 +48999,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -48444,7 +49064,7 @@
         </is>
       </c>
       <c r="U559" s="2" t="n">
-        <v>45222</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="560">
@@ -48460,7 +49080,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -48508,7 +49128,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M560" t="inlineStr"/>
+      <c r="M560" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N560" t="inlineStr"/>
       <c r="O560" t="inlineStr"/>
       <c r="P560" t="n">
@@ -48521,7 +49145,7 @@
         <v>0</v>
       </c>
       <c r="S560" t="n">
-        <v>7204</v>
+        <v>7350</v>
       </c>
       <c r="T560" t="inlineStr">
         <is>
@@ -48529,7 +49153,7 @@
         </is>
       </c>
       <c r="U560" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="561">
@@ -48719,7 +49343,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>2023/07/14</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -48776,7 +49400,7 @@
         </is>
       </c>
       <c r="U563" s="2" t="n">
-        <v>45121</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="564">
@@ -48877,7 +49501,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -48925,7 +49549,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M565" t="inlineStr"/>
+      <c r="M565" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N565" t="inlineStr"/>
       <c r="O565" t="inlineStr"/>
       <c r="P565" t="n">
@@ -48938,7 +49566,7 @@
         <v>0</v>
       </c>
       <c r="S565" t="n">
-        <v>13726</v>
+        <v>13784</v>
       </c>
       <c r="T565" t="inlineStr">
         <is>
@@ -48946,7 +49574,7 @@
         </is>
       </c>
       <c r="U565" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="566">
@@ -49140,7 +49768,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -49213,7 +49841,7 @@
         <v>0</v>
       </c>
       <c r="S568" t="n">
-        <v>17287</v>
+        <v>17525</v>
       </c>
       <c r="T568" t="inlineStr">
         <is>
@@ -49221,7 +49849,7 @@
         </is>
       </c>
       <c r="U568" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="569">
@@ -49427,7 +50055,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -49475,7 +50103,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M571" t="inlineStr"/>
+      <c r="M571" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N571" t="inlineStr"/>
       <c r="O571" t="inlineStr"/>
       <c r="P571" t="n">
@@ -49488,7 +50120,7 @@
         <v>0</v>
       </c>
       <c r="S571" t="n">
-        <v>2186</v>
+        <v>2243</v>
       </c>
       <c r="T571" t="inlineStr">
         <is>
@@ -49496,7 +50128,7 @@
         </is>
       </c>
       <c r="U571" s="2" t="n">
-        <v>45238</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="572">
@@ -49601,7 +50233,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -49649,7 +50281,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M573" t="inlineStr"/>
+      <c r="M573" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N573" t="inlineStr"/>
       <c r="O573" t="inlineStr"/>
       <c r="P573" t="n">
@@ -49662,7 +50298,7 @@
         <v>0</v>
       </c>
       <c r="S573" t="n">
-        <v>3263</v>
+        <v>3301</v>
       </c>
       <c r="T573" t="inlineStr">
         <is>
@@ -49670,7 +50306,7 @@
         </is>
       </c>
       <c r="U573" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="574">
@@ -49775,7 +50411,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -49823,7 +50459,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M575" t="inlineStr"/>
+      <c r="M575" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N575" t="inlineStr"/>
       <c r="O575" t="inlineStr"/>
       <c r="P575" t="n">
@@ -49836,7 +50476,7 @@
         <v>0</v>
       </c>
       <c r="S575" t="n">
-        <v>8845</v>
+        <v>8874</v>
       </c>
       <c r="T575" t="inlineStr">
         <is>
@@ -49844,7 +50484,7 @@
         </is>
       </c>
       <c r="U575" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="576">
@@ -49860,7 +50500,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -49908,7 +50548,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M576" t="inlineStr"/>
+      <c r="M576" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N576" t="inlineStr"/>
       <c r="O576" t="inlineStr"/>
       <c r="P576" t="n">
@@ -49921,7 +50565,7 @@
         <v>0</v>
       </c>
       <c r="S576" t="n">
-        <v>1333</v>
+        <v>1355</v>
       </c>
       <c r="T576" t="inlineStr">
         <is>
@@ -49929,7 +50573,7 @@
         </is>
       </c>
       <c r="U576" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="577">
@@ -50034,7 +50678,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/18</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -50082,7 +50726,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M578" t="inlineStr"/>
+      <c r="M578" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N578" t="inlineStr"/>
       <c r="O578" t="inlineStr"/>
       <c r="P578" t="n">
@@ -50095,7 +50743,7 @@
         <v>0</v>
       </c>
       <c r="S578" t="n">
-        <v>3150</v>
+        <v>3248</v>
       </c>
       <c r="T578" t="inlineStr">
         <is>
@@ -50103,7 +50751,7 @@
         </is>
       </c>
       <c r="U578" s="2" t="n">
-        <v>45212</v>
+        <v>45248</v>
       </c>
     </row>
     <row r="579">
@@ -50374,7 +51022,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -50422,7 +51070,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M582" t="inlineStr"/>
+      <c r="M582" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N582" t="inlineStr"/>
       <c r="O582" t="inlineStr"/>
       <c r="P582" t="n">
@@ -50435,7 +51087,7 @@
         <v>0</v>
       </c>
       <c r="S582" t="n">
-        <v>13996</v>
+        <v>14218</v>
       </c>
       <c r="T582" t="inlineStr">
         <is>
@@ -50443,7 +51095,7 @@
         </is>
       </c>
       <c r="U582" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="583">
@@ -50686,7 +51338,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -50734,7 +51386,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M586" t="inlineStr"/>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N586" t="inlineStr"/>
       <c r="O586" t="inlineStr"/>
       <c r="P586" t="n">
@@ -50747,7 +51403,7 @@
         <v>0</v>
       </c>
       <c r="S586" t="n">
-        <v>9054</v>
+        <v>9142</v>
       </c>
       <c r="T586" t="inlineStr">
         <is>
@@ -50755,7 +51411,7 @@
         </is>
       </c>
       <c r="U586" s="2" t="n">
-        <v>45214</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="587">
@@ -50860,7 +51516,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -50908,7 +51564,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M588" t="inlineStr"/>
+      <c r="M588" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N588" t="inlineStr"/>
       <c r="O588" t="inlineStr"/>
       <c r="P588" t="n">
@@ -50921,7 +51581,7 @@
         <v>0</v>
       </c>
       <c r="S588" t="n">
-        <v>7806</v>
+        <v>7967</v>
       </c>
       <c r="T588" t="inlineStr">
         <is>
@@ -50929,7 +51589,7 @@
         </is>
       </c>
       <c r="U588" s="2" t="n">
-        <v>45212</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="589">
@@ -50945,7 +51605,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -50993,7 +51653,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M589" t="inlineStr"/>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N589" t="inlineStr"/>
       <c r="O589" t="inlineStr"/>
       <c r="P589" t="n">
@@ -51006,7 +51670,7 @@
         <v>0</v>
       </c>
       <c r="S589" t="n">
-        <v>128979</v>
+        <v>131172</v>
       </c>
       <c r="T589" t="inlineStr">
         <is>
@@ -51014,7 +51678,7 @@
         </is>
       </c>
       <c r="U589" s="2" t="n">
-        <v>45237</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="590">
@@ -51030,7 +51694,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -51078,7 +51742,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M590" t="inlineStr"/>
+      <c r="M590" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N590" t="inlineStr"/>
       <c r="O590" t="inlineStr"/>
       <c r="P590" t="n">
@@ -51091,7 +51759,7 @@
         <v>0</v>
       </c>
       <c r="S590" t="n">
-        <v>97765</v>
+        <v>98182</v>
       </c>
       <c r="T590" t="inlineStr">
         <is>
@@ -51099,7 +51767,7 @@
         </is>
       </c>
       <c r="U590" s="2" t="n">
-        <v>45223</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="591">
@@ -51649,7 +52317,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -51697,7 +52365,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M597" t="inlineStr"/>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N597" t="inlineStr"/>
       <c r="O597" t="inlineStr"/>
       <c r="P597" t="n">
@@ -51710,7 +52382,7 @@
         <v>0</v>
       </c>
       <c r="S597" t="n">
-        <v>153063</v>
+        <v>154697</v>
       </c>
       <c r="T597" t="inlineStr">
         <is>
@@ -51718,7 +52390,7 @@
         </is>
       </c>
       <c r="U597" s="2" t="n">
-        <v>45217</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="598">
@@ -51734,7 +52406,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -51807,7 +52479,7 @@
         <v>0</v>
       </c>
       <c r="S598" t="n">
-        <v>14157</v>
+        <v>14290</v>
       </c>
       <c r="T598" t="inlineStr">
         <is>
@@ -51815,7 +52487,7 @@
         </is>
       </c>
       <c r="U598" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="599">
@@ -51831,7 +52503,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -51879,7 +52551,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M599" t="inlineStr"/>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N599" t="inlineStr"/>
       <c r="O599" t="inlineStr"/>
       <c r="P599" t="n">
@@ -51892,7 +52568,7 @@
         <v>0</v>
       </c>
       <c r="S599" t="n">
-        <v>1938</v>
+        <v>1975</v>
       </c>
       <c r="T599" t="inlineStr">
         <is>
@@ -51900,7 +52576,7 @@
         </is>
       </c>
       <c r="U599" s="2" t="n">
-        <v>45232</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="600">
@@ -52175,7 +52851,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -52240,7 +52916,7 @@
         <v>0</v>
       </c>
       <c r="S603" t="n">
-        <v>26245</v>
+        <v>26342</v>
       </c>
       <c r="T603" t="inlineStr">
         <is>
@@ -52248,7 +52924,7 @@
         </is>
       </c>
       <c r="U603" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="604">
@@ -52264,7 +52940,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -52312,7 +52988,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M604" t="inlineStr"/>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N604" t="inlineStr"/>
       <c r="O604" t="inlineStr"/>
       <c r="P604" t="n">
@@ -52325,7 +53005,7 @@
         <v>0</v>
       </c>
       <c r="S604" t="n">
-        <v>22730</v>
+        <v>22796</v>
       </c>
       <c r="T604" t="inlineStr">
         <is>
@@ -52333,7 +53013,7 @@
         </is>
       </c>
       <c r="U604" s="2" t="n">
-        <v>45239</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="605">
@@ -52438,7 +53118,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -52486,7 +53166,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M606" t="inlineStr"/>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N606" t="inlineStr"/>
       <c r="O606" t="inlineStr"/>
       <c r="P606" t="n">
@@ -52499,7 +53183,7 @@
         <v>0</v>
       </c>
       <c r="S606" t="n">
-        <v>1705</v>
+        <v>1754</v>
       </c>
       <c r="T606" t="inlineStr">
         <is>
@@ -52507,7 +53191,7 @@
         </is>
       </c>
       <c r="U606" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="607">
@@ -53061,7 +53745,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -53109,7 +53793,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M613" t="inlineStr"/>
+      <c r="M613" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N613" t="inlineStr"/>
       <c r="O613" t="inlineStr"/>
       <c r="P613" t="n">
@@ -53122,7 +53810,7 @@
         <v>0</v>
       </c>
       <c r="S613" t="n">
-        <v>52422</v>
+        <v>55040</v>
       </c>
       <c r="T613" t="inlineStr">
         <is>
@@ -53130,7 +53818,7 @@
         </is>
       </c>
       <c r="U613" s="2" t="n">
-        <v>45224</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="614">
@@ -53146,7 +53834,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -53194,7 +53882,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M614" t="inlineStr"/>
+      <c r="M614" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N614" t="inlineStr"/>
       <c r="O614" t="inlineStr"/>
       <c r="P614" t="n">
@@ -53207,7 +53899,7 @@
         <v>0</v>
       </c>
       <c r="S614" t="n">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="T614" t="inlineStr">
         <is>
@@ -53215,7 +53907,7 @@
         </is>
       </c>
       <c r="U614" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="615">
@@ -53231,7 +53923,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -53279,7 +53971,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M615" t="inlineStr"/>
+      <c r="M615" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N615" t="inlineStr"/>
       <c r="O615" t="inlineStr"/>
       <c r="P615" t="n">
@@ -53292,7 +53988,7 @@
         <v>0</v>
       </c>
       <c r="S615" t="n">
-        <v>675</v>
+        <v>709</v>
       </c>
       <c r="T615" t="inlineStr">
         <is>
@@ -53300,7 +53996,7 @@
         </is>
       </c>
       <c r="U615" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="616">
@@ -53316,7 +54012,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -53364,7 +54060,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M616" t="inlineStr"/>
+      <c r="M616" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N616" t="inlineStr"/>
       <c r="O616" t="inlineStr"/>
       <c r="P616" t="n">
@@ -53377,7 +54077,7 @@
         <v>0</v>
       </c>
       <c r="S616" t="n">
-        <v>752</v>
+        <v>793</v>
       </c>
       <c r="T616" t="inlineStr">
         <is>
@@ -53385,7 +54085,7 @@
         </is>
       </c>
       <c r="U616" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="617">
@@ -53401,7 +54101,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
@@ -53449,7 +54149,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M617" t="inlineStr"/>
+      <c r="M617" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N617" t="inlineStr"/>
       <c r="O617" t="inlineStr"/>
       <c r="P617" t="n">
@@ -53462,7 +54166,7 @@
         <v>0</v>
       </c>
       <c r="S617" t="n">
-        <v>1007</v>
+        <v>1058</v>
       </c>
       <c r="T617" t="inlineStr">
         <is>
@@ -53470,7 +54174,7 @@
         </is>
       </c>
       <c r="U617" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="618">
@@ -53486,7 +54190,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -53534,7 +54238,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M618" t="inlineStr"/>
+      <c r="M618" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N618" t="inlineStr"/>
       <c r="O618" t="inlineStr"/>
       <c r="P618" t="n">
@@ -53547,7 +54255,7 @@
         <v>0</v>
       </c>
       <c r="S618" t="n">
-        <v>1362</v>
+        <v>1428</v>
       </c>
       <c r="T618" t="inlineStr">
         <is>
@@ -53555,7 +54263,7 @@
         </is>
       </c>
       <c r="U618" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="619">
@@ -53571,7 +54279,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -53619,7 +54327,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M619" t="inlineStr"/>
+      <c r="M619" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N619" t="inlineStr"/>
       <c r="O619" t="inlineStr"/>
       <c r="P619" t="n">
@@ -53632,7 +54344,7 @@
         <v>0</v>
       </c>
       <c r="S619" t="n">
-        <v>713</v>
+        <v>748</v>
       </c>
       <c r="T619" t="inlineStr">
         <is>
@@ -53640,7 +54352,7 @@
         </is>
       </c>
       <c r="U619" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="620">
@@ -53656,7 +54368,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
@@ -53688,7 +54400,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M620" t="inlineStr"/>
+      <c r="M620" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N620" t="inlineStr"/>
       <c r="O620" t="inlineStr"/>
       <c r="P620" t="n">
@@ -53701,7 +54417,7 @@
         <v>0</v>
       </c>
       <c r="S620" t="n">
-        <v>857</v>
+        <v>906</v>
       </c>
       <c r="T620" t="inlineStr">
         <is>
@@ -53709,7 +54425,7 @@
         </is>
       </c>
       <c r="U620" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="621">
@@ -53725,7 +54441,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -53773,7 +54489,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M621" t="inlineStr"/>
+      <c r="M621" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N621" t="inlineStr"/>
       <c r="O621" t="inlineStr"/>
       <c r="P621" t="n">
@@ -53786,7 +54506,7 @@
         <v>0</v>
       </c>
       <c r="S621" t="n">
-        <v>2282</v>
+        <v>2393</v>
       </c>
       <c r="T621" t="inlineStr">
         <is>
@@ -53794,7 +54514,7 @@
         </is>
       </c>
       <c r="U621" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="622">
@@ -53810,7 +54530,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
@@ -53854,7 +54574,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M622" t="inlineStr"/>
+      <c r="M622" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N622" t="inlineStr"/>
       <c r="O622" t="inlineStr"/>
       <c r="P622" t="n">
@@ -53867,7 +54591,7 @@
         <v>0</v>
       </c>
       <c r="S622" t="n">
-        <v>2620</v>
+        <v>2757</v>
       </c>
       <c r="T622" t="inlineStr">
         <is>
@@ -53875,7 +54599,7 @@
         </is>
       </c>
       <c r="U622" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="623">
@@ -53891,7 +54615,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -53939,7 +54663,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M623" t="inlineStr"/>
+      <c r="M623" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N623" t="inlineStr"/>
       <c r="O623" t="inlineStr"/>
       <c r="P623" t="n">
@@ -53952,7 +54680,7 @@
         <v>0</v>
       </c>
       <c r="S623" t="n">
-        <v>1999</v>
+        <v>2099</v>
       </c>
       <c r="T623" t="inlineStr">
         <is>
@@ -53960,7 +54688,7 @@
         </is>
       </c>
       <c r="U623" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="624">
@@ -53976,7 +54704,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -54024,7 +54752,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M624" t="inlineStr"/>
+      <c r="M624" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N624" t="inlineStr"/>
       <c r="O624" t="inlineStr"/>
       <c r="P624" t="n">
@@ -54037,7 +54769,7 @@
         <v>0</v>
       </c>
       <c r="S624" t="n">
-        <v>806</v>
+        <v>845</v>
       </c>
       <c r="T624" t="inlineStr">
         <is>
@@ -54045,7 +54777,7 @@
         </is>
       </c>
       <c r="U624" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="625">
@@ -54061,7 +54793,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -54109,7 +54841,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M625" t="inlineStr"/>
+      <c r="M625" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N625" t="inlineStr"/>
       <c r="O625" t="inlineStr"/>
       <c r="P625" t="n">
@@ -54122,7 +54858,7 @@
         <v>0</v>
       </c>
       <c r="S625" t="n">
-        <v>867</v>
+        <v>910</v>
       </c>
       <c r="T625" t="inlineStr">
         <is>
@@ -54130,7 +54866,7 @@
         </is>
       </c>
       <c r="U625" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="626">
@@ -54235,7 +54971,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
@@ -54283,7 +55019,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M627" t="inlineStr"/>
+      <c r="M627" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N627" t="inlineStr"/>
       <c r="O627" t="inlineStr"/>
       <c r="P627" t="n">
@@ -54296,7 +55036,7 @@
         <v>0</v>
       </c>
       <c r="S627" t="n">
-        <v>1343</v>
+        <v>1411</v>
       </c>
       <c r="T627" t="inlineStr">
         <is>
@@ -54304,7 +55044,7 @@
         </is>
       </c>
       <c r="U627" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="628">
@@ -54320,7 +55060,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -54368,7 +55108,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M628" t="inlineStr"/>
+      <c r="M628" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N628" t="inlineStr"/>
       <c r="O628" t="inlineStr"/>
       <c r="P628" t="n">
@@ -54381,7 +55125,7 @@
         <v>0</v>
       </c>
       <c r="S628" t="n">
-        <v>906</v>
+        <v>951</v>
       </c>
       <c r="T628" t="inlineStr">
         <is>
@@ -54389,7 +55133,7 @@
         </is>
       </c>
       <c r="U628" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="629">
@@ -54405,7 +55149,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
@@ -54453,7 +55197,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M629" t="inlineStr"/>
+      <c r="M629" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N629" t="inlineStr"/>
       <c r="O629" t="inlineStr"/>
       <c r="P629" t="n">
@@ -54466,7 +55214,7 @@
         <v>0</v>
       </c>
       <c r="S629" t="n">
-        <v>979</v>
+        <v>1032</v>
       </c>
       <c r="T629" t="inlineStr">
         <is>
@@ -54474,7 +55222,7 @@
         </is>
       </c>
       <c r="U629" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="630">
@@ -54490,7 +55238,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
@@ -54538,7 +55286,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M630" t="inlineStr"/>
+      <c r="M630" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N630" t="inlineStr"/>
       <c r="O630" t="inlineStr"/>
       <c r="P630" t="n">
@@ -54551,7 +55303,7 @@
         <v>0</v>
       </c>
       <c r="S630" t="n">
-        <v>913</v>
+        <v>957</v>
       </c>
       <c r="T630" t="inlineStr">
         <is>
@@ -54559,7 +55311,7 @@
         </is>
       </c>
       <c r="U630" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="631">
@@ -54624,7 +55376,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -54672,7 +55424,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M632" t="inlineStr"/>
+      <c r="M632" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N632" t="inlineStr"/>
       <c r="O632" t="inlineStr"/>
       <c r="P632" t="n">
@@ -54685,7 +55441,7 @@
         <v>0</v>
       </c>
       <c r="S632" t="n">
-        <v>9912</v>
+        <v>10465</v>
       </c>
       <c r="T632" t="inlineStr">
         <is>
@@ -54693,7 +55449,7 @@
         </is>
       </c>
       <c r="U632" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="633">
@@ -56012,7 +56768,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D648" t="inlineStr"/>
@@ -56048,7 +56804,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M648" t="inlineStr"/>
+      <c r="M648" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N648" t="inlineStr"/>
       <c r="O648" t="inlineStr"/>
       <c r="P648" t="n">
@@ -56061,7 +56821,7 @@
         <v>0</v>
       </c>
       <c r="S648" t="n">
-        <v>1366</v>
+        <v>1600</v>
       </c>
       <c r="T648" t="inlineStr">
         <is>
@@ -56069,7 +56829,7 @@
         </is>
       </c>
       <c r="U648" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="649">
@@ -56085,7 +56845,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -56133,7 +56893,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M649" t="inlineStr"/>
+      <c r="M649" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N649" t="inlineStr"/>
       <c r="O649" t="inlineStr"/>
       <c r="P649" t="n">
@@ -56146,7 +56910,7 @@
         <v>0</v>
       </c>
       <c r="S649" t="n">
-        <v>26206</v>
+        <v>28993</v>
       </c>
       <c r="T649" t="inlineStr">
         <is>
@@ -56154,7 +56918,7 @@
         </is>
       </c>
       <c r="U649" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="650">

--- a/consolidado3.xlsx
+++ b/consolidado3.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U655"/>
+  <dimension ref="A1:U656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1225,8 +1225,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
@@ -1239,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>21159</v>
+        <v>21548</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1247,7 +1255,7 @@
         </is>
       </c>
       <c r="U14" s="2" t="n">
-        <v>45232</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="15">
@@ -1352,7 +1360,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1400,7 +1408,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
@@ -1413,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>64496</v>
+        <v>65979</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1421,7 +1433,7 @@
         </is>
       </c>
       <c r="U16" s="2" t="n">
-        <v>45215</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="17">
@@ -1526,7 +1538,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1574,7 +1586,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
@@ -1587,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>4805</v>
+        <v>4861</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1595,7 +1611,7 @@
         </is>
       </c>
       <c r="U18" s="2" t="n">
-        <v>45212</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="19">
@@ -3116,7 +3132,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3159,7 +3175,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -3173,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>1093</v>
+        <v>1105</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3181,7 +3201,7 @@
         </is>
       </c>
       <c r="U36" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="37">
@@ -3197,7 +3217,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3258,7 +3278,7 @@
         </is>
       </c>
       <c r="U37" s="2" t="n">
-        <v>45224</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="38">
@@ -5039,7 +5059,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2023/10/09</t>
+          <t>2023/11/19</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -5112,7 +5132,7 @@
         </is>
       </c>
       <c r="U59" s="2" t="n">
-        <v>45208</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="60">
@@ -5128,7 +5148,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5176,7 +5196,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
@@ -5189,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>4580</v>
+        <v>4630</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -5197,7 +5221,7 @@
         </is>
       </c>
       <c r="U60" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="61">
@@ -5387,7 +5411,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5435,7 +5459,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
@@ -5448,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>26257</v>
+        <v>26465</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -5456,7 +5484,7 @@
         </is>
       </c>
       <c r="U63" s="2" t="n">
-        <v>45224</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="64">
@@ -6176,7 +6204,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6224,7 +6252,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
@@ -6237,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>6256</v>
+        <v>6502</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -6245,7 +6277,7 @@
         </is>
       </c>
       <c r="U72" s="2" t="n">
-        <v>45247</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="73">
@@ -6350,7 +6382,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -6431,7 +6463,7 @@
         </is>
       </c>
       <c r="U74" s="2" t="n">
-        <v>45245</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="75">
@@ -6447,7 +6479,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6495,7 +6527,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
@@ -6508,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -6516,7 +6552,7 @@
         </is>
       </c>
       <c r="U75" s="2" t="n">
-        <v>45212</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="76">
@@ -6799,7 +6835,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -6847,7 +6883,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
@@ -6860,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>29089</v>
+        <v>29578</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -6868,7 +6908,7 @@
         </is>
       </c>
       <c r="U79" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="80">
@@ -7863,7 +7903,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -7911,7 +7951,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="n">
@@ -7924,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>258247</v>
+        <v>262820</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -7932,7 +7976,7 @@
         </is>
       </c>
       <c r="U91" s="2" t="n">
-        <v>45217</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="92">
@@ -8126,7 +8170,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -8174,7 +8218,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="n">
@@ -8187,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>7758</v>
+        <v>7861</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -8195,7 +8243,7 @@
         </is>
       </c>
       <c r="U94" s="2" t="n">
-        <v>45229</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="95">
@@ -8652,7 +8700,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -8721,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>13845</v>
+        <v>13910</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -8729,7 +8777,7 @@
         </is>
       </c>
       <c r="U100" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="101">
@@ -8745,7 +8793,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -8788,8 +8836,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
@@ -8802,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>100199</v>
+        <v>104010</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -8810,7 +8866,7 @@
         </is>
       </c>
       <c r="U101" s="2" t="n">
-        <v>45239</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="102">
@@ -9631,7 +9687,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -9679,7 +9735,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
@@ -9692,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>4180</v>
+        <v>4238</v>
       </c>
       <c r="T111" t="inlineStr">
         <is>
@@ -9700,7 +9760,7 @@
         </is>
       </c>
       <c r="U111" s="2" t="n">
-        <v>45211</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="112">
@@ -10400,7 +10460,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -10465,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>11643</v>
+        <v>11729</v>
       </c>
       <c r="T120" t="inlineStr">
         <is>
@@ -10473,7 +10533,7 @@
         </is>
       </c>
       <c r="U120" s="2" t="n">
-        <v>45244</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="121">
@@ -10489,7 +10549,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -10562,7 +10622,7 @@
         </is>
       </c>
       <c r="U121" s="2" t="n">
-        <v>45246</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="122">
@@ -11209,7 +11269,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -11253,7 +11313,11 @@
         </is>
       </c>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="n">
@@ -11266,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>44834</v>
+        <v>45932</v>
       </c>
       <c r="T129" t="inlineStr">
         <is>
@@ -11274,7 +11338,7 @@
         </is>
       </c>
       <c r="U129" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="130">
@@ -13240,7 +13304,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -13305,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="S152" t="n">
-        <v>41983</v>
+        <v>42623</v>
       </c>
       <c r="T152" t="inlineStr">
         <is>
@@ -13313,7 +13377,7 @@
         </is>
       </c>
       <c r="U152" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="153">
@@ -14037,7 +14101,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -14085,7 +14149,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="n">
@@ -14098,7 +14166,7 @@
         <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>6461</v>
+        <v>6586</v>
       </c>
       <c r="T161" t="inlineStr">
         <is>
@@ -14106,7 +14174,7 @@
         </is>
       </c>
       <c r="U161" s="2" t="n">
-        <v>45210</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="162">
@@ -15061,7 +15129,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -15142,7 +15210,7 @@
         </is>
       </c>
       <c r="U173" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="174">
@@ -15247,7 +15315,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -15295,7 +15363,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="n">
@@ -15308,7 +15380,7 @@
         <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>1123</v>
+        <v>1147</v>
       </c>
       <c r="T175" t="inlineStr">
         <is>
@@ -15316,7 +15388,7 @@
         </is>
       </c>
       <c r="U175" s="2" t="n">
-        <v>45246</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="176">
@@ -15777,7 +15849,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -15858,7 +15930,7 @@
         </is>
       </c>
       <c r="U181" s="2" t="n">
-        <v>45245</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="182">
@@ -16048,7 +16120,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -16113,7 +16185,7 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>2747</v>
+        <v>2783</v>
       </c>
       <c r="T184" t="inlineStr">
         <is>
@@ -16121,7 +16193,7 @@
         </is>
       </c>
       <c r="U184" s="2" t="n">
-        <v>45236</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="185">
@@ -17027,7 +17099,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -17075,7 +17147,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N195" t="inlineStr">
         <is>
           <t>x</t>
@@ -17092,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>18676</v>
+        <v>18806</v>
       </c>
       <c r="T195" t="inlineStr">
         <is>
@@ -17100,7 +17176,7 @@
         </is>
       </c>
       <c r="U195" s="2" t="n">
-        <v>45243</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="196">
@@ -18350,7 +18426,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -18398,7 +18474,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="n">
@@ -18411,7 +18491,7 @@
         <v>0</v>
       </c>
       <c r="S210" t="n">
-        <v>80028</v>
+        <v>81488</v>
       </c>
       <c r="T210" t="inlineStr">
         <is>
@@ -18419,7 +18499,7 @@
         </is>
       </c>
       <c r="U210" s="2" t="n">
-        <v>45216</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="211">
@@ -19293,7 +19373,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -19366,7 +19446,7 @@
         </is>
       </c>
       <c r="U221" s="2" t="n">
-        <v>45245</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="222">
@@ -19912,7 +19992,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -19945,13 +20025,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M228" t="inlineStr">
         <is>
           <t>x</t>
@@ -19969,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="S228" t="n">
-        <v>3853</v>
+        <v>4007</v>
       </c>
       <c r="T228" t="inlineStr">
         <is>
@@ -19977,7 +20065,7 @@
         </is>
       </c>
       <c r="U228" s="2" t="n">
-        <v>45237</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="229">
@@ -20746,7 +20834,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -20811,7 +20899,7 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>4417</v>
+        <v>4445</v>
       </c>
       <c r="T238" t="inlineStr">
         <is>
@@ -20819,7 +20907,7 @@
         </is>
       </c>
       <c r="U238" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="239">
@@ -20835,7 +20923,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -20883,7 +20971,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="n">
@@ -20896,7 +20988,7 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>78108</v>
+        <v>79457</v>
       </c>
       <c r="T239" t="inlineStr">
         <is>
@@ -20904,7 +20996,7 @@
         </is>
       </c>
       <c r="U239" s="2" t="n">
-        <v>45212</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="240">
@@ -22182,7 +22274,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -22247,7 +22339,7 @@
         <v>0</v>
       </c>
       <c r="S254" t="n">
-        <v>8951</v>
+        <v>9036</v>
       </c>
       <c r="T254" t="inlineStr">
         <is>
@@ -22255,7 +22347,7 @@
         </is>
       </c>
       <c r="U254" s="2" t="n">
-        <v>45246</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="255">
@@ -22271,7 +22363,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -22315,7 +22407,11 @@
         </is>
       </c>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="n">
@@ -22328,7 +22424,7 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="T255" t="inlineStr">
         <is>
@@ -22336,7 +22432,7 @@
         </is>
       </c>
       <c r="U255" s="2" t="n">
-        <v>45209</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="256">
@@ -22530,7 +22626,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/26</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -22595,7 +22691,7 @@
         <v>0</v>
       </c>
       <c r="S258" t="n">
-        <v>6958</v>
+        <v>6967</v>
       </c>
       <c r="T258" t="inlineStr">
         <is>
@@ -22603,7 +22699,7 @@
         </is>
       </c>
       <c r="U258" s="2" t="n">
-        <v>45246</v>
+        <v>45256</v>
       </c>
     </row>
     <row r="259">
@@ -22971,7 +23067,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -23019,7 +23115,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="n">
@@ -23032,7 +23132,7 @@
         <v>0</v>
       </c>
       <c r="S263" t="n">
-        <v>1523</v>
+        <v>1552</v>
       </c>
       <c r="T263" t="inlineStr">
         <is>
@@ -23040,7 +23140,7 @@
         </is>
       </c>
       <c r="U263" s="2" t="n">
-        <v>45239</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="264">
@@ -24363,7 +24463,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -24411,7 +24511,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
       <c r="P279" t="n">
@@ -24424,7 +24528,7 @@
         <v>0</v>
       </c>
       <c r="S279" t="n">
-        <v>122785</v>
+        <v>125039</v>
       </c>
       <c r="T279" t="inlineStr">
         <is>
@@ -24432,7 +24536,7 @@
         </is>
       </c>
       <c r="U279" s="2" t="n">
-        <v>45216</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="280">
@@ -25156,7 +25260,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -25221,7 +25325,7 @@
         <v>0</v>
       </c>
       <c r="S288" t="n">
-        <v>8134</v>
+        <v>8188</v>
       </c>
       <c r="T288" t="inlineStr">
         <is>
@@ -25229,7 +25333,7 @@
         </is>
       </c>
       <c r="U288" s="2" t="n">
-        <v>45240</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="289">
@@ -25690,7 +25794,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -25738,7 +25842,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr"/>
       <c r="P294" t="n">
@@ -25751,7 +25859,7 @@
         <v>0</v>
       </c>
       <c r="S294" t="n">
-        <v>38554</v>
+        <v>39189</v>
       </c>
       <c r="T294" t="inlineStr">
         <is>
@@ -25759,7 +25867,7 @@
         </is>
       </c>
       <c r="U294" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="295">
@@ -25864,7 +25972,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -25912,7 +26020,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr"/>
       <c r="P296" t="n">
@@ -25925,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="S296" t="n">
-        <v>71457</v>
+        <v>72681</v>
       </c>
       <c r="T296" t="inlineStr">
         <is>
@@ -25933,7 +26045,7 @@
         </is>
       </c>
       <c r="U296" s="2" t="n">
-        <v>45224</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="297">
@@ -27013,7 +27125,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -27056,7 +27168,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M309" t="inlineStr">
         <is>
           <t>x</t>
@@ -27074,7 +27190,7 @@
         <v>0</v>
       </c>
       <c r="S309" t="n">
-        <v>19332</v>
+        <v>19606</v>
       </c>
       <c r="T309" t="inlineStr">
         <is>
@@ -27082,7 +27198,7 @@
         </is>
       </c>
       <c r="U309" s="2" t="n">
-        <v>45240</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="310">
@@ -27183,7 +27299,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -27248,7 +27364,7 @@
         <v>0</v>
       </c>
       <c r="S311" t="n">
-        <v>37211</v>
+        <v>37279</v>
       </c>
       <c r="T311" t="inlineStr">
         <is>
@@ -27256,7 +27372,7 @@
         </is>
       </c>
       <c r="U311" s="2" t="n">
-        <v>45244</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="312">
@@ -28118,7 +28234,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -28191,7 +28307,7 @@
         </is>
       </c>
       <c r="U322" s="2" t="n">
-        <v>45243</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="323">
@@ -28741,7 +28857,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2023/10/27</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -28789,7 +28905,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="n">
@@ -28802,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="S329" t="n">
-        <v>32506</v>
+        <v>32827</v>
       </c>
       <c r="T329" t="inlineStr">
         <is>
@@ -28810,7 +28930,7 @@
         </is>
       </c>
       <c r="U329" s="2" t="n">
-        <v>45226</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="330">
@@ -29004,7 +29124,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -29069,7 +29189,7 @@
         <v>0</v>
       </c>
       <c r="S332" t="n">
-        <v>36937</v>
+        <v>36915</v>
       </c>
       <c r="T332" t="inlineStr">
         <is>
@@ -29077,7 +29197,7 @@
         </is>
       </c>
       <c r="U332" s="2" t="n">
-        <v>45239</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="333">
@@ -30327,7 +30447,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -30375,7 +30495,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M347" t="inlineStr"/>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr"/>
       <c r="P347" t="n">
@@ -30388,7 +30512,7 @@
         <v>0</v>
       </c>
       <c r="S347" t="n">
-        <v>37028</v>
+        <v>37447</v>
       </c>
       <c r="T347" t="inlineStr">
         <is>
@@ -30396,7 +30520,7 @@
         </is>
       </c>
       <c r="U347" s="2" t="n">
-        <v>45229</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="348">
@@ -31767,7 +31891,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -31832,7 +31956,7 @@
         <v>0</v>
       </c>
       <c r="S363" t="n">
-        <v>8015</v>
+        <v>8040</v>
       </c>
       <c r="T363" t="inlineStr">
         <is>
@@ -31840,7 +31964,7 @@
         </is>
       </c>
       <c r="U363" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="364">
@@ -32196,7 +32320,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -32244,7 +32368,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M368" t="inlineStr"/>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
       <c r="P368" t="n">
@@ -32257,7 +32385,7 @@
         <v>0</v>
       </c>
       <c r="S368" t="n">
-        <v>27219</v>
+        <v>27525</v>
       </c>
       <c r="T368" t="inlineStr">
         <is>
@@ -32265,7 +32393,7 @@
         </is>
       </c>
       <c r="U368" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="369">
@@ -33697,7 +33825,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -33745,7 +33873,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M385" t="inlineStr"/>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr"/>
       <c r="P385" t="n">
@@ -33758,7 +33890,7 @@
         <v>0</v>
       </c>
       <c r="S385" t="n">
-        <v>1124</v>
+        <v>1142</v>
       </c>
       <c r="T385" t="inlineStr">
         <is>
@@ -33766,7 +33898,7 @@
         </is>
       </c>
       <c r="U385" s="2" t="n">
-        <v>45223</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="386">
@@ -34049,7 +34181,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>2023/11/11</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -34122,7 +34254,7 @@
         </is>
       </c>
       <c r="U389" s="2" t="n">
-        <v>45241</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="390">
@@ -34227,7 +34359,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -34275,7 +34407,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M391" t="inlineStr"/>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr"/>
       <c r="P391" t="n">
@@ -34288,7 +34424,7 @@
         <v>0</v>
       </c>
       <c r="S391" t="n">
-        <v>11409</v>
+        <v>11614</v>
       </c>
       <c r="T391" t="inlineStr">
         <is>
@@ -34296,7 +34432,7 @@
         </is>
       </c>
       <c r="U391" s="2" t="n">
-        <v>45225</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="392">
@@ -34312,7 +34448,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -34385,7 +34521,7 @@
         </is>
       </c>
       <c r="U392" s="2" t="n">
-        <v>45244</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="393">
@@ -34931,7 +35067,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -35004,7 +35140,7 @@
         </is>
       </c>
       <c r="U399" s="2" t="n">
-        <v>45243</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="400">
@@ -35372,7 +35508,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/19</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -35420,7 +35556,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M404" t="inlineStr"/>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr"/>
       <c r="P404" t="n">
@@ -35433,7 +35573,7 @@
         <v>0</v>
       </c>
       <c r="S404" t="n">
-        <v>6602</v>
+        <v>6769</v>
       </c>
       <c r="T404" t="inlineStr">
         <is>
@@ -35441,7 +35581,7 @@
         </is>
       </c>
       <c r="U404" s="2" t="n">
-        <v>45247</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="405">
@@ -35724,7 +35864,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -35797,7 +35937,7 @@
         </is>
       </c>
       <c r="U408" s="2" t="n">
-        <v>45247</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="409">
@@ -37512,7 +37652,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -37560,7 +37700,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M428" t="inlineStr"/>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr"/>
       <c r="P428" t="n">
@@ -37573,7 +37717,7 @@
         <v>0</v>
       </c>
       <c r="S428" t="n">
-        <v>36268</v>
+        <v>36688</v>
       </c>
       <c r="T428" t="inlineStr">
         <is>
@@ -37581,7 +37725,7 @@
         </is>
       </c>
       <c r="U428" s="2" t="n">
-        <v>45247</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="429">
@@ -38706,7 +38850,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -38754,7 +38898,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M442" t="inlineStr"/>
+      <c r="M442" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr"/>
       <c r="P442" t="n">
@@ -38767,7 +38915,7 @@
         <v>0</v>
       </c>
       <c r="S442" t="n">
-        <v>13053</v>
+        <v>13297</v>
       </c>
       <c r="T442" t="inlineStr">
         <is>
@@ -38775,7 +38923,7 @@
         </is>
       </c>
       <c r="U442" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="443">
@@ -39580,7 +39728,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -39628,7 +39776,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M452" t="inlineStr"/>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr"/>
       <c r="P452" t="n">
@@ -39641,7 +39793,7 @@
         <v>0</v>
       </c>
       <c r="S452" t="n">
-        <v>8217</v>
+        <v>8342</v>
       </c>
       <c r="T452" t="inlineStr">
         <is>
@@ -39649,7 +39801,7 @@
         </is>
       </c>
       <c r="U452" s="2" t="n">
-        <v>45215</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="453">
@@ -39665,7 +39817,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>2023/10/29</t>
+          <t>2023/11/19</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -39713,7 +39865,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M453" t="inlineStr"/>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr"/>
       <c r="P453" t="n">
@@ -39726,7 +39882,7 @@
         <v>0</v>
       </c>
       <c r="S453" t="n">
-        <v>43899</v>
+        <v>44103</v>
       </c>
       <c r="T453" t="inlineStr">
         <is>
@@ -39734,7 +39890,7 @@
         </is>
       </c>
       <c r="U453" s="2" t="n">
-        <v>45228</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="454">
@@ -39839,7 +39995,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -39904,7 +40060,7 @@
         <v>0</v>
       </c>
       <c r="S455" t="n">
-        <v>7395</v>
+        <v>7612</v>
       </c>
       <c r="T455" t="inlineStr">
         <is>
@@ -39912,7 +40068,7 @@
         </is>
       </c>
       <c r="U455" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="456">
@@ -40106,7 +40262,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -40154,7 +40310,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M458" t="inlineStr"/>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr"/>
       <c r="P458" t="n">
@@ -40167,7 +40327,7 @@
         <v>0</v>
       </c>
       <c r="S458" t="n">
-        <v>96520</v>
+        <v>98123</v>
       </c>
       <c r="T458" t="inlineStr">
         <is>
@@ -40175,7 +40335,7 @@
         </is>
       </c>
       <c r="U458" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="459">
@@ -40191,7 +40351,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -40239,7 +40399,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M459" t="inlineStr"/>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr"/>
       <c r="P459" t="n">
@@ -40252,7 +40416,7 @@
         <v>0</v>
       </c>
       <c r="S459" t="n">
-        <v>13386</v>
+        <v>13593</v>
       </c>
       <c r="T459" t="inlineStr">
         <is>
@@ -40260,7 +40424,7 @@
         </is>
       </c>
       <c r="U459" s="2" t="n">
-        <v>45245</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="460">
@@ -40454,7 +40618,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -40519,7 +40683,7 @@
         <v>0</v>
       </c>
       <c r="S462" t="n">
-        <v>22180</v>
+        <v>22811</v>
       </c>
       <c r="T462" t="inlineStr">
         <is>
@@ -40527,7 +40691,7 @@
         </is>
       </c>
       <c r="U462" s="2" t="n">
-        <v>45233</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="463">
@@ -40640,7 +40804,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -40688,7 +40852,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M464" t="inlineStr"/>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr"/>
       <c r="P464" t="n">
@@ -40701,7 +40869,7 @@
         <v>0</v>
       </c>
       <c r="S464" t="n">
-        <v>7349</v>
+        <v>7406</v>
       </c>
       <c r="T464" t="inlineStr">
         <is>
@@ -40709,7 +40877,7 @@
         </is>
       </c>
       <c r="U464" s="2" t="n">
-        <v>45225</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="465">
@@ -40899,7 +41067,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -40972,7 +41140,7 @@
         </is>
       </c>
       <c r="U467" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="468">
@@ -41975,7 +42143,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
@@ -42024,7 +42192,7 @@
         </is>
       </c>
       <c r="U479" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="480">
@@ -42392,7 +42560,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -42457,7 +42625,7 @@
         <v>0</v>
       </c>
       <c r="S484" t="n">
-        <v>19699</v>
+        <v>19695</v>
       </c>
       <c r="T484" t="inlineStr">
         <is>
@@ -42465,7 +42633,7 @@
         </is>
       </c>
       <c r="U484" s="2" t="n">
-        <v>45244</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="485">
@@ -43270,7 +43438,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -43318,7 +43486,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M494" t="inlineStr"/>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr"/>
       <c r="P494" t="n">
@@ -43331,7 +43503,7 @@
         <v>0</v>
       </c>
       <c r="S494" t="n">
-        <v>15619</v>
+        <v>15778</v>
       </c>
       <c r="T494" t="inlineStr">
         <is>
@@ -43339,7 +43511,7 @@
         </is>
       </c>
       <c r="U494" s="2" t="n">
-        <v>45209</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="495">
@@ -43541,7 +43713,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -43606,7 +43778,7 @@
         <v>0</v>
       </c>
       <c r="S497" t="n">
-        <v>257038</v>
+        <v>258364</v>
       </c>
       <c r="T497" t="inlineStr">
         <is>
@@ -43614,7 +43786,7 @@
         </is>
       </c>
       <c r="U497" s="2" t="n">
-        <v>45246</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="498">
@@ -43719,7 +43891,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -43784,7 +43956,7 @@
         <v>0</v>
       </c>
       <c r="S499" t="n">
-        <v>2491</v>
+        <v>2525</v>
       </c>
       <c r="T499" t="inlineStr">
         <is>
@@ -43792,7 +43964,7 @@
         </is>
       </c>
       <c r="U499" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="500">
@@ -45495,7 +45667,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -45560,7 +45732,7 @@
         <v>0</v>
       </c>
       <c r="S519" t="n">
-        <v>21893</v>
+        <v>21941</v>
       </c>
       <c r="T519" t="inlineStr">
         <is>
@@ -45568,7 +45740,7 @@
         </is>
       </c>
       <c r="U519" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="520">
@@ -46215,7 +46387,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -46263,7 +46435,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M527" t="inlineStr"/>
+      <c r="M527" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N527" t="inlineStr"/>
       <c r="O527" t="inlineStr"/>
       <c r="P527" t="n">
@@ -46276,7 +46452,7 @@
         <v>0</v>
       </c>
       <c r="S527" t="n">
-        <v>10203</v>
+        <v>10349</v>
       </c>
       <c r="T527" t="inlineStr">
         <is>
@@ -46284,7 +46460,7 @@
         </is>
       </c>
       <c r="U527" s="2" t="n">
-        <v>45224</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="528">
@@ -46389,7 +46565,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -46437,7 +46613,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M529" t="inlineStr"/>
+      <c r="M529" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N529" t="inlineStr"/>
       <c r="O529" t="inlineStr"/>
       <c r="P529" t="n">
@@ -46450,7 +46630,7 @@
         <v>0</v>
       </c>
       <c r="S529" t="n">
-        <v>5550</v>
+        <v>5657</v>
       </c>
       <c r="T529" t="inlineStr">
         <is>
@@ -46458,7 +46638,7 @@
         </is>
       </c>
       <c r="U529" s="2" t="n">
-        <v>45203</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="530">
@@ -46652,7 +46832,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -46717,7 +46897,7 @@
         </is>
       </c>
       <c r="U532" s="2" t="n">
-        <v>45246</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="533">
@@ -47138,7 +47318,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -47186,7 +47366,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M538" t="inlineStr"/>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N538" t="inlineStr">
         <is>
           <t>x</t>
@@ -47207,7 +47391,7 @@
         <v>0</v>
       </c>
       <c r="S538" t="n">
-        <v>12691</v>
+        <v>12729</v>
       </c>
       <c r="T538" t="inlineStr">
         <is>
@@ -47215,7 +47399,7 @@
         </is>
       </c>
       <c r="U538" s="2" t="n">
-        <v>45236</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="539">
@@ -47231,7 +47415,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -47296,7 +47480,7 @@
         <v>0</v>
       </c>
       <c r="S539" t="n">
-        <v>27888</v>
+        <v>28122</v>
       </c>
       <c r="T539" t="inlineStr">
         <is>
@@ -47304,7 +47488,7 @@
         </is>
       </c>
       <c r="U539" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="540">
@@ -47498,7 +47682,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -47559,7 +47743,7 @@
         <v>0</v>
       </c>
       <c r="S542" t="n">
-        <v>1554</v>
+        <v>1570</v>
       </c>
       <c r="T542" t="inlineStr">
         <is>
@@ -47567,7 +47751,7 @@
         </is>
       </c>
       <c r="U542" s="2" t="n">
-        <v>45224</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="543">
@@ -47939,7 +48123,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -47987,7 +48171,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M547" t="inlineStr"/>
+      <c r="M547" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N547" t="inlineStr"/>
       <c r="O547" t="inlineStr">
         <is>
@@ -48004,7 +48192,7 @@
         <v>0</v>
       </c>
       <c r="S547" t="n">
-        <v>15105</v>
+        <v>15154</v>
       </c>
       <c r="T547" t="inlineStr">
         <is>
@@ -48012,7 +48200,7 @@
         </is>
       </c>
       <c r="U547" s="2" t="n">
-        <v>45216</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="548">
@@ -48028,7 +48216,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -48076,7 +48264,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M548" t="inlineStr"/>
+      <c r="M548" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N548" t="inlineStr"/>
       <c r="O548" t="inlineStr"/>
       <c r="P548" t="n">
@@ -48089,7 +48281,7 @@
         <v>0</v>
       </c>
       <c r="S548" t="n">
-        <v>3364</v>
+        <v>3428</v>
       </c>
       <c r="T548" t="inlineStr">
         <is>
@@ -48097,7 +48289,7 @@
         </is>
       </c>
       <c r="U548" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="549">
@@ -48817,7 +49009,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -48865,7 +49057,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M557" t="inlineStr"/>
+      <c r="M557" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N557" t="inlineStr"/>
       <c r="O557" t="inlineStr"/>
       <c r="P557" t="n">
@@ -48878,7 +49074,7 @@
         <v>0</v>
       </c>
       <c r="S557" t="n">
-        <v>20510</v>
+        <v>20654</v>
       </c>
       <c r="T557" t="inlineStr">
         <is>
@@ -48886,7 +49082,7 @@
         </is>
       </c>
       <c r="U557" s="2" t="n">
-        <v>45237</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="558">
@@ -48902,7 +49098,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -48975,7 +49171,7 @@
         <v>0</v>
       </c>
       <c r="S558" t="n">
-        <v>5679</v>
+        <v>5704</v>
       </c>
       <c r="T558" t="inlineStr">
         <is>
@@ -48983,7 +49179,7 @@
         </is>
       </c>
       <c r="U558" s="2" t="n">
-        <v>45243</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="559">
@@ -49865,7 +50061,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -49934,7 +50130,7 @@
         <v>0</v>
       </c>
       <c r="S569" t="n">
-        <v>11960</v>
+        <v>12232</v>
       </c>
       <c r="T569" t="inlineStr">
         <is>
@@ -49942,7 +50138,7 @@
         </is>
       </c>
       <c r="U569" s="2" t="n">
-        <v>45232</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="570">
@@ -50852,7 +51048,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -50913,7 +51109,7 @@
         <v>0</v>
       </c>
       <c r="S580" t="n">
-        <v>3022</v>
+        <v>3055</v>
       </c>
       <c r="T580" t="inlineStr">
         <is>
@@ -50921,7 +51117,7 @@
         </is>
       </c>
       <c r="U580" s="2" t="n">
-        <v>45216</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="581">
@@ -50937,7 +51133,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
@@ -50985,7 +51181,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M581" t="inlineStr"/>
+      <c r="M581" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N581" t="inlineStr"/>
       <c r="O581" t="inlineStr"/>
       <c r="P581" t="n">
@@ -50998,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="S581" t="n">
-        <v>1197</v>
+        <v>1212</v>
       </c>
       <c r="T581" t="inlineStr">
         <is>
@@ -51006,7 +51206,7 @@
         </is>
       </c>
       <c r="U581" s="2" t="n">
-        <v>45244</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="582">
@@ -51427,7 +51627,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -51492,7 +51692,7 @@
         <v>0</v>
       </c>
       <c r="S587" t="n">
-        <v>7426</v>
+        <v>7502</v>
       </c>
       <c r="T587" t="inlineStr">
         <is>
@@ -51500,7 +51700,7 @@
         </is>
       </c>
       <c r="U587" s="2" t="n">
-        <v>45243</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="588">
@@ -51961,7 +52161,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -52014,7 +52214,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N593" t="inlineStr"/>
+      <c r="N593" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O593" t="inlineStr"/>
       <c r="P593" t="n">
         <v>0</v>
@@ -52026,7 +52230,7 @@
         <v>0</v>
       </c>
       <c r="S593" t="n">
-        <v>27264</v>
+        <v>27518</v>
       </c>
       <c r="T593" t="inlineStr">
         <is>
@@ -52034,7 +52238,7 @@
         </is>
       </c>
       <c r="U593" s="2" t="n">
-        <v>45238</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="594">
@@ -52503,7 +52707,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -52568,7 +52772,7 @@
         <v>0</v>
       </c>
       <c r="S599" t="n">
-        <v>1975</v>
+        <v>2045</v>
       </c>
       <c r="T599" t="inlineStr">
         <is>
@@ -52576,7 +52780,7 @@
         </is>
       </c>
       <c r="U599" s="2" t="n">
-        <v>45246</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="600">
@@ -52681,7 +52885,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -52729,7 +52933,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M601" t="inlineStr"/>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N601" t="inlineStr"/>
       <c r="O601" t="inlineStr"/>
       <c r="P601" t="n">
@@ -52742,7 +52950,7 @@
         <v>0</v>
       </c>
       <c r="S601" t="n">
-        <v>8261</v>
+        <v>8384</v>
       </c>
       <c r="T601" t="inlineStr">
         <is>
@@ -52750,7 +52958,7 @@
         </is>
       </c>
       <c r="U601" s="2" t="n">
-        <v>45230</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="602">
@@ -52766,7 +52974,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -52814,7 +53022,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M602" t="inlineStr"/>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N602" t="inlineStr"/>
       <c r="O602" t="inlineStr"/>
       <c r="P602" t="n">
@@ -52827,7 +53039,7 @@
         <v>0</v>
       </c>
       <c r="S602" t="n">
-        <v>51225</v>
+        <v>51893</v>
       </c>
       <c r="T602" t="inlineStr">
         <is>
@@ -52835,7 +53047,7 @@
         </is>
       </c>
       <c r="U602" s="2" t="n">
-        <v>45215</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="603">
@@ -53656,7 +53868,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -53729,7 +53941,7 @@
         </is>
       </c>
       <c r="U612" s="2" t="n">
-        <v>45244</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="613">
@@ -55704,7 +55916,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -55777,7 +55989,7 @@
         <v>0</v>
       </c>
       <c r="S636" t="n">
-        <v>1865</v>
+        <v>1945</v>
       </c>
       <c r="T636" t="inlineStr">
         <is>
@@ -55785,7 +55997,7 @@
         </is>
       </c>
       <c r="U636" s="2" t="n">
-        <v>45223</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="637">
@@ -55890,7 +56102,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -55955,7 +56167,7 @@
         <v>0</v>
       </c>
       <c r="S638" t="n">
-        <v>2022</v>
+        <v>2070</v>
       </c>
       <c r="T638" t="inlineStr">
         <is>
@@ -55963,7 +56175,7 @@
         </is>
       </c>
       <c r="U638" s="2" t="n">
-        <v>45244</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="639">
@@ -56068,7 +56280,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
@@ -56116,7 +56328,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M640" t="inlineStr"/>
+      <c r="M640" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N640" t="inlineStr"/>
       <c r="O640" t="inlineStr"/>
       <c r="P640" t="n">
@@ -56129,7 +56345,7 @@
         <v>0</v>
       </c>
       <c r="S640" t="n">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="T640" t="inlineStr">
         <is>
@@ -56137,7 +56353,7 @@
         </is>
       </c>
       <c r="U640" s="2" t="n">
-        <v>45244</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="641">
@@ -56327,7 +56543,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
@@ -56400,7 +56616,7 @@
         </is>
       </c>
       <c r="U643" s="2" t="n">
-        <v>45244</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="644">
@@ -56934,7 +57150,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>2023/09/06</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
@@ -56977,7 +57193,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M650" t="inlineStr"/>
       <c r="N650" t="inlineStr"/>
       <c r="O650" t="inlineStr"/>
@@ -56991,7 +57211,7 @@
         <v>0</v>
       </c>
       <c r="S650" t="n">
-        <v>557</v>
+        <v>639</v>
       </c>
       <c r="T650" t="inlineStr">
         <is>
@@ -56999,7 +57219,7 @@
         </is>
       </c>
       <c r="U650" s="2" t="n">
-        <v>45175</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="651">
@@ -57319,6 +57539,75 @@
         <v>45215</v>
       </c>
     </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>TA_PersonalContrata</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Servicio Local de Educación Pública Licancabur</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>2023/11/20</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr"/>
+      <c r="H656" t="inlineStr"/>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M656" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N656" t="inlineStr"/>
+      <c r="O656" t="inlineStr"/>
+      <c r="P656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R656" t="n">
+        <v>0</v>
+      </c>
+      <c r="S656" t="n">
+        <v>33</v>
+      </c>
+      <c r="T656" t="inlineStr">
+        <is>
+          <t>AJ035</t>
+        </is>
+      </c>
+      <c r="U656" s="2" t="n">
+        <v>45250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/consolidado3.xlsx
+++ b/consolidado3.xlsx
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1247,7 +1247,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
         <v>0</v>
@@ -1259,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>21548</v>
+        <v>21741</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1267,7 +1271,7 @@
         </is>
       </c>
       <c r="U14" s="2" t="n">
-        <v>45252</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="15">
@@ -3321,7 +3325,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3390,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>15497</v>
+        <v>15855</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3398,7 +3402,7 @@
         </is>
       </c>
       <c r="U37" s="2" t="n">
-        <v>45282</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="38">
@@ -4005,7 +4009,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4058,7 +4062,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
         <v>0</v>
@@ -4070,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>7643</v>
+        <v>7742</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4078,7 +4086,7 @@
         </is>
       </c>
       <c r="U45" s="2" t="n">
-        <v>45240</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="46">
@@ -4640,7 +4648,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2023/06/07</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4663,11 +4671,31 @@
           <t>x</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4681,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>12374</v>
+        <v>12731</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4689,7 +4717,7 @@
         </is>
       </c>
       <c r="U52" s="2" t="n">
-        <v>45084</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="53">
@@ -5077,7 +5105,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2023/12/24</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5130,7 +5158,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
         <v>0</v>
@@ -5142,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>1201</v>
+        <v>1209</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5150,7 +5182,7 @@
         </is>
       </c>
       <c r="U57" s="2" t="n">
-        <v>45264</v>
+        <v>45284</v>
       </c>
     </row>
     <row r="58">
@@ -5809,7 +5841,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5857,8 +5889,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
         <v>0</v>
@@ -5870,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>27411</v>
+        <v>28258</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -5878,7 +5918,7 @@
         </is>
       </c>
       <c r="U65" s="2" t="n">
-        <v>45222</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="66">
@@ -6448,7 +6488,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6501,7 +6541,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
         <v>0</v>
@@ -6513,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>78057</v>
+        <v>79464</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -6521,7 +6565,7 @@
         </is>
       </c>
       <c r="U72" s="2" t="n">
-        <v>45240</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="73">
@@ -8122,7 +8166,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -8175,7 +8219,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
         <v>0</v>
@@ -8187,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>262820</v>
+        <v>266740</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -8195,7 +8243,7 @@
         </is>
       </c>
       <c r="U90" s="2" t="n">
-        <v>45252</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="91">
@@ -10957,7 +11005,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -11015,7 +11063,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O121" t="inlineStr"/>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P121" t="n">
         <v>0</v>
       </c>
@@ -11026,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>7069</v>
+        <v>7108</v>
       </c>
       <c r="T121" t="inlineStr">
         <is>
@@ -11034,7 +11086,7 @@
         </is>
       </c>
       <c r="U121" s="2" t="n">
-        <v>45272</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="122">
@@ -15628,7 +15680,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -15709,7 +15761,7 @@
         </is>
       </c>
       <c r="U172" s="2" t="n">
-        <v>45278</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="173">
@@ -18131,7 +18183,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -18204,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>25074</v>
+        <v>25100</v>
       </c>
       <c r="T199" t="inlineStr">
         <is>
@@ -18212,7 +18264,7 @@
         </is>
       </c>
       <c r="U199" s="2" t="n">
-        <v>45274</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="200">
@@ -22871,7 +22923,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -22924,7 +22976,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O251" t="inlineStr"/>
       <c r="P251" t="n">
         <v>0</v>
@@ -22936,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>14883</v>
+        <v>14990</v>
       </c>
       <c r="T251" t="inlineStr">
         <is>
@@ -22944,7 +23000,7 @@
         </is>
       </c>
       <c r="U251" s="2" t="n">
-        <v>45239</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="252">
@@ -23785,7 +23841,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>2023/11/21</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -23838,7 +23894,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O261" t="inlineStr"/>
       <c r="P261" t="n">
         <v>0</v>
@@ -23850,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="S261" t="n">
-        <v>1552</v>
+        <v>1573</v>
       </c>
       <c r="T261" t="inlineStr">
         <is>
@@ -23858,7 +23918,7 @@
         </is>
       </c>
       <c r="U261" s="2" t="n">
-        <v>45251</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="262">
@@ -27922,7 +27982,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -27975,7 +28035,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O306" t="inlineStr"/>
       <c r="P306" t="n">
         <v>0</v>
@@ -27987,7 +28051,7 @@
         <v>0</v>
       </c>
       <c r="S306" t="n">
-        <v>12839</v>
+        <v>12999</v>
       </c>
       <c r="T306" t="inlineStr">
         <is>
@@ -27995,7 +28059,7 @@
         </is>
       </c>
       <c r="U306" s="2" t="n">
-        <v>45243</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="307">
@@ -29815,7 +29879,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -29868,7 +29932,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O327" t="inlineStr"/>
       <c r="P327" t="n">
         <v>0</v>
@@ -29880,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="S327" t="n">
-        <v>32827</v>
+        <v>33158</v>
       </c>
       <c r="T327" t="inlineStr">
         <is>
@@ -29888,7 +29956,7 @@
         </is>
       </c>
       <c r="U327" s="2" t="n">
-        <v>45250</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="328">
@@ -31291,7 +31359,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -31368,7 +31436,7 @@
         </is>
       </c>
       <c r="U343" s="2" t="n">
-        <v>45278</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="344">
@@ -32977,7 +33045,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -33054,7 +33122,7 @@
         </is>
       </c>
       <c r="U361" s="2" t="n">
-        <v>45275</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="362">
@@ -35383,7 +35451,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -35460,7 +35528,7 @@
         </is>
       </c>
       <c r="U387" s="2" t="n">
-        <v>45273</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="388">
@@ -41243,7 +41311,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -41312,7 +41380,7 @@
         <v>0</v>
       </c>
       <c r="S451" t="n">
-        <v>44545</v>
+        <v>44678</v>
       </c>
       <c r="T451" t="inlineStr">
         <is>
@@ -41320,7 +41388,7 @@
         </is>
       </c>
       <c r="U451" s="2" t="n">
-        <v>45280</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="452">
@@ -41704,7 +41772,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -41757,7 +41825,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N456" t="inlineStr"/>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O456" t="inlineStr"/>
       <c r="P456" t="n">
         <v>0</v>
@@ -41769,7 +41841,7 @@
         <v>0</v>
       </c>
       <c r="S456" t="n">
-        <v>98123</v>
+        <v>99564</v>
       </c>
       <c r="T456" t="inlineStr">
         <is>
@@ -41777,7 +41849,7 @@
         </is>
       </c>
       <c r="U456" s="2" t="n">
-        <v>45250</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="457">
@@ -42068,7 +42140,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -42137,7 +42209,7 @@
         <v>0</v>
       </c>
       <c r="S460" t="n">
-        <v>23166</v>
+        <v>23275</v>
       </c>
       <c r="T460" t="inlineStr">
         <is>
@@ -42145,7 +42217,7 @@
         </is>
       </c>
       <c r="U460" s="2" t="n">
-        <v>45281</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="461">
@@ -42258,7 +42330,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -42327,7 +42399,7 @@
         <v>0</v>
       </c>
       <c r="S462" t="n">
-        <v>7495</v>
+        <v>7511</v>
       </c>
       <c r="T462" t="inlineStr">
         <is>
@@ -42335,7 +42407,7 @@
         </is>
       </c>
       <c r="U462" s="2" t="n">
-        <v>45280</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="463">
@@ -43657,7 +43729,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
@@ -43710,7 +43782,7 @@
         </is>
       </c>
       <c r="U477" s="2" t="n">
-        <v>45282</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="478">
@@ -44284,7 +44356,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>2023/11/29</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -44337,7 +44409,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N484" t="inlineStr"/>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O484" t="inlineStr"/>
       <c r="P484" t="n">
         <v>0</v>
@@ -44349,7 +44425,7 @@
         <v>0</v>
       </c>
       <c r="S484" t="n">
-        <v>3216</v>
+        <v>3255</v>
       </c>
       <c r="T484" t="inlineStr">
         <is>
@@ -44357,7 +44433,7 @@
         </is>
       </c>
       <c r="U484" s="2" t="n">
-        <v>45259</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="485">
@@ -44559,7 +44635,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -44612,7 +44688,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N487" t="inlineStr"/>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O487" t="inlineStr"/>
       <c r="P487" t="n">
         <v>0</v>
@@ -44624,7 +44704,7 @@
         <v>0</v>
       </c>
       <c r="S487" t="n">
-        <v>278851</v>
+        <v>280513</v>
       </c>
       <c r="T487" t="inlineStr">
         <is>
@@ -44632,7 +44712,7 @@
         </is>
       </c>
       <c r="U487" s="2" t="n">
-        <v>45257</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="488">
@@ -48101,7 +48181,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -48154,7 +48234,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N525" t="inlineStr"/>
+      <c r="N525" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O525" t="inlineStr"/>
       <c r="P525" t="n">
         <v>0</v>
@@ -48166,7 +48250,7 @@
         <v>0</v>
       </c>
       <c r="S525" t="n">
-        <v>10349</v>
+        <v>10497</v>
       </c>
       <c r="T525" t="inlineStr">
         <is>
@@ -48174,7 +48258,7 @@
         </is>
       </c>
       <c r="U525" s="2" t="n">
-        <v>45252</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="526">
@@ -48562,7 +48646,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -48610,8 +48694,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M530" t="inlineStr"/>
-      <c r="N530" t="inlineStr"/>
+      <c r="M530" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N530" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O530" t="inlineStr"/>
       <c r="P530" t="n">
         <v>0</v>
@@ -48623,7 +48715,7 @@
         <v>0</v>
       </c>
       <c r="S530" t="n">
-        <v>52150</v>
+        <v>54739</v>
       </c>
       <c r="T530" t="inlineStr">
         <is>
@@ -48631,7 +48723,7 @@
         </is>
       </c>
       <c r="U530" s="2" t="n">
-        <v>45258</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="531">
@@ -48647,7 +48739,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -48700,7 +48792,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N531" t="inlineStr"/>
+      <c r="N531" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O531" t="inlineStr"/>
       <c r="P531" t="n">
         <v>0</v>
@@ -48712,7 +48808,7 @@
         <v>0</v>
       </c>
       <c r="S531" t="n">
-        <v>13057</v>
+        <v>13263</v>
       </c>
       <c r="T531" t="inlineStr">
         <is>
@@ -48720,7 +48816,7 @@
         </is>
       </c>
       <c r="U531" s="2" t="n">
-        <v>45246</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="532">
@@ -48785,7 +48881,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -48854,7 +48950,7 @@
         <v>0</v>
       </c>
       <c r="S533" t="n">
-        <v>27224</v>
+        <v>27331</v>
       </c>
       <c r="T533" t="inlineStr">
         <is>
@@ -48862,7 +48958,7 @@
         </is>
       </c>
       <c r="U533" s="2" t="n">
-        <v>45267</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="534">
@@ -50277,7 +50373,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -50321,8 +50417,16 @@
         </is>
       </c>
       <c r="L549" t="inlineStr"/>
-      <c r="M549" t="inlineStr"/>
-      <c r="N549" t="inlineStr"/>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N549" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O549" t="inlineStr"/>
       <c r="P549" t="n">
         <v>0</v>
@@ -50334,7 +50438,7 @@
         <v>0</v>
       </c>
       <c r="S549" t="n">
-        <v>44826</v>
+        <v>46603</v>
       </c>
       <c r="T549" t="inlineStr">
         <is>
@@ -50342,7 +50446,7 @@
         </is>
       </c>
       <c r="U549" s="2" t="n">
-        <v>45274</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="550">
@@ -52404,7 +52508,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -52469,7 +52573,7 @@
         <v>0</v>
       </c>
       <c r="S572" t="n">
-        <v>30373</v>
+        <v>30898</v>
       </c>
       <c r="T572" t="inlineStr">
         <is>
@@ -52477,7 +52581,7 @@
         </is>
       </c>
       <c r="U572" s="2" t="n">
-        <v>45240</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="573">
@@ -52958,7 +53062,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -53027,7 +53131,7 @@
         <v>0</v>
       </c>
       <c r="S578" t="n">
-        <v>3221</v>
+        <v>3361</v>
       </c>
       <c r="T578" t="inlineStr">
         <is>
@@ -53035,7 +53139,7 @@
         </is>
       </c>
       <c r="U578" s="2" t="n">
-        <v>45279</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="579">
@@ -53565,7 +53669,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -53638,7 +53742,7 @@
         <v>0</v>
       </c>
       <c r="S585" t="n">
-        <v>7523</v>
+        <v>7543</v>
       </c>
       <c r="T585" t="inlineStr">
         <is>
@@ -53646,7 +53750,7 @@
         </is>
       </c>
       <c r="U585" s="2" t="n">
-        <v>45274</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="586">
@@ -53848,7 +53952,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -53917,7 +54021,7 @@
         <v>0</v>
       </c>
       <c r="S588" t="n">
-        <v>98830</v>
+        <v>99249</v>
       </c>
       <c r="T588" t="inlineStr">
         <is>
@@ -53925,7 +54029,7 @@
         </is>
       </c>
       <c r="U588" s="2" t="n">
-        <v>45282</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="589">
@@ -54499,7 +54603,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -54568,7 +54672,7 @@
         <v>0</v>
       </c>
       <c r="S595" t="n">
-        <v>155936</v>
+        <v>156363</v>
       </c>
       <c r="T595" t="inlineStr">
         <is>
@@ -54576,7 +54680,7 @@
         </is>
       </c>
       <c r="U595" s="2" t="n">
-        <v>45279</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="596">
@@ -56084,7 +56188,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -56137,7 +56241,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N612" t="inlineStr"/>
+      <c r="N612" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O612" t="inlineStr"/>
       <c r="P612" t="n">
         <v>0</v>
@@ -56149,7 +56257,7 @@
         <v>0</v>
       </c>
       <c r="S612" t="n">
-        <v>55040</v>
+        <v>57671</v>
       </c>
       <c r="T612" t="inlineStr">
         <is>
@@ -56157,7 +56265,7 @@
         </is>
       </c>
       <c r="U612" s="2" t="n">
-        <v>45246</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="613">
@@ -58143,7 +58251,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/12/25</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
@@ -58216,7 +58324,7 @@
         <v>0</v>
       </c>
       <c r="S635" t="n">
-        <v>1945</v>
+        <v>2234</v>
       </c>
       <c r="T635" t="inlineStr">
         <is>
@@ -58224,7 +58332,7 @@
         </is>
       </c>
       <c r="U635" s="2" t="n">
-        <v>45252</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="636">
@@ -58333,7 +58441,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
@@ -58391,7 +58499,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O637" t="inlineStr"/>
+      <c r="O637" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P637" t="n">
         <v>0</v>
       </c>
@@ -58402,7 +58514,7 @@
         <v>0</v>
       </c>
       <c r="S637" t="n">
-        <v>2237</v>
+        <v>2353</v>
       </c>
       <c r="T637" t="inlineStr">
         <is>
@@ -58410,7 +58522,7 @@
         </is>
       </c>
       <c r="U637" s="2" t="n">
-        <v>45274</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="638">
@@ -59871,16 +59983,44 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
-        </is>
-      </c>
-      <c r="D655" t="inlineStr"/>
-      <c r="E655" t="inlineStr"/>
-      <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr"/>
-      <c r="H655" t="inlineStr"/>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+          <t>2023/12/26</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>x</t>
@@ -59891,8 +60031,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M655" t="inlineStr"/>
-      <c r="N655" t="inlineStr"/>
+      <c r="M655" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N655" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O655" t="inlineStr"/>
       <c r="P655" t="n">
         <v>0</v>
@@ -59904,7 +60052,7 @@
         <v>0</v>
       </c>
       <c r="S655" t="n">
-        <v>940</v>
+        <v>3736</v>
       </c>
       <c r="T655" t="inlineStr">
         <is>
@@ -59912,7 +60060,7 @@
         </is>
       </c>
       <c r="U655" s="2" t="n">
-        <v>45215</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="656">

--- a/consolidado3.xlsx
+++ b/consolidado3.xlsx
@@ -784,7 +784,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="U8" s="2" t="n">
-        <v>45261</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="9">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1899,7 +1899,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4186</v>
+        <v>4194</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -1918,7 +1922,7 @@
         </is>
       </c>
       <c r="U21" s="2" t="n">
-        <v>45273</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="22">
@@ -2310,7 +2314,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2368,7 +2372,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
@@ -2379,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2387,7 +2395,7 @@
         </is>
       </c>
       <c r="U26" s="2" t="n">
-        <v>45280</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="27">
@@ -2403,7 +2411,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2476,7 +2484,7 @@
         </is>
       </c>
       <c r="U27" s="2" t="n">
-        <v>45264</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="28">
@@ -2961,7 +2969,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2994,7 +3002,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>x</t>
@@ -3034,7 +3046,7 @@
         </is>
       </c>
       <c r="U33" s="2" t="n">
-        <v>45274</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="34">
@@ -4559,7 +4571,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4612,7 +4624,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="n">
         <v>0</v>
@@ -4624,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>21818</v>
+        <v>22043</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -4632,7 +4648,7 @@
         </is>
       </c>
       <c r="U51" s="2" t="n">
-        <v>45275</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="52">
@@ -4648,7 +4664,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4709,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>12731</v>
+        <v>12926</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4717,7 +4733,7 @@
         </is>
       </c>
       <c r="U52" s="2" t="n">
-        <v>45288</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="53">
@@ -5105,7 +5121,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2023/12/24</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5174,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5182,7 +5198,7 @@
         </is>
       </c>
       <c r="U57" s="2" t="n">
-        <v>45284</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="58">
@@ -6581,7 +6597,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -6662,7 +6678,7 @@
         </is>
       </c>
       <c r="U73" s="2" t="n">
-        <v>45275</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="74">
@@ -9092,7 +9108,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -9145,7 +9161,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
         <v>0</v>
@@ -9157,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>104010</v>
+        <v>105935</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -9165,7 +9185,7 @@
         </is>
       </c>
       <c r="U100" s="2" t="n">
-        <v>45252</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="101">
@@ -9832,7 +9852,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -9905,7 +9925,7 @@
         </is>
       </c>
       <c r="U108" s="2" t="n">
-        <v>45261</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="109">
@@ -11005,7 +11025,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -11086,7 +11106,7 @@
         </is>
       </c>
       <c r="U121" s="2" t="n">
-        <v>45287</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="122">
@@ -12032,7 +12052,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -12090,7 +12110,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr"/>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P132" t="n">
         <v>0</v>
       </c>
@@ -12101,7 +12125,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>9026</v>
+        <v>9084</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
@@ -12109,7 +12133,7 @@
         </is>
       </c>
       <c r="U132" s="2" t="n">
-        <v>45271</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="133">
@@ -12497,7 +12521,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -12555,7 +12579,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O137" t="inlineStr"/>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P137" t="n">
         <v>0</v>
       </c>
@@ -12566,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>4729</v>
+        <v>4795</v>
       </c>
       <c r="T137" t="inlineStr">
         <is>
@@ -12574,7 +12602,7 @@
         </is>
       </c>
       <c r="U137" s="2" t="n">
-        <v>45271</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="138">
@@ -12590,7 +12618,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -12648,7 +12676,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O138" t="inlineStr"/>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P138" t="n">
         <v>0</v>
       </c>
@@ -12659,7 +12691,7 @@
         <v>0</v>
       </c>
       <c r="S138" t="n">
-        <v>2255</v>
+        <v>2326</v>
       </c>
       <c r="T138" t="inlineStr">
         <is>
@@ -12667,7 +12699,7 @@
         </is>
       </c>
       <c r="U138" s="2" t="n">
-        <v>45261</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="139">
@@ -13876,7 +13908,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -13934,7 +13966,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O152" t="inlineStr"/>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P152" t="n">
         <v>0</v>
       </c>
@@ -13945,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="S152" t="n">
-        <v>171969</v>
+        <v>174975</v>
       </c>
       <c r="T152" t="inlineStr">
         <is>
@@ -13953,7 +13989,7 @@
         </is>
       </c>
       <c r="U152" s="2" t="n">
-        <v>45271</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="153">
@@ -15069,7 +15105,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -15102,7 +15138,7 @@
         </is>
       </c>
       <c r="U165" s="2" t="n">
-        <v>45246</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="166">
@@ -15211,7 +15247,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -15284,7 +15320,7 @@
         <v>0</v>
       </c>
       <c r="S167" t="n">
-        <v>8902</v>
+        <v>8916</v>
       </c>
       <c r="T167" t="inlineStr">
         <is>
@@ -15292,7 +15328,7 @@
         </is>
       </c>
       <c r="U167" s="2" t="n">
-        <v>45272</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="168">
@@ -17912,7 +17948,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -17970,7 +18006,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O196" t="inlineStr"/>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P196" t="n">
         <v>0</v>
       </c>
@@ -17981,7 +18021,7 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>29547</v>
+        <v>29766</v>
       </c>
       <c r="T196" t="inlineStr">
         <is>
@@ -17989,7 +18029,7 @@
         </is>
       </c>
       <c r="U196" s="2" t="n">
-        <v>45267</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="197">
@@ -19485,7 +19525,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -19562,7 +19602,7 @@
         </is>
       </c>
       <c r="U213" s="2" t="n">
-        <v>45266</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="214">
@@ -21524,7 +21564,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -21601,7 +21641,7 @@
         </is>
       </c>
       <c r="U236" s="2" t="n">
-        <v>45274</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="237">
@@ -22365,7 +22405,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -22423,7 +22463,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O245" t="inlineStr"/>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P245" t="n">
         <v>0</v>
       </c>
@@ -22434,7 +22478,7 @@
         <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>23024</v>
+        <v>23056</v>
       </c>
       <c r="T245" t="inlineStr">
         <is>
@@ -22442,7 +22486,7 @@
         </is>
       </c>
       <c r="U245" s="2" t="n">
-        <v>45278</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="246">
@@ -22923,7 +22967,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -22981,7 +23025,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O251" t="inlineStr"/>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P251" t="n">
         <v>0</v>
       </c>
@@ -22992,7 +23040,7 @@
         <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>14990</v>
+        <v>15092</v>
       </c>
       <c r="T251" t="inlineStr">
         <is>
@@ -23000,7 +23048,7 @@
         </is>
       </c>
       <c r="U251" s="2" t="n">
-        <v>45286</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="252">
@@ -23748,7 +23796,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -23825,7 +23873,7 @@
         </is>
       </c>
       <c r="U260" s="2" t="n">
-        <v>45275</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="261">
@@ -24213,7 +24261,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2023/08/01</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -24246,11 +24294,31 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="inlineStr"/>
-      <c r="N265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O265" t="inlineStr"/>
       <c r="P265" t="n">
         <v>0</v>
@@ -24262,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>173565</v>
+        <v>188905</v>
       </c>
       <c r="T265" t="inlineStr">
         <is>
@@ -24270,7 +24338,7 @@
         </is>
       </c>
       <c r="U265" s="2" t="n">
-        <v>45139</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="266">
@@ -26138,7 +26206,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -26196,7 +26264,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O286" t="inlineStr"/>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P286" t="n">
         <v>0</v>
       </c>
@@ -26207,7 +26279,7 @@
         <v>0</v>
       </c>
       <c r="S286" t="n">
-        <v>8244</v>
+        <v>8282</v>
       </c>
       <c r="T286" t="inlineStr">
         <is>
@@ -26215,7 +26287,7 @@
         </is>
       </c>
       <c r="U286" s="2" t="n">
-        <v>45272</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="287">
@@ -26231,7 +26303,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -26308,7 +26380,7 @@
         </is>
       </c>
       <c r="U287" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="288">
@@ -28257,7 +28329,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -28326,7 +28398,7 @@
         <v>0</v>
       </c>
       <c r="S309" t="n">
-        <v>37794</v>
+        <v>37861</v>
       </c>
       <c r="T309" t="inlineStr">
         <is>
@@ -28334,7 +28406,7 @@
         </is>
       </c>
       <c r="U309" s="2" t="n">
-        <v>45273</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="310">
@@ -29135,7 +29207,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -29204,7 +29276,7 @@
         <v>0</v>
       </c>
       <c r="S319" t="n">
-        <v>251071</v>
+        <v>251212</v>
       </c>
       <c r="T319" t="inlineStr">
         <is>
@@ -29212,7 +29284,7 @@
         </is>
       </c>
       <c r="U319" s="2" t="n">
-        <v>45274</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="320">
@@ -30251,7 +30323,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -30300,7 +30372,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O331" t="inlineStr"/>
       <c r="P331" t="n">
         <v>0</v>
@@ -30312,7 +30388,7 @@
         <v>0</v>
       </c>
       <c r="S331" t="n">
-        <v>5973</v>
+        <v>6078</v>
       </c>
       <c r="T331" t="inlineStr">
         <is>
@@ -30320,7 +30396,7 @@
         </is>
       </c>
       <c r="U331" s="2" t="n">
-        <v>45260</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="332">
@@ -32952,7 +33028,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -33010,7 +33086,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O360" t="inlineStr"/>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P360" t="n">
         <v>0</v>
       </c>
@@ -33021,7 +33101,7 @@
         <v>0</v>
       </c>
       <c r="S360" t="n">
-        <v>26280</v>
+        <v>26325</v>
       </c>
       <c r="T360" t="inlineStr">
         <is>
@@ -33029,7 +33109,7 @@
         </is>
       </c>
       <c r="U360" s="2" t="n">
-        <v>45272</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="361">
@@ -33045,7 +33125,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -33114,7 +33194,7 @@
         <v>0</v>
       </c>
       <c r="S361" t="n">
-        <v>8149</v>
+        <v>8174</v>
       </c>
       <c r="T361" t="inlineStr">
         <is>
@@ -33122,7 +33202,7 @@
         </is>
       </c>
       <c r="U361" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="362">
@@ -33231,7 +33311,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -33289,7 +33369,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O363" t="inlineStr"/>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P363" t="n">
         <v>0</v>
       </c>
@@ -33300,7 +33384,7 @@
         <v>0</v>
       </c>
       <c r="S363" t="n">
-        <v>1665</v>
+        <v>1682</v>
       </c>
       <c r="T363" t="inlineStr">
         <is>
@@ -33308,7 +33392,7 @@
         </is>
       </c>
       <c r="U363" s="2" t="n">
-        <v>45273</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="364">
@@ -34610,7 +34694,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -34668,7 +34752,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O378" t="inlineStr"/>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P378" t="n">
         <v>0</v>
       </c>
@@ -34679,7 +34767,7 @@
         <v>0</v>
       </c>
       <c r="S378" t="n">
-        <v>34907</v>
+        <v>35540</v>
       </c>
       <c r="T378" t="inlineStr">
         <is>
@@ -34687,7 +34775,7 @@
         </is>
       </c>
       <c r="U378" s="2" t="n">
-        <v>45264</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="379">
@@ -35079,7 +35167,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -35156,7 +35244,7 @@
         </is>
       </c>
       <c r="U383" s="2" t="n">
-        <v>45281</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="384">
@@ -35358,7 +35446,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -35435,7 +35523,7 @@
         </is>
       </c>
       <c r="U386" s="2" t="n">
-        <v>45271</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="387">
@@ -35637,7 +35725,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>2023/11/24</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -35690,7 +35778,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N389" t="inlineStr"/>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O389" t="inlineStr"/>
       <c r="P389" t="n">
         <v>0</v>
@@ -35702,7 +35794,7 @@
         <v>0</v>
       </c>
       <c r="S389" t="n">
-        <v>11614</v>
+        <v>11820</v>
       </c>
       <c r="T389" t="inlineStr">
         <is>
@@ -35710,7 +35802,7 @@
         </is>
       </c>
       <c r="U389" s="2" t="n">
-        <v>45254</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="390">
@@ -35819,7 +35911,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -35877,7 +35969,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O391" t="inlineStr"/>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P391" t="n">
         <v>0</v>
       </c>
@@ -35888,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="S391" t="n">
-        <v>63817</v>
+        <v>64109</v>
       </c>
       <c r="T391" t="inlineStr">
         <is>
@@ -35896,7 +35992,7 @@
         </is>
       </c>
       <c r="U391" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="392">
@@ -36838,7 +36934,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2023/11/19</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -36891,7 +36987,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N402" t="inlineStr"/>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O402" t="inlineStr"/>
       <c r="P402" t="n">
         <v>0</v>
@@ -36903,7 +37003,7 @@
         <v>0</v>
       </c>
       <c r="S402" t="n">
-        <v>6769</v>
+        <v>6936</v>
       </c>
       <c r="T402" t="inlineStr">
         <is>
@@ -36911,7 +37011,7 @@
         </is>
       </c>
       <c r="U402" s="2" t="n">
-        <v>45249</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="403">
@@ -37392,7 +37492,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -37465,7 +37565,7 @@
         <v>0</v>
       </c>
       <c r="S408" t="n">
-        <v>12226</v>
+        <v>12247</v>
       </c>
       <c r="T408" t="inlineStr">
         <is>
@@ -37473,7 +37573,7 @@
         </is>
       </c>
       <c r="U408" s="2" t="n">
-        <v>45273</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="409">
@@ -41032,7 +41132,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -41090,7 +41190,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O448" t="inlineStr"/>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P448" t="n">
         <v>0</v>
       </c>
@@ -41101,7 +41205,7 @@
         <v>0</v>
       </c>
       <c r="S448" t="n">
-        <v>4814</v>
+        <v>4883</v>
       </c>
       <c r="T448" t="inlineStr">
         <is>
@@ -41109,7 +41213,7 @@
         </is>
       </c>
       <c r="U448" s="2" t="n">
-        <v>45273</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="449">
@@ -41404,7 +41508,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -41473,7 +41577,7 @@
         <v>0</v>
       </c>
       <c r="S452" t="n">
-        <v>9884</v>
+        <v>9865</v>
       </c>
       <c r="T452" t="inlineStr">
         <is>
@@ -41481,7 +41585,7 @@
         </is>
       </c>
       <c r="U452" s="2" t="n">
-        <v>45275</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="453">
@@ -42140,7 +42244,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -42198,7 +42302,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O460" t="inlineStr"/>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P460" t="n">
         <v>0</v>
       </c>
@@ -42209,7 +42317,7 @@
         <v>0</v>
       </c>
       <c r="S460" t="n">
-        <v>23275</v>
+        <v>23311</v>
       </c>
       <c r="T460" t="inlineStr">
         <is>
@@ -42217,7 +42325,7 @@
         </is>
       </c>
       <c r="U460" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="461">
@@ -43729,7 +43837,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
@@ -43763,7 +43871,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O477" t="inlineStr"/>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P477" t="n">
         <v>0</v>
       </c>
@@ -43774,7 +43886,7 @@
         <v>0</v>
       </c>
       <c r="S477" t="n">
-        <v>5193</v>
+        <v>5376</v>
       </c>
       <c r="T477" t="inlineStr">
         <is>
@@ -43782,7 +43894,7 @@
         </is>
       </c>
       <c r="U477" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="478">
@@ -44170,7 +44282,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -44228,7 +44340,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O482" t="inlineStr"/>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P482" t="n">
         <v>0</v>
       </c>
@@ -44239,7 +44355,7 @@
         <v>0</v>
       </c>
       <c r="S482" t="n">
-        <v>19949</v>
+        <v>20055</v>
       </c>
       <c r="T482" t="inlineStr">
         <is>
@@ -44247,7 +44363,7 @@
         </is>
       </c>
       <c r="U482" s="2" t="n">
-        <v>45281</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="483">
@@ -44910,7 +45026,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -44987,7 +45103,7 @@
         </is>
       </c>
       <c r="U490" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="491">
@@ -45472,7 +45588,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -45530,7 +45646,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O496" t="inlineStr"/>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P496" t="n">
         <v>0</v>
       </c>
@@ -45541,7 +45661,7 @@
         <v>0</v>
       </c>
       <c r="S496" t="n">
-        <v>15959</v>
+        <v>16025</v>
       </c>
       <c r="T496" t="inlineStr">
         <is>
@@ -45549,7 +45669,7 @@
         </is>
       </c>
       <c r="U496" s="2" t="n">
-        <v>45275</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="497">
@@ -47344,7 +47464,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -47421,7 +47541,7 @@
         </is>
       </c>
       <c r="U516" s="2" t="n">
-        <v>45274</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="517">
@@ -48881,7 +49001,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -48939,7 +49059,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O533" t="inlineStr"/>
+      <c r="O533" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P533" t="n">
         <v>0</v>
       </c>
@@ -48950,7 +49074,7 @@
         <v>0</v>
       </c>
       <c r="S533" t="n">
-        <v>27331</v>
+        <v>27458</v>
       </c>
       <c r="T533" t="inlineStr">
         <is>
@@ -48958,7 +49082,7 @@
         </is>
       </c>
       <c r="U533" s="2" t="n">
-        <v>45286</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="534">
@@ -49447,7 +49571,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -49524,7 +49648,7 @@
         </is>
       </c>
       <c r="U539" s="2" t="n">
-        <v>45272</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="540">
@@ -49904,7 +50028,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -49981,7 +50105,7 @@
         </is>
       </c>
       <c r="U544" s="2" t="n">
-        <v>45271</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="545">
@@ -50187,7 +50311,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -50264,7 +50388,7 @@
         </is>
       </c>
       <c r="U547" s="2" t="n">
-        <v>45272</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="548">
@@ -51016,7 +51140,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -51089,7 +51213,7 @@
         <v>0</v>
       </c>
       <c r="S556" t="n">
-        <v>5748</v>
+        <v>5799</v>
       </c>
       <c r="T556" t="inlineStr">
         <is>
@@ -51097,7 +51221,7 @@
         </is>
       </c>
       <c r="U556" s="2" t="n">
-        <v>45272</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="557">
@@ -51756,7 +51880,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -51814,7 +51938,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O564" t="inlineStr"/>
+      <c r="O564" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P564" t="n">
         <v>0</v>
       </c>
@@ -51825,7 +51953,7 @@
         <v>0</v>
       </c>
       <c r="S564" t="n">
-        <v>32890</v>
+        <v>33025</v>
       </c>
       <c r="T564" t="inlineStr">
         <is>
@@ -51833,7 +51961,7 @@
         </is>
       </c>
       <c r="U564" s="2" t="n">
-        <v>45273</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="565">
@@ -53341,7 +53469,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
@@ -53418,7 +53546,7 @@
         </is>
       </c>
       <c r="U581" s="2" t="n">
-        <v>45273</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="582">
@@ -53859,7 +53987,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -53936,7 +54064,7 @@
         </is>
       </c>
       <c r="U587" s="2" t="n">
-        <v>45275</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="588">
@@ -54231,7 +54359,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -54289,7 +54417,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O591" t="inlineStr"/>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P591" t="n">
         <v>0</v>
       </c>
@@ -54300,7 +54432,7 @@
         <v>0</v>
       </c>
       <c r="S591" t="n">
-        <v>27518</v>
+        <v>27776</v>
       </c>
       <c r="T591" t="inlineStr">
         <is>
@@ -54308,7 +54440,7 @@
         </is>
       </c>
       <c r="U591" s="2" t="n">
-        <v>45252</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="592">
@@ -55626,7 +55758,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -55684,7 +55816,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O606" t="inlineStr"/>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P606" t="n">
         <v>0</v>
       </c>
@@ -55695,7 +55831,7 @@
         <v>0</v>
       </c>
       <c r="S606" t="n">
-        <v>63507</v>
+        <v>63724</v>
       </c>
       <c r="T606" t="inlineStr">
         <is>
@@ -55703,7 +55839,7 @@
         </is>
       </c>
       <c r="U606" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="607">
@@ -58631,7 +58767,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -58684,7 +58820,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N639" t="inlineStr"/>
+      <c r="N639" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O639" t="inlineStr"/>
       <c r="P639" t="n">
         <v>0</v>
@@ -58696,7 +58836,7 @@
         <v>0</v>
       </c>
       <c r="S639" t="n">
-        <v>827</v>
+        <v>849</v>
       </c>
       <c r="T639" t="inlineStr">
         <is>
@@ -58704,7 +58844,7 @@
         </is>
       </c>
       <c r="U639" s="2" t="n">
-        <v>45266</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="640">
@@ -59792,7 +59932,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
@@ -59830,7 +59970,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O652" t="inlineStr"/>
+      <c r="O652" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P652" t="n">
         <v>0</v>
       </c>
@@ -59841,7 +59985,7 @@
         <v>0</v>
       </c>
       <c r="S652" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="T652" t="inlineStr">
         <is>
@@ -59849,7 +59993,7 @@
         </is>
       </c>
       <c r="U652" s="2" t="n">
-        <v>45271</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="653">

--- a/consolidado3.xlsx
+++ b/consolidado3.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U720"/>
+  <dimension ref="A1:U721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,7 +882,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -940,7 +940,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
@@ -951,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>9830</v>
+        <v>9966</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -959,7 +963,7 @@
         </is>
       </c>
       <c r="U10" s="2" t="n">
-        <v>45273</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="11">
@@ -975,7 +979,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1033,7 +1037,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
@@ -1044,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>21226</v>
+        <v>21487</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1052,7 +1060,7 @@
         </is>
       </c>
       <c r="U11" s="2" t="n">
-        <v>45278</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="12">
@@ -2625,7 +2633,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2698,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58928</v>
+        <v>59709</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2706,7 +2714,7 @@
         </is>
       </c>
       <c r="U29" s="2" t="n">
-        <v>45266</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="30">
@@ -4093,7 +4101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4151,7 +4159,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
@@ -4162,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>7742</v>
+        <v>7835</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4170,7 +4182,7 @@
         </is>
       </c>
       <c r="U45" s="2" t="n">
-        <v>45286</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="46">
@@ -4477,7 +4489,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4550,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>7517</v>
+        <v>7561</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4558,7 +4570,7 @@
         </is>
       </c>
       <c r="U49" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="50">
@@ -5229,7 +5241,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/01/27</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5287,7 +5299,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
@@ -5298,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>1213</v>
+        <v>1221</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5306,7 +5322,7 @@
         </is>
       </c>
       <c r="U57" s="2" t="n">
-        <v>45295</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="58">
@@ -5706,7 +5722,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5759,8 +5775,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
@@ -5771,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>26525</v>
+        <v>26789</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -5779,7 +5803,7 @@
         </is>
       </c>
       <c r="U62" s="2" t="n">
-        <v>45258</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="63">
@@ -5795,7 +5819,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5853,7 +5877,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P63" t="n">
         <v>0</v>
       </c>
@@ -5864,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>5123</v>
+        <v>5219</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -5872,7 +5900,7 @@
         </is>
       </c>
       <c r="U63" s="2" t="n">
-        <v>45274</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="64">
@@ -5985,7 +6013,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6043,7 +6071,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
@@ -6054,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>28258</v>
+        <v>28692</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -6062,7 +6094,7 @@
         </is>
       </c>
       <c r="U65" s="2" t="n">
-        <v>45288</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="66">
@@ -6652,7 +6684,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6710,7 +6742,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P72" t="n">
         <v>0</v>
       </c>
@@ -6721,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>79464</v>
+        <v>80933</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -6729,7 +6765,7 @@
         </is>
       </c>
       <c r="U72" s="2" t="n">
-        <v>45287</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="73">
@@ -6842,7 +6878,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -6900,7 +6936,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P74" t="n">
         <v>0</v>
       </c>
@@ -6911,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -6919,7 +6959,7 @@
         </is>
       </c>
       <c r="U74" s="2" t="n">
-        <v>45271</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="75">
@@ -10751,7 +10791,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -10809,7 +10849,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O115" t="inlineStr"/>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P115" t="n">
         <v>0</v>
       </c>
@@ -10820,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>13545</v>
+        <v>13710</v>
       </c>
       <c r="T115" t="inlineStr">
         <is>
@@ -10828,7 +10872,7 @@
         </is>
       </c>
       <c r="U115" s="2" t="n">
-        <v>45272</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="116">
@@ -12574,7 +12618,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -12647,7 +12691,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>15560</v>
+        <v>15561</v>
       </c>
       <c r="T134" t="inlineStr">
         <is>
@@ -12655,7 +12699,7 @@
         </is>
       </c>
       <c r="U134" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="135">
@@ -14009,7 +14053,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -14067,7 +14111,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr"/>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P149" t="n">
         <v>0</v>
       </c>
@@ -14078,7 +14126,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>14697</v>
+        <v>14755</v>
       </c>
       <c r="T149" t="inlineStr">
         <is>
@@ -14086,7 +14134,7 @@
         </is>
       </c>
       <c r="U149" s="2" t="n">
-        <v>45309</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="150">
@@ -14102,7 +14150,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -14175,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="S150" t="n">
-        <v>14055</v>
+        <v>14095</v>
       </c>
       <c r="T150" t="inlineStr">
         <is>
@@ -14183,7 +14231,7 @@
         </is>
       </c>
       <c r="U150" s="2" t="n">
-        <v>45302</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="151">
@@ -15533,7 +15581,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -15566,7 +15614,7 @@
         </is>
       </c>
       <c r="U165" s="2" t="n">
-        <v>45303</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="166">
@@ -15873,7 +15921,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -15946,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="S169" t="n">
-        <v>17774</v>
+        <v>17811</v>
       </c>
       <c r="T169" t="inlineStr">
         <is>
@@ -15954,7 +16002,7 @@
         </is>
       </c>
       <c r="U169" s="2" t="n">
-        <v>45306</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="170">
@@ -16358,7 +16406,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2023/11/23</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -16411,8 +16459,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N174" t="inlineStr"/>
-      <c r="O174" t="inlineStr"/>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P174" t="n">
         <v>0</v>
       </c>
@@ -16423,7 +16479,7 @@
         <v>0</v>
       </c>
       <c r="S174" t="n">
-        <v>1147</v>
+        <v>1191</v>
       </c>
       <c r="T174" t="inlineStr">
         <is>
@@ -16431,7 +16487,7 @@
         </is>
       </c>
       <c r="U174" s="2" t="n">
-        <v>45253</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="175">
@@ -16835,7 +16891,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -16916,7 +16972,7 @@
         </is>
       </c>
       <c r="U179" s="2" t="n">
-        <v>45302</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="180">
@@ -18278,7 +18334,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -18347,7 +18403,7 @@
         <v>0</v>
       </c>
       <c r="S194" t="n">
-        <v>18869</v>
+        <v>18909</v>
       </c>
       <c r="T194" t="inlineStr">
         <is>
@@ -18355,7 +18411,7 @@
         </is>
       </c>
       <c r="U194" s="2" t="n">
-        <v>45272</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="195">
@@ -19240,7 +19296,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/27</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -19313,7 +19369,7 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>13640</v>
+        <v>13686</v>
       </c>
       <c r="T204" t="inlineStr">
         <is>
@@ -19321,7 +19377,7 @@
         </is>
       </c>
       <c r="U204" s="2" t="n">
-        <v>45301</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="205">
@@ -21027,7 +21083,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -21075,8 +21131,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="n">
         <v>0</v>
@@ -21088,7 +21152,7 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>4382</v>
+        <v>4507</v>
       </c>
       <c r="T223" t="inlineStr">
         <is>
@@ -21096,7 +21160,7 @@
         </is>
       </c>
       <c r="U223" s="2" t="n">
-        <v>45240</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="224">
@@ -22127,7 +22191,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2024/01/13</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -22160,7 +22224,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>x</t>
@@ -22196,7 +22264,7 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>3055</v>
+        <v>3105</v>
       </c>
       <c r="T235" t="inlineStr">
         <is>
@@ -22204,7 +22272,7 @@
         </is>
       </c>
       <c r="U235" s="2" t="n">
-        <v>45304</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="236">
@@ -22220,7 +22288,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -22301,7 +22369,7 @@
         </is>
       </c>
       <c r="U236" s="2" t="n">
-        <v>45309</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="237">
@@ -24528,7 +24596,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -24609,7 +24677,7 @@
         </is>
       </c>
       <c r="U260" s="2" t="n">
-        <v>45303</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="261">
@@ -24625,7 +24693,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -24698,7 +24766,7 @@
         <v>0</v>
       </c>
       <c r="S261" t="n">
-        <v>1580</v>
+        <v>1596</v>
       </c>
       <c r="T261" t="inlineStr">
         <is>
@@ -24706,7 +24774,7 @@
         </is>
       </c>
       <c r="U261" s="2" t="n">
-        <v>45308</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="262">
@@ -29819,7 +29887,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -29892,7 +29960,7 @@
         <v>0</v>
       </c>
       <c r="S315" t="n">
-        <v>135876</v>
+        <v>137759</v>
       </c>
       <c r="T315" t="inlineStr">
         <is>
@@ -29900,7 +29968,7 @@
         </is>
       </c>
       <c r="U315" s="2" t="n">
-        <v>45278</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="316">
@@ -30062,7 +30130,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -30135,7 +30203,7 @@
         <v>0</v>
       </c>
       <c r="S318" t="n">
-        <v>10488</v>
+        <v>10542</v>
       </c>
       <c r="T318" t="inlineStr">
         <is>
@@ -30143,7 +30211,7 @@
         </is>
       </c>
       <c r="U318" s="2" t="n">
-        <v>45310</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="319">
@@ -30935,7 +31003,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -30993,7 +31061,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O327" t="inlineStr"/>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P327" t="n">
         <v>0</v>
       </c>
@@ -31004,7 +31076,7 @@
         <v>0</v>
       </c>
       <c r="S327" t="n">
-        <v>33158</v>
+        <v>33494</v>
       </c>
       <c r="T327" t="inlineStr">
         <is>
@@ -31012,7 +31084,7 @@
         </is>
       </c>
       <c r="U327" s="2" t="n">
-        <v>45289</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="328">
@@ -31509,7 +31581,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -31590,7 +31662,7 @@
         </is>
       </c>
       <c r="U333" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="334">
@@ -31606,7 +31678,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -31687,7 +31759,7 @@
         </is>
       </c>
       <c r="U334" s="2" t="n">
-        <v>45306</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="335">
@@ -32091,7 +32163,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -32172,7 +32244,7 @@
         </is>
       </c>
       <c r="U339" s="2" t="n">
-        <v>45302</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="340">
@@ -34997,7 +35069,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -35055,7 +35127,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O369" t="inlineStr"/>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P369" t="n">
         <v>0</v>
       </c>
@@ -35066,7 +35142,7 @@
         <v>0</v>
       </c>
       <c r="S369" t="n">
-        <v>21287</v>
+        <v>21548</v>
       </c>
       <c r="T369" t="inlineStr">
         <is>
@@ -35074,7 +35150,7 @@
         </is>
       </c>
       <c r="U369" s="2" t="n">
-        <v>45272</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="370">
@@ -36153,7 +36229,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -36234,7 +36310,7 @@
         </is>
       </c>
       <c r="U381" s="2" t="n">
-        <v>45307</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="382">
@@ -37026,7 +37102,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -37099,7 +37175,7 @@
         <v>0</v>
       </c>
       <c r="S390" t="n">
-        <v>64109</v>
+        <v>64369</v>
       </c>
       <c r="T390" t="inlineStr">
         <is>
@@ -37107,7 +37183,7 @@
         </is>
       </c>
       <c r="U390" s="2" t="n">
-        <v>45296</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="391">
@@ -37123,7 +37199,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -37204,7 +37280,7 @@
         </is>
       </c>
       <c r="U391" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="392">
@@ -37798,7 +37874,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -37856,7 +37932,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O398" t="inlineStr"/>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P398" t="n">
         <v>0</v>
       </c>
@@ -37867,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="S398" t="n">
-        <v>138231</v>
+        <v>140635</v>
       </c>
       <c r="T398" t="inlineStr">
         <is>
@@ -37875,7 +37955,7 @@
         </is>
       </c>
       <c r="U398" s="2" t="n">
-        <v>45278</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="399">
@@ -37988,7 +38068,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -38046,7 +38126,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O400" t="inlineStr"/>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P400" t="n">
         <v>0</v>
       </c>
@@ -38057,7 +38141,7 @@
         <v>0</v>
       </c>
       <c r="S400" t="n">
-        <v>8787</v>
+        <v>8868</v>
       </c>
       <c r="T400" t="inlineStr">
         <is>
@@ -38065,7 +38149,7 @@
         </is>
       </c>
       <c r="U400" s="2" t="n">
-        <v>45273</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="401">
@@ -38081,7 +38165,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -38154,7 +38238,7 @@
         <v>0</v>
       </c>
       <c r="S401" t="n">
-        <v>7322</v>
+        <v>7491</v>
       </c>
       <c r="T401" t="inlineStr">
         <is>
@@ -38162,7 +38246,7 @@
         </is>
       </c>
       <c r="U401" s="2" t="n">
-        <v>45306</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="402">
@@ -38663,7 +38747,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/21</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -38744,7 +38828,7 @@
         </is>
       </c>
       <c r="U407" s="2" t="n">
-        <v>45306</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="408">
@@ -40389,7 +40473,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -40447,7 +40531,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O425" t="inlineStr"/>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P425" t="n">
         <v>0</v>
       </c>
@@ -40458,7 +40546,7 @@
         <v>0</v>
       </c>
       <c r="S425" t="n">
-        <v>37114</v>
+        <v>37539</v>
       </c>
       <c r="T425" t="inlineStr">
         <is>
@@ -40466,7 +40554,7 @@
         </is>
       </c>
       <c r="U425" s="2" t="n">
-        <v>45275</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="426">
@@ -43021,7 +43109,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/27</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -43102,7 +43190,7 @@
         </is>
       </c>
       <c r="U453" s="2" t="n">
-        <v>45299</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="454">
@@ -43308,7 +43396,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -43385,7 +43473,7 @@
         </is>
       </c>
       <c r="U456" s="2" t="n">
-        <v>45301</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="457">
@@ -43401,7 +43489,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>2023/12/08</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -43459,7 +43547,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O457" t="inlineStr"/>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P457" t="n">
         <v>0</v>
       </c>
@@ -43470,7 +43562,7 @@
         <v>0</v>
       </c>
       <c r="S457" t="n">
-        <v>42966</v>
+        <v>43648</v>
       </c>
       <c r="T457" t="inlineStr">
         <is>
@@ -43478,7 +43570,7 @@
         </is>
       </c>
       <c r="U457" s="2" t="n">
-        <v>45268</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="458">
@@ -43494,7 +43586,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -43567,7 +43659,7 @@
         <v>0</v>
       </c>
       <c r="S458" t="n">
-        <v>20450</v>
+        <v>20603</v>
       </c>
       <c r="T458" t="inlineStr">
         <is>
@@ -43575,7 +43667,7 @@
         </is>
       </c>
       <c r="U458" s="2" t="n">
-        <v>45309</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="459">
@@ -43785,7 +43877,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>2024/01/20</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -43858,7 +43950,7 @@
         <v>0</v>
       </c>
       <c r="S461" t="n">
-        <v>7540</v>
+        <v>7569</v>
       </c>
       <c r="T461" t="inlineStr">
         <is>
@@ -43866,7 +43958,7 @@
         </is>
       </c>
       <c r="U461" s="2" t="n">
-        <v>45311</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="462">
@@ -43882,7 +43974,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -43940,7 +44032,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O462" t="inlineStr"/>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P462" t="n">
         <v>0</v>
       </c>
@@ -43951,7 +44047,7 @@
         <v>0</v>
       </c>
       <c r="S462" t="n">
-        <v>35305</v>
+        <v>35973</v>
       </c>
       <c r="T462" t="inlineStr">
         <is>
@@ -43959,7 +44055,7 @@
         </is>
       </c>
       <c r="U462" s="2" t="n">
-        <v>45273</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="463">
@@ -44557,7 +44653,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -44630,7 +44726,7 @@
         <v>0</v>
       </c>
       <c r="S469" t="n">
-        <v>3543</v>
+        <v>3556</v>
       </c>
       <c r="T469" t="inlineStr">
         <is>
@@ -44638,7 +44734,7 @@
         </is>
       </c>
       <c r="U469" s="2" t="n">
-        <v>45309</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="470">
@@ -45236,7 +45332,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
@@ -45293,7 +45389,7 @@
         </is>
       </c>
       <c r="U476" s="2" t="n">
-        <v>45308</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="477">
@@ -45406,7 +45502,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -45479,7 +45575,7 @@
         <v>0</v>
       </c>
       <c r="S478" t="n">
-        <v>267368</v>
+        <v>272461</v>
       </c>
       <c r="T478" t="inlineStr">
         <is>
@@ -45487,7 +45583,7 @@
         </is>
       </c>
       <c r="U478" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="479">
@@ -45887,7 +45983,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -45960,7 +46056,7 @@
         <v>0</v>
       </c>
       <c r="S483" t="n">
-        <v>3269</v>
+        <v>3285</v>
       </c>
       <c r="T483" t="inlineStr">
         <is>
@@ -45968,7 +46064,7 @@
         </is>
       </c>
       <c r="U483" s="2" t="n">
-        <v>45302</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="484">
@@ -45984,7 +46080,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -46065,7 +46161,7 @@
         </is>
       </c>
       <c r="U484" s="2" t="n">
-        <v>45299</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="485">
@@ -46465,7 +46561,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -46546,7 +46642,7 @@
         </is>
       </c>
       <c r="U489" s="2" t="n">
-        <v>45309</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="490">
@@ -47435,7 +47531,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -47516,7 +47612,7 @@
         </is>
       </c>
       <c r="U499" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="500">
@@ -47532,7 +47628,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>2023/11/29</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -47613,7 +47709,7 @@
         </is>
       </c>
       <c r="U500" s="2" t="n">
-        <v>45259</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="501">
@@ -49658,7 +49754,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -49716,7 +49812,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O522" t="inlineStr"/>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P522" t="n">
         <v>0</v>
       </c>
@@ -49727,7 +49827,7 @@
         <v>0</v>
       </c>
       <c r="S522" t="n">
-        <v>67761</v>
+        <v>68639</v>
       </c>
       <c r="T522" t="inlineStr">
         <is>
@@ -49735,7 +49835,7 @@
         </is>
       </c>
       <c r="U522" s="2" t="n">
-        <v>45281</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="523">
@@ -49848,7 +49948,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -49906,7 +50006,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O524" t="inlineStr"/>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P524" t="n">
         <v>0</v>
       </c>
@@ -49917,7 +50021,7 @@
         <v>0</v>
       </c>
       <c r="S524" t="n">
-        <v>10497</v>
+        <v>10645</v>
       </c>
       <c r="T524" t="inlineStr">
         <is>
@@ -49925,7 +50029,7 @@
         </is>
       </c>
       <c r="U524" s="2" t="n">
-        <v>45286</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="525">
@@ -50956,7 +51060,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -51029,7 +51133,7 @@
         <v>0</v>
       </c>
       <c r="S536" t="n">
-        <v>28588</v>
+        <v>28671</v>
       </c>
       <c r="T536" t="inlineStr">
         <is>
@@ -51037,7 +51141,7 @@
         </is>
       </c>
       <c r="U536" s="2" t="n">
-        <v>45307</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="537">
@@ -51247,7 +51351,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -51295,9 +51399,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M539" t="inlineStr"/>
-      <c r="N539" t="inlineStr"/>
-      <c r="O539" t="inlineStr"/>
+      <c r="M539" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N539" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O539" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P539" t="n">
         <v>0</v>
       </c>
@@ -51308,7 +51424,7 @@
         <v>0</v>
       </c>
       <c r="S539" t="n">
-        <v>1570</v>
+        <v>1626</v>
       </c>
       <c r="T539" t="inlineStr">
         <is>
@@ -51316,7 +51432,7 @@
         </is>
       </c>
       <c r="U539" s="2" t="n">
-        <v>45252</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="540">
@@ -52783,7 +52899,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -52856,7 +52972,7 @@
         <v>0</v>
       </c>
       <c r="S555" t="n">
-        <v>5851</v>
+        <v>5873</v>
       </c>
       <c r="T555" t="inlineStr">
         <is>
@@ -52864,7 +52980,7 @@
         </is>
       </c>
       <c r="U555" s="2" t="n">
-        <v>45303</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="556">
@@ -54703,7 +54819,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -54761,7 +54877,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O575" t="inlineStr"/>
+      <c r="O575" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P575" t="n">
         <v>0</v>
       </c>
@@ -54772,7 +54892,7 @@
         <v>0</v>
       </c>
       <c r="S575" t="n">
-        <v>3297</v>
+        <v>3346</v>
       </c>
       <c r="T575" t="inlineStr">
         <is>
@@ -54780,7 +54900,7 @@
         </is>
       </c>
       <c r="U575" s="2" t="n">
-        <v>45275</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="576">
@@ -60270,7 +60390,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>2023/12/25</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
@@ -60343,7 +60463,7 @@
         <v>0</v>
       </c>
       <c r="S634" t="n">
-        <v>2234</v>
+        <v>2376</v>
       </c>
       <c r="T634" t="inlineStr">
         <is>
@@ -60351,7 +60471,7 @@
         </is>
       </c>
       <c r="U634" s="2" t="n">
-        <v>45285</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="635">
@@ -60658,7 +60778,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -60731,7 +60851,7 @@
         <v>0</v>
       </c>
       <c r="S638" t="n">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="T638" t="inlineStr">
         <is>
@@ -60739,7 +60859,7 @@
         </is>
       </c>
       <c r="U638" s="2" t="n">
-        <v>45306</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="639">
@@ -61705,7 +61825,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -61763,7 +61883,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O649" t="inlineStr"/>
+      <c r="O649" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P649" t="n">
         <v>0</v>
       </c>
@@ -61774,7 +61898,7 @@
         <v>0</v>
       </c>
       <c r="S649" t="n">
-        <v>952</v>
+        <v>1035</v>
       </c>
       <c r="T649" t="inlineStr">
         <is>
@@ -61782,7 +61906,7 @@
         </is>
       </c>
       <c r="U649" s="2" t="n">
-        <v>45274</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="650">
@@ -62171,7 +62295,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
@@ -62204,8 +62328,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N655" t="inlineStr"/>
-      <c r="O655" t="inlineStr"/>
+      <c r="N655" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O655" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P655" t="n">
         <v>0</v>
       </c>
@@ -62216,7 +62348,7 @@
         <v>0</v>
       </c>
       <c r="S655" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="T655" t="inlineStr">
         <is>
@@ -62224,7 +62356,7 @@
         </is>
       </c>
       <c r="U655" s="2" t="n">
-        <v>45250</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="656">
@@ -65912,6 +66044,55 @@
         <v>45307</v>
       </c>
     </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>TA_PersonalContrata</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Municipalidad de Algarrobo</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>2024/01/22</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr"/>
+      <c r="E721" t="inlineStr"/>
+      <c r="F721" t="inlineStr"/>
+      <c r="G721" t="inlineStr"/>
+      <c r="H721" t="inlineStr"/>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="inlineStr"/>
+      <c r="M721" t="inlineStr"/>
+      <c r="N721" t="inlineStr"/>
+      <c r="O721" t="inlineStr"/>
+      <c r="P721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R721" t="n">
+        <v>0</v>
+      </c>
+      <c r="S721" t="n">
+        <v>159</v>
+      </c>
+      <c r="T721" t="inlineStr">
+        <is>
+          <t>MU001</t>
+        </is>
+      </c>
+      <c r="U721" s="2" t="n">
+        <v>45313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/consolidado3.xlsx
+++ b/consolidado3.xlsx
@@ -784,7 +784,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="U8" s="2" t="n">
-        <v>45294</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="9">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4194</v>
+        <v>4234</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="U21" s="2" t="n">
-        <v>45295</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="22">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3366,7 +3366,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
@@ -3377,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>1129</v>
+        <v>1141</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3385,7 +3389,7 @@
         </is>
       </c>
       <c r="U36" s="2" t="n">
-        <v>45282</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="37">
@@ -3543,7 +3547,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3601,7 +3605,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
@@ -3612,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>5645</v>
+        <v>5706</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -3620,7 +3628,7 @@
         </is>
       </c>
       <c r="U39" s="2" t="n">
-        <v>45278</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="40">
@@ -4392,7 +4400,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4465,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>52553</v>
+        <v>53857</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -4473,7 +4481,7 @@
         </is>
       </c>
       <c r="U48" s="2" t="n">
-        <v>45300</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="49">
@@ -4954,7 +4962,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5027,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>11097</v>
+        <v>11115</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -5035,7 +5043,7 @@
         </is>
       </c>
       <c r="U54" s="2" t="n">
-        <v>45308</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="55">
@@ -6110,7 +6118,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -6183,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>5973</v>
+        <v>5978</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -6191,7 +6199,7 @@
         </is>
       </c>
       <c r="U66" s="2" t="n">
-        <v>45302</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="67">
@@ -6781,7 +6789,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -6862,7 +6870,7 @@
         </is>
       </c>
       <c r="U73" s="2" t="n">
-        <v>45307</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="74">
@@ -7266,7 +7274,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -7324,7 +7332,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P78" t="n">
         <v>0</v>
       </c>
@@ -7335,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>30117</v>
+        <v>30626</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -7343,7 +7355,7 @@
         </is>
       </c>
       <c r="U78" s="2" t="n">
-        <v>45279</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="79">
@@ -10156,7 +10168,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -10229,7 +10241,7 @@
         </is>
       </c>
       <c r="U108" s="2" t="n">
-        <v>45293</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="109">
@@ -13006,7 +13018,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -13087,7 +13099,7 @@
         </is>
       </c>
       <c r="U138" s="2" t="n">
-        <v>45296</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="139">
@@ -13762,7 +13774,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -13835,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="S146" t="n">
-        <v>15097</v>
+        <v>15286</v>
       </c>
       <c r="T146" t="inlineStr">
         <is>
@@ -13843,7 +13855,7 @@
         </is>
       </c>
       <c r="U146" s="2" t="n">
-        <v>45308</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="147">
@@ -14053,7 +14065,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -14126,7 +14138,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>14755</v>
+        <v>14845</v>
       </c>
       <c r="T149" t="inlineStr">
         <is>
@@ -14134,7 +14146,7 @@
         </is>
       </c>
       <c r="U149" s="2" t="n">
-        <v>45314</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="150">
@@ -14344,7 +14356,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -14417,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="S152" t="n">
-        <v>174975</v>
+        <v>178063</v>
       </c>
       <c r="T152" t="inlineStr">
         <is>
@@ -14425,7 +14437,7 @@
         </is>
       </c>
       <c r="U152" s="2" t="n">
-        <v>45295</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="153">
@@ -15213,7 +15225,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -15256,10 +15268,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P161" t="n">
         <v>0</v>
       </c>
@@ -15270,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>4240</v>
+        <v>4450</v>
       </c>
       <c r="T161" t="inlineStr">
         <is>
@@ -15278,7 +15306,7 @@
         </is>
       </c>
       <c r="U161" s="2" t="n">
-        <v>45190</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="162">
@@ -16212,7 +16240,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -16293,7 +16321,7 @@
         </is>
       </c>
       <c r="U172" s="2" t="n">
-        <v>45310</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="173">
@@ -16600,7 +16628,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -16673,7 +16701,7 @@
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>6229</v>
+        <v>6443</v>
       </c>
       <c r="T176" t="inlineStr">
         <is>
@@ -16681,7 +16709,7 @@
         </is>
       </c>
       <c r="U176" s="2" t="n">
-        <v>45301</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="177">
@@ -17085,7 +17113,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -17139,7 +17167,11 @@
         </is>
       </c>
       <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P181" t="n">
         <v>0</v>
       </c>
@@ -17150,7 +17182,7 @@
         <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>6050</v>
+        <v>6160</v>
       </c>
       <c r="T181" t="inlineStr">
         <is>
@@ -17158,7 +17190,7 @@
         </is>
       </c>
       <c r="U181" s="2" t="n">
-        <v>45258</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="182">
@@ -17271,7 +17303,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -17352,7 +17384,7 @@
         </is>
       </c>
       <c r="U183" s="2" t="n">
-        <v>45299</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="184">
@@ -17562,7 +17594,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -17643,7 +17675,7 @@
         </is>
       </c>
       <c r="U186" s="2" t="n">
-        <v>45306</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="187">
@@ -18811,7 +18843,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -18884,7 +18916,7 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>25478</v>
+        <v>25504</v>
       </c>
       <c r="T199" t="inlineStr">
         <is>
@@ -18892,7 +18924,7 @@
         </is>
       </c>
       <c r="U199" s="2" t="n">
-        <v>45309</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="200">
@@ -19393,7 +19425,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -19466,7 +19498,7 @@
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>3513</v>
+        <v>3578</v>
       </c>
       <c r="T205" t="inlineStr">
         <is>
@@ -19474,7 +19506,7 @@
         </is>
       </c>
       <c r="U205" s="2" t="n">
-        <v>45299</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="206">
@@ -20165,7 +20197,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -20246,7 +20278,7 @@
         </is>
       </c>
       <c r="U213" s="2" t="n">
-        <v>45303</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="214">
@@ -20986,7 +21018,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -21059,7 +21091,7 @@
         <v>0</v>
       </c>
       <c r="S222" t="n">
-        <v>17296</v>
+        <v>17355</v>
       </c>
       <c r="T222" t="inlineStr">
         <is>
@@ -21067,7 +21099,7 @@
         </is>
       </c>
       <c r="U222" s="2" t="n">
-        <v>45306</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="223">
@@ -21083,7 +21115,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/02/03</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -21141,7 +21173,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O223" t="inlineStr"/>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P223" t="n">
         <v>0</v>
       </c>
@@ -21152,7 +21188,7 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>4507</v>
+        <v>4626</v>
       </c>
       <c r="T223" t="inlineStr">
         <is>
@@ -21160,7 +21196,7 @@
         </is>
       </c>
       <c r="U223" s="2" t="n">
-        <v>45316</v>
+        <v>45325</v>
       </c>
     </row>
     <row r="224">
@@ -21176,7 +21212,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -21249,7 +21285,7 @@
         <v>0</v>
       </c>
       <c r="S224" t="n">
-        <v>17887</v>
+        <v>17967</v>
       </c>
       <c r="T224" t="inlineStr">
         <is>
@@ -21257,7 +21293,7 @@
         </is>
       </c>
       <c r="U224" s="2" t="n">
-        <v>45306</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="225">
@@ -21467,7 +21503,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -21540,7 +21576,7 @@
         <v>0</v>
       </c>
       <c r="S227" t="n">
-        <v>4106</v>
+        <v>4121</v>
       </c>
       <c r="T227" t="inlineStr">
         <is>
@@ -21548,7 +21584,7 @@
         </is>
       </c>
       <c r="U227" s="2" t="n">
-        <v>45307</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="228">
@@ -23933,7 +23969,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -24002,7 +24038,7 @@
         <v>0</v>
       </c>
       <c r="S253" t="n">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="T253" t="inlineStr">
         <is>
@@ -24010,7 +24046,7 @@
         </is>
       </c>
       <c r="U253" s="2" t="n">
-        <v>45301</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="254">
@@ -24317,7 +24353,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -24398,7 +24434,7 @@
         </is>
       </c>
       <c r="U257" s="2" t="n">
-        <v>45303</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="258">
@@ -24596,7 +24632,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -24677,7 +24713,7 @@
         </is>
       </c>
       <c r="U260" s="2" t="n">
-        <v>45316</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="261">
@@ -26512,7 +26548,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -26585,7 +26621,7 @@
         <v>0</v>
       </c>
       <c r="S280" t="n">
-        <v>27902</v>
+        <v>27952</v>
       </c>
       <c r="T280" t="inlineStr">
         <is>
@@ -26593,7 +26629,7 @@
         </is>
       </c>
       <c r="U280" s="2" t="n">
-        <v>45309</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="281">
@@ -28355,7 +28391,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -28428,7 +28464,7 @@
         <v>0</v>
       </c>
       <c r="S299" t="n">
-        <v>11508</v>
+        <v>11539</v>
       </c>
       <c r="T299" t="inlineStr">
         <is>
@@ -28436,7 +28472,7 @@
         </is>
       </c>
       <c r="U299" s="2" t="n">
-        <v>45306</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="300">
@@ -31678,7 +31714,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -31751,7 +31787,7 @@
         <v>0</v>
       </c>
       <c r="S334" t="n">
-        <v>24086</v>
+        <v>24158</v>
       </c>
       <c r="T334" t="inlineStr">
         <is>
@@ -31759,7 +31795,7 @@
         </is>
       </c>
       <c r="U334" s="2" t="n">
-        <v>45317</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="335">
@@ -33226,7 +33262,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/04</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -33299,7 +33335,7 @@
         <v>0</v>
       </c>
       <c r="S350" t="n">
-        <v>75960</v>
+        <v>77083</v>
       </c>
       <c r="T350" t="inlineStr">
         <is>
@@ -33307,7 +33343,7 @@
         </is>
       </c>
       <c r="U350" s="2" t="n">
-        <v>45302</v>
+        <v>45326</v>
       </c>
     </row>
     <row r="351">
@@ -34293,7 +34329,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -34366,7 +34402,7 @@
         <v>0</v>
       </c>
       <c r="S361" t="n">
-        <v>8239</v>
+        <v>8264</v>
       </c>
       <c r="T361" t="inlineStr">
         <is>
@@ -34374,7 +34410,7 @@
         </is>
       </c>
       <c r="U361" s="2" t="n">
-        <v>45309</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="362">
@@ -34972,7 +35008,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -35045,7 +35081,7 @@
         <v>0</v>
       </c>
       <c r="S368" t="n">
-        <v>1461</v>
+        <v>1483</v>
       </c>
       <c r="T368" t="inlineStr">
         <is>
@@ -35053,7 +35089,7 @@
         </is>
       </c>
       <c r="U368" s="2" t="n">
-        <v>45308</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="369">
@@ -36714,7 +36750,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -36787,7 +36823,7 @@
         <v>0</v>
       </c>
       <c r="S386" t="n">
-        <v>29273</v>
+        <v>29295</v>
       </c>
       <c r="T386" t="inlineStr">
         <is>
@@ -36795,7 +36831,7 @@
         </is>
       </c>
       <c r="U386" s="2" t="n">
-        <v>45306</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="387">
@@ -37490,7 +37526,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -37548,7 +37584,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O394" t="inlineStr"/>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P394" t="n">
         <v>0</v>
       </c>
@@ -37559,7 +37599,7 @@
         <v>0</v>
       </c>
       <c r="S394" t="n">
-        <v>23180</v>
+        <v>24462</v>
       </c>
       <c r="T394" t="inlineStr">
         <is>
@@ -37567,7 +37607,7 @@
         </is>
       </c>
       <c r="U394" s="2" t="n">
-        <v>45281</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="395">
@@ -41395,7 +41435,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -41453,7 +41493,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O435" t="inlineStr"/>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P435" t="n">
         <v>0</v>
       </c>
@@ -41464,7 +41508,7 @@
         <v>0</v>
       </c>
       <c r="S435" t="n">
-        <v>291305</v>
+        <v>294125</v>
       </c>
       <c r="T435" t="inlineStr">
         <is>
@@ -41472,7 +41516,7 @@
         </is>
       </c>
       <c r="U435" s="2" t="n">
-        <v>45275</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="436">
@@ -41488,7 +41532,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -41561,7 +41605,7 @@
         <v>0</v>
       </c>
       <c r="S436" t="n">
-        <v>64581</v>
+        <v>64855</v>
       </c>
       <c r="T436" t="inlineStr">
         <is>
@@ -41569,7 +41613,7 @@
         </is>
       </c>
       <c r="U436" s="2" t="n">
-        <v>45306</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="437">
@@ -41674,7 +41718,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -41732,7 +41776,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O438" t="inlineStr"/>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P438" t="n">
         <v>0</v>
       </c>
@@ -41743,7 +41791,7 @@
         <v>0</v>
       </c>
       <c r="S438" t="n">
-        <v>133887</v>
+        <v>135909</v>
       </c>
       <c r="T438" t="inlineStr">
         <is>
@@ -41751,7 +41799,7 @@
         </is>
       </c>
       <c r="U438" s="2" t="n">
-        <v>45278</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="439">
@@ -42430,7 +42478,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -42511,7 +42559,7 @@
         </is>
       </c>
       <c r="U446" s="2" t="n">
-        <v>45308</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="447">
@@ -43109,7 +43157,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>2024/01/27</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -43182,7 +43230,7 @@
         <v>0</v>
       </c>
       <c r="S453" t="n">
-        <v>85462</v>
+        <v>86135</v>
       </c>
       <c r="T453" t="inlineStr">
         <is>
@@ -43190,7 +43238,7 @@
         </is>
       </c>
       <c r="U453" s="2" t="n">
-        <v>45318</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="454">
@@ -45332,7 +45380,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
@@ -45389,7 +45437,7 @@
         </is>
       </c>
       <c r="U476" s="2" t="n">
-        <v>45317</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="477">
@@ -45692,7 +45740,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -45765,7 +45813,7 @@
         <v>0</v>
       </c>
       <c r="S480" t="n">
-        <v>7318</v>
+        <v>7427</v>
       </c>
       <c r="T480" t="inlineStr">
         <is>
@@ -45773,7 +45821,7 @@
         </is>
       </c>
       <c r="U480" s="2" t="n">
-        <v>45300</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="481">
@@ -45789,7 +45837,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -45862,7 +45910,7 @@
         <v>0</v>
       </c>
       <c r="S481" t="n">
-        <v>20142</v>
+        <v>20250</v>
       </c>
       <c r="T481" t="inlineStr">
         <is>
@@ -45870,7 +45918,7 @@
         </is>
       </c>
       <c r="U481" s="2" t="n">
-        <v>45302</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="482">
@@ -46371,7 +46419,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -46452,7 +46500,7 @@
         </is>
       </c>
       <c r="U487" s="2" t="n">
-        <v>45301</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="488">
@@ -46561,7 +46609,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -46642,7 +46690,7 @@
         </is>
       </c>
       <c r="U489" s="2" t="n">
-        <v>45315</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="490">
@@ -47046,7 +47094,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -47119,7 +47167,7 @@
         <v>0</v>
       </c>
       <c r="S494" t="n">
-        <v>262175</v>
+        <v>262914</v>
       </c>
       <c r="T494" t="inlineStr">
         <is>
@@ -47127,7 +47175,7 @@
         </is>
       </c>
       <c r="U494" s="2" t="n">
-        <v>45306</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="495">
@@ -51254,7 +51302,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -51335,7 +51383,7 @@
         </is>
       </c>
       <c r="U538" s="2" t="n">
-        <v>45302</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="539">
@@ -51545,7 +51593,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -51618,7 +51666,7 @@
         <v>0</v>
       </c>
       <c r="S541" t="n">
-        <v>2501</v>
+        <v>2553</v>
       </c>
       <c r="T541" t="inlineStr">
         <is>
@@ -51626,7 +51674,7 @@
         </is>
       </c>
       <c r="U541" s="2" t="n">
-        <v>45299</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="542">
@@ -51739,7 +51787,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -51820,7 +51868,7 @@
         </is>
       </c>
       <c r="U543" s="2" t="n">
-        <v>45308</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="544">
@@ -53764,7 +53812,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -53822,7 +53870,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O564" t="inlineStr"/>
+      <c r="O564" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P564" t="n">
         <v>0</v>
       </c>
@@ -53833,7 +53885,7 @@
         <v>0</v>
       </c>
       <c r="S564" t="n">
-        <v>7432</v>
+        <v>7467</v>
       </c>
       <c r="T564" t="inlineStr">
         <is>
@@ -53841,7 +53893,7 @@
         </is>
       </c>
       <c r="U564" s="2" t="n">
-        <v>45275</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="565">
@@ -54916,7 +54968,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -54974,7 +55026,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O576" t="inlineStr"/>
+      <c r="O576" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P576" t="n">
         <v>0</v>
       </c>
@@ -54985,7 +55041,7 @@
         <v>0</v>
       </c>
       <c r="S576" t="n">
-        <v>109142</v>
+        <v>111167</v>
       </c>
       <c r="T576" t="inlineStr">
         <is>
@@ -54993,7 +55049,7 @@
         </is>
       </c>
       <c r="U576" s="2" t="n">
-        <v>45280</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="577">
@@ -55300,7 +55356,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -55381,7 +55437,7 @@
         </is>
       </c>
       <c r="U580" s="2" t="n">
-        <v>45303</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="581">
@@ -55446,7 +55502,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -55504,7 +55560,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O582" t="inlineStr"/>
+      <c r="O582" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P582" t="n">
         <v>0</v>
       </c>
@@ -55515,7 +55575,7 @@
         <v>0</v>
       </c>
       <c r="S582" t="n">
-        <v>97889</v>
+        <v>99680</v>
       </c>
       <c r="T582" t="inlineStr">
         <is>
@@ -55523,7 +55583,7 @@
         </is>
       </c>
       <c r="U582" s="2" t="n">
-        <v>45273</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="583">
@@ -55733,7 +55793,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -55791,7 +55851,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O585" t="inlineStr"/>
+      <c r="O585" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P585" t="n">
         <v>0</v>
       </c>
@@ -55802,7 +55866,7 @@
         <v>0</v>
       </c>
       <c r="S585" t="n">
-        <v>8127</v>
+        <v>8286</v>
       </c>
       <c r="T585" t="inlineStr">
         <is>
@@ -55810,7 +55874,7 @@
         </is>
       </c>
       <c r="U585" s="2" t="n">
-        <v>45306</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="586">
@@ -56695,7 +56759,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -56768,7 +56832,7 @@
         <v>0</v>
       </c>
       <c r="S595" t="n">
-        <v>14618</v>
+        <v>14678</v>
       </c>
       <c r="T595" t="inlineStr">
         <is>
@@ -56776,7 +56840,7 @@
         </is>
       </c>
       <c r="U595" s="2" t="n">
-        <v>45303</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="596">
@@ -60778,7 +60842,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -60851,7 +60915,7 @@
         <v>0</v>
       </c>
       <c r="S638" t="n">
-        <v>1018</v>
+        <v>1038</v>
       </c>
       <c r="T638" t="inlineStr">
         <is>
@@ -60859,7 +60923,7 @@
         </is>
       </c>
       <c r="U638" s="2" t="n">
-        <v>45315</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="639">
@@ -61825,7 +61889,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -61906,7 +61970,7 @@
         </is>
       </c>
       <c r="U649" s="2" t="n">
-        <v>45315</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="650">
@@ -61922,7 +61986,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
@@ -61964,7 +62028,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O650" t="inlineStr"/>
+      <c r="O650" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P650" t="n">
         <v>0</v>
       </c>
@@ -61975,7 +62043,7 @@
         <v>0</v>
       </c>
       <c r="S650" t="n">
-        <v>4939</v>
+        <v>5654</v>
       </c>
       <c r="T650" t="inlineStr">
         <is>
@@ -61983,7 +62051,7 @@
         </is>
       </c>
       <c r="U650" s="2" t="n">
-        <v>45273</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="651">
@@ -61999,7 +62067,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
@@ -62052,7 +62120,7 @@
         <v>0</v>
       </c>
       <c r="S651" t="n">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="T651" t="inlineStr">
         <is>
@@ -62060,7 +62128,7 @@
         </is>
       </c>
       <c r="U651" s="2" t="n">
-        <v>45293</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="652">
@@ -65788,7 +65856,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D716" t="inlineStr"/>
@@ -65817,7 +65885,7 @@
         <v>0</v>
       </c>
       <c r="S716" t="n">
-        <v>500</v>
+        <v>639</v>
       </c>
       <c r="T716" t="inlineStr">
         <is>
@@ -65825,7 +65893,7 @@
         </is>
       </c>
       <c r="U716" s="2" t="n">
-        <v>45308</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="717">
@@ -65841,7 +65909,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D717" t="inlineStr"/>
@@ -65854,11 +65922,7 @@
       <c r="K717" t="inlineStr"/>
       <c r="L717" t="inlineStr"/>
       <c r="M717" t="inlineStr"/>
-      <c r="N717" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N717" t="inlineStr"/>
       <c r="O717" t="inlineStr">
         <is>
           <t>x</t>
@@ -65874,7 +65938,7 @@
         <v>0</v>
       </c>
       <c r="S717" t="n">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T717" t="inlineStr">
         <is>
@@ -65882,7 +65946,7 @@
         </is>
       </c>
       <c r="U717" s="2" t="n">
-        <v>45303</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="718">

--- a/consolidado3.xlsx
+++ b/consolidado3.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U722"/>
+  <dimension ref="A1:U723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1838,7 +1838,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>30590</v>
+        <v>31029</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -1857,7 +1861,7 @@
         </is>
       </c>
       <c r="U20" s="2" t="n">
-        <v>45280</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="21">
@@ -1970,7 +1974,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2043,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>46720</v>
+        <v>47035</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2051,7 +2055,7 @@
         </is>
       </c>
       <c r="U22" s="2" t="n">
-        <v>45334</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="23">
@@ -2645,7 +2649,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2718,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>59709</v>
+        <v>60470</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2726,7 +2730,7 @@
         </is>
       </c>
       <c r="U29" s="2" t="n">
-        <v>45313</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="30">
@@ -4315,7 +4319,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4388,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>4430</v>
+        <v>4462</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4396,7 +4400,7 @@
         </is>
       </c>
       <c r="U47" s="2" t="n">
-        <v>45334</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="48">
@@ -4703,7 +4707,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4780,7 +4784,7 @@
         </is>
       </c>
       <c r="U51" s="2" t="n">
-        <v>45295</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="52">
@@ -5273,7 +5277,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/02/17</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5346,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5354,7 +5358,7 @@
         </is>
       </c>
       <c r="U57" s="2" t="n">
-        <v>45327</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="58">
@@ -5948,7 +5952,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -6021,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>8897</v>
+        <v>9033</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -6029,7 +6033,7 @@
         </is>
       </c>
       <c r="U64" s="2" t="n">
-        <v>45308</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="65">
@@ -6045,7 +6049,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6118,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>28692</v>
+        <v>29127</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -6126,7 +6130,7 @@
         </is>
       </c>
       <c r="U65" s="2" t="n">
-        <v>45313</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="66">
@@ -6530,7 +6534,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -6603,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>4102</v>
+        <v>4129</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -6611,7 +6615,7 @@
         </is>
       </c>
       <c r="U70" s="2" t="n">
-        <v>45327</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="71">
@@ -8272,7 +8276,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -8345,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>157566</v>
+        <v>160228</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -8353,7 +8357,7 @@
         </is>
       </c>
       <c r="U88" s="2" t="n">
-        <v>45307</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="89">
@@ -8757,7 +8761,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2024/01/21</t>
+          <t>2024/02/17</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -8830,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>8060</v>
+        <v>8097</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -8838,7 +8842,7 @@
         </is>
       </c>
       <c r="U93" s="2" t="n">
-        <v>45312</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="94">
@@ -9331,7 +9335,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -9404,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>14364</v>
+        <v>14430</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -9412,7 +9416,7 @@
         </is>
       </c>
       <c r="U99" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="100">
@@ -10293,7 +10297,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -10366,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>107842</v>
+        <v>108657</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -10374,7 +10378,7 @@
         </is>
       </c>
       <c r="U109" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="110">
@@ -10936,7 +10940,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -11009,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>9615</v>
+        <v>9788</v>
       </c>
       <c r="T116" t="inlineStr">
         <is>
@@ -11017,7 +11021,7 @@
         </is>
       </c>
       <c r="U116" s="2" t="n">
-        <v>45308</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="117">
@@ -11902,7 +11906,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -11975,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>173976</v>
+        <v>174314</v>
       </c>
       <c r="T126" t="inlineStr">
         <is>
@@ -11983,7 +11987,7 @@
         </is>
       </c>
       <c r="U126" s="2" t="n">
-        <v>45336</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="127">
@@ -16183,7 +16187,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -16264,7 +16268,7 @@
         </is>
       </c>
       <c r="U171" s="2" t="n">
-        <v>45336</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="172">
@@ -18216,7 +18220,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/17</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -18289,7 +18293,7 @@
         <v>0</v>
       </c>
       <c r="S192" t="n">
-        <v>15374</v>
+        <v>15600</v>
       </c>
       <c r="T192" t="inlineStr">
         <is>
@@ -18297,7 +18301,7 @@
         </is>
       </c>
       <c r="U192" s="2" t="n">
-        <v>45306</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="193">
@@ -18313,7 +18317,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -18371,7 +18375,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O193" t="inlineStr"/>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P193" t="n">
         <v>0</v>
       </c>
@@ -18382,7 +18390,7 @@
         <v>0</v>
       </c>
       <c r="S193" t="n">
-        <v>16302</v>
+        <v>16380</v>
       </c>
       <c r="T193" t="inlineStr">
         <is>
@@ -18390,7 +18398,7 @@
         </is>
       </c>
       <c r="U193" s="2" t="n">
-        <v>45336</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="194">
@@ -20431,7 +20439,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -20504,7 +20512,7 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>51757</v>
+        <v>52619</v>
       </c>
       <c r="T215" t="inlineStr">
         <is>
@@ -20512,7 +20520,7 @@
         </is>
       </c>
       <c r="U215" s="2" t="n">
-        <v>45306</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="216">
@@ -22465,7 +22473,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -22534,7 +22542,7 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>80825</v>
+        <v>82291</v>
       </c>
       <c r="T237" t="inlineStr">
         <is>
@@ -22542,7 +22550,7 @@
         </is>
       </c>
       <c r="U237" s="2" t="n">
-        <v>45306</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="238">
@@ -25355,7 +25363,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -25428,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="S267" t="n">
-        <v>8424</v>
+        <v>8527</v>
       </c>
       <c r="T267" t="inlineStr">
         <is>
@@ -25436,7 +25444,7 @@
         </is>
       </c>
       <c r="U267" s="2" t="n">
-        <v>45306</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="268">
@@ -25832,7 +25840,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -25905,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S272" t="n">
-        <v>157711</v>
+        <v>159031</v>
       </c>
       <c r="T272" t="inlineStr">
         <is>
@@ -25913,7 +25921,7 @@
         </is>
       </c>
       <c r="U272" s="2" t="n">
-        <v>45302</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="273">
@@ -27093,7 +27101,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -27174,7 +27182,7 @@
         </is>
       </c>
       <c r="U285" s="2" t="n">
-        <v>45329</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="286">
@@ -28160,7 +28168,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -28233,7 +28241,7 @@
         <v>0</v>
       </c>
       <c r="S296" t="n">
-        <v>14787</v>
+        <v>15026</v>
       </c>
       <c r="T296" t="inlineStr">
         <is>
@@ -28241,7 +28249,7 @@
         </is>
       </c>
       <c r="U296" s="2" t="n">
-        <v>45306</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="297">
@@ -28524,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="S299" t="n">
-        <v>11676</v>
+        <v>11729</v>
       </c>
       <c r="T299" t="inlineStr">
         <is>
@@ -29409,7 +29417,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -29482,7 +29490,7 @@
         <v>0</v>
       </c>
       <c r="S309" t="n">
-        <v>38330</v>
+        <v>38614</v>
       </c>
       <c r="T309" t="inlineStr">
         <is>
@@ -29490,7 +29498,7 @@
         </is>
       </c>
       <c r="U309" s="2" t="n">
-        <v>45330</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="310">
@@ -29797,7 +29805,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -29841,7 +29849,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N313" t="inlineStr">
         <is>
           <t>x</t>
@@ -29862,7 +29874,7 @@
         <v>0</v>
       </c>
       <c r="S313" t="n">
-        <v>68530</v>
+        <v>70626</v>
       </c>
       <c r="T313" t="inlineStr">
         <is>
@@ -29870,7 +29882,7 @@
         </is>
       </c>
       <c r="U313" s="2" t="n">
-        <v>45308</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="314">
@@ -30080,7 +30092,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/02/17</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -30153,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="S316" t="n">
-        <v>32356</v>
+        <v>32689</v>
       </c>
       <c r="T316" t="inlineStr">
         <is>
@@ -30161,7 +30173,7 @@
         </is>
       </c>
       <c r="U316" s="2" t="n">
-        <v>45309</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="317">
@@ -30177,7 +30189,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D317" t="inlineStr"/>
@@ -30210,7 +30222,7 @@
         </is>
       </c>
       <c r="U317" s="2" t="n">
-        <v>45307</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="318">
@@ -30517,7 +30529,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -30590,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="S321" t="n">
-        <v>98565</v>
+        <v>100391</v>
       </c>
       <c r="T321" t="inlineStr">
         <is>
@@ -30598,7 +30610,7 @@
         </is>
       </c>
       <c r="U321" s="2" t="n">
-        <v>45306</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="322">
@@ -32841,7 +32853,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -32922,7 +32934,7 @@
         </is>
       </c>
       <c r="U345" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="346">
@@ -34393,7 +34405,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -34466,7 +34478,7 @@
         <v>0</v>
       </c>
       <c r="S361" t="n">
-        <v>8314</v>
+        <v>8354</v>
       </c>
       <c r="T361" t="inlineStr">
         <is>
@@ -34474,7 +34486,7 @@
         </is>
       </c>
       <c r="U361" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="362">
@@ -34781,7 +34793,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -34854,7 +34866,7 @@
         <v>0</v>
       </c>
       <c r="S365" t="n">
-        <v>28107</v>
+        <v>28378</v>
       </c>
       <c r="T365" t="inlineStr">
         <is>
@@ -34862,7 +34874,7 @@
         </is>
       </c>
       <c r="U365" s="2" t="n">
-        <v>45303</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="366">
@@ -35650,7 +35662,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -35723,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="S374" t="n">
-        <v>15368</v>
+        <v>15409</v>
       </c>
       <c r="T374" t="inlineStr">
         <is>
@@ -35731,7 +35743,7 @@
         </is>
       </c>
       <c r="U374" s="2" t="n">
-        <v>45335</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="375">
@@ -36329,7 +36341,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -36402,7 +36414,7 @@
         <v>0</v>
       </c>
       <c r="S381" t="n">
-        <v>24517</v>
+        <v>24665</v>
       </c>
       <c r="T381" t="inlineStr">
         <is>
@@ -36410,7 +36422,7 @@
         </is>
       </c>
       <c r="U381" s="2" t="n">
-        <v>45329</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="382">
@@ -36911,7 +36923,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -36984,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="S387" t="n">
-        <v>276416</v>
+        <v>280183</v>
       </c>
       <c r="T387" t="inlineStr">
         <is>
@@ -36992,7 +37004,7 @@
         </is>
       </c>
       <c r="U387" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="388">
@@ -37978,7 +37990,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/17</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -38051,7 +38063,7 @@
         <v>0</v>
       </c>
       <c r="S398" t="n">
-        <v>140634</v>
+        <v>143098</v>
       </c>
       <c r="T398" t="inlineStr">
         <is>
@@ -38059,7 +38071,7 @@
         </is>
       </c>
       <c r="U398" s="2" t="n">
-        <v>45334</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="399">
@@ -39336,7 +39348,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -39409,7 +39421,7 @@
         <v>0</v>
       </c>
       <c r="S412" t="n">
-        <v>29115</v>
+        <v>29418</v>
       </c>
       <c r="T412" t="inlineStr">
         <is>
@@ -39417,7 +39429,7 @@
         </is>
       </c>
       <c r="U412" s="2" t="n">
-        <v>45306</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="413">
@@ -39526,7 +39538,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -39599,7 +39611,7 @@
         <v>0</v>
       </c>
       <c r="S414" t="n">
-        <v>10835</v>
+        <v>10952</v>
       </c>
       <c r="T414" t="inlineStr">
         <is>
@@ -39607,7 +39619,7 @@
         </is>
       </c>
       <c r="U414" s="2" t="n">
-        <v>45336</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="415">
@@ -40007,7 +40019,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -40080,7 +40092,7 @@
         <v>0</v>
       </c>
       <c r="S419" t="n">
-        <v>9763</v>
+        <v>9803</v>
       </c>
       <c r="T419" t="inlineStr">
         <is>
@@ -40088,7 +40100,7 @@
         </is>
       </c>
       <c r="U419" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="420">
@@ -41499,7 +41511,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>2024/01/31</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -41572,7 +41584,7 @@
         <v>0</v>
       </c>
       <c r="S435" t="n">
-        <v>294125</v>
+        <v>297361</v>
       </c>
       <c r="T435" t="inlineStr">
         <is>
@@ -41580,7 +41592,7 @@
         </is>
       </c>
       <c r="U435" s="2" t="n">
-        <v>45322</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="436">
@@ -41782,7 +41794,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>2024/01/30</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -41855,7 +41867,7 @@
         <v>0</v>
       </c>
       <c r="S438" t="n">
-        <v>135909</v>
+        <v>138030</v>
       </c>
       <c r="T438" t="inlineStr">
         <is>
@@ -41863,7 +41875,7 @@
         </is>
       </c>
       <c r="U438" s="2" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="439">
@@ -41879,10 +41891,14 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
-        </is>
-      </c>
-      <c r="D439" t="inlineStr"/>
+          <t>2024/02/15</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E439" t="inlineStr">
         <is>
           <t>x</t>
@@ -41948,7 +41964,7 @@
         <v>0</v>
       </c>
       <c r="S439" t="n">
-        <v>14061</v>
+        <v>14034</v>
       </c>
       <c r="T439" t="inlineStr">
         <is>
@@ -41956,7 +41972,7 @@
         </is>
       </c>
       <c r="U439" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="440">
@@ -42926,7 +42942,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -42999,7 +43015,7 @@
         <v>0</v>
       </c>
       <c r="S450" t="n">
-        <v>45248</v>
+        <v>45588</v>
       </c>
       <c r="T450" t="inlineStr">
         <is>
@@ -43007,7 +43023,7 @@
         </is>
       </c>
       <c r="U450" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="451">
@@ -43120,7 +43136,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -43193,7 +43209,7 @@
         <v>0</v>
       </c>
       <c r="S452" t="n">
-        <v>8247</v>
+        <v>8481</v>
       </c>
       <c r="T452" t="inlineStr">
         <is>
@@ -43201,7 +43217,7 @@
         </is>
       </c>
       <c r="U452" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="453">
@@ -43314,7 +43330,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -43383,7 +43399,7 @@
         <v>0</v>
       </c>
       <c r="S454" t="n">
-        <v>46044</v>
+        <v>47036</v>
       </c>
       <c r="T454" t="inlineStr">
         <is>
@@ -43391,7 +43407,7 @@
         </is>
       </c>
       <c r="U454" s="2" t="n">
-        <v>45306</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="455">
@@ -43504,7 +43520,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -43581,7 +43597,7 @@
         </is>
       </c>
       <c r="U456" s="2" t="n">
-        <v>45317</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="457">
@@ -43985,7 +44001,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -44058,7 +44074,7 @@
         <v>0</v>
       </c>
       <c r="S461" t="n">
-        <v>7569</v>
+        <v>7592</v>
       </c>
       <c r="T461" t="inlineStr">
         <is>
@@ -44066,7 +44082,7 @@
         </is>
       </c>
       <c r="U461" s="2" t="n">
-        <v>45317</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="462">
@@ -44664,7 +44680,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -44745,7 +44761,7 @@
         </is>
       </c>
       <c r="U468" s="2" t="n">
-        <v>45335</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="469">
@@ -44955,7 +44971,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -45028,7 +45044,7 @@
         <v>0</v>
       </c>
       <c r="S471" t="n">
-        <v>5652</v>
+        <v>5671</v>
       </c>
       <c r="T471" t="inlineStr">
         <is>
@@ -45036,7 +45052,7 @@
         </is>
       </c>
       <c r="U471" s="2" t="n">
-        <v>45335</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="472">
@@ -45440,7 +45456,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
@@ -45497,7 +45513,7 @@
         </is>
       </c>
       <c r="U476" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="477">
@@ -45897,7 +45913,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -45970,7 +45986,7 @@
         <v>0</v>
       </c>
       <c r="S481" t="n">
-        <v>20307</v>
+        <v>20337</v>
       </c>
       <c r="T481" t="inlineStr">
         <is>
@@ -45978,7 +45994,7 @@
         </is>
       </c>
       <c r="U481" s="2" t="n">
-        <v>45330</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="482">
@@ -46863,7 +46879,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -46936,7 +46952,7 @@
         <v>0</v>
       </c>
       <c r="S491" t="n">
-        <v>16095</v>
+        <v>16245</v>
       </c>
       <c r="T491" t="inlineStr">
         <is>
@@ -46944,7 +46960,7 @@
         </is>
       </c>
       <c r="U491" s="2" t="n">
-        <v>45306</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="492">
@@ -47154,7 +47170,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -47227,7 +47243,7 @@
         <v>0</v>
       </c>
       <c r="S494" t="n">
-        <v>263645</v>
+        <v>265163</v>
       </c>
       <c r="T494" t="inlineStr">
         <is>
@@ -47235,7 +47251,7 @@
         </is>
       </c>
       <c r="U494" s="2" t="n">
-        <v>45334</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="495">
@@ -47445,7 +47461,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -47518,7 +47534,7 @@
         <v>0</v>
       </c>
       <c r="S497" t="n">
-        <v>28641</v>
+        <v>28728</v>
       </c>
       <c r="T497" t="inlineStr">
         <is>
@@ -47526,7 +47542,7 @@
         </is>
       </c>
       <c r="U497" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="498">
@@ -48027,7 +48043,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -48100,7 +48116,7 @@
         <v>0</v>
       </c>
       <c r="S503" t="n">
-        <v>13687</v>
+        <v>13860</v>
       </c>
       <c r="T503" t="inlineStr">
         <is>
@@ -48108,7 +48124,7 @@
         </is>
       </c>
       <c r="U503" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="504">
@@ -48124,7 +48140,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -48197,7 +48213,7 @@
         <v>0</v>
       </c>
       <c r="S504" t="n">
-        <v>26025</v>
+        <v>26062</v>
       </c>
       <c r="T504" t="inlineStr">
         <is>
@@ -48205,7 +48221,7 @@
         </is>
       </c>
       <c r="U504" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="505">
@@ -48706,7 +48722,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/17</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -48779,7 +48795,7 @@
         <v>0</v>
       </c>
       <c r="S510" t="n">
-        <v>7063</v>
+        <v>7090</v>
       </c>
       <c r="T510" t="inlineStr">
         <is>
@@ -48787,7 +48803,7 @@
         </is>
       </c>
       <c r="U510" s="2" t="n">
-        <v>45306</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="511">
@@ -49870,7 +49886,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -49943,7 +49959,7 @@
         <v>0</v>
       </c>
       <c r="S522" t="n">
-        <v>69089</v>
+        <v>69485</v>
       </c>
       <c r="T522" t="inlineStr">
         <is>
@@ -49951,7 +49967,7 @@
         </is>
       </c>
       <c r="U522" s="2" t="n">
-        <v>45335</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="523">
@@ -50545,7 +50561,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -50618,7 +50634,7 @@
         <v>0</v>
       </c>
       <c r="S529" t="n">
-        <v>56004</v>
+        <v>57430</v>
       </c>
       <c r="T529" t="inlineStr">
         <is>
@@ -50626,7 +50642,7 @@
         </is>
       </c>
       <c r="U529" s="2" t="n">
-        <v>45302</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="530">
@@ -51176,7 +51192,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -51249,7 +51265,7 @@
         <v>0</v>
       </c>
       <c r="S536" t="n">
-        <v>28839</v>
+        <v>28987</v>
       </c>
       <c r="T536" t="inlineStr">
         <is>
@@ -51257,7 +51273,7 @@
         </is>
       </c>
       <c r="U536" s="2" t="n">
-        <v>45334</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="537">
@@ -51564,7 +51580,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -51637,7 +51653,7 @@
         <v>0</v>
       </c>
       <c r="S540" t="n">
-        <v>101832</v>
+        <v>104458</v>
       </c>
       <c r="T540" t="inlineStr">
         <is>
@@ -51645,7 +51661,7 @@
         </is>
       </c>
       <c r="U540" s="2" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="541">
@@ -52049,7 +52065,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -52130,7 +52146,7 @@
         </is>
       </c>
       <c r="U545" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="546">
@@ -52627,7 +52643,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -52700,7 +52716,7 @@
         <v>0</v>
       </c>
       <c r="S551" t="n">
-        <v>22035</v>
+        <v>22101</v>
       </c>
       <c r="T551" t="inlineStr">
         <is>
@@ -52708,7 +52724,7 @@
         </is>
       </c>
       <c r="U551" s="2" t="n">
-        <v>45335</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="552">
@@ -52821,7 +52837,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -52894,7 +52910,7 @@
         <v>0</v>
       </c>
       <c r="S553" t="n">
-        <v>51057</v>
+        <v>51986</v>
       </c>
       <c r="T553" t="inlineStr">
         <is>
@@ -52902,7 +52918,7 @@
         </is>
       </c>
       <c r="U553" s="2" t="n">
-        <v>45302</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="554">
@@ -53589,7 +53605,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -53662,7 +53678,7 @@
         <v>0</v>
       </c>
       <c r="S561" t="n">
-        <v>2404</v>
+        <v>2443</v>
       </c>
       <c r="T561" t="inlineStr">
         <is>
@@ -53670,7 +53686,7 @@
         </is>
       </c>
       <c r="U561" s="2" t="n">
-        <v>45307</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="562">
@@ -54167,7 +54183,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -54240,7 +54256,7 @@
         <v>0</v>
       </c>
       <c r="S567" t="n">
-        <v>19182</v>
+        <v>19291</v>
       </c>
       <c r="T567" t="inlineStr">
         <is>
@@ -54248,7 +54264,7 @@
         </is>
       </c>
       <c r="U567" s="2" t="n">
-        <v>45336</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="568">
@@ -54842,7 +54858,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -54915,7 +54931,7 @@
         <v>0</v>
       </c>
       <c r="S574" t="n">
-        <v>311363</v>
+        <v>328211</v>
       </c>
       <c r="T574" t="inlineStr">
         <is>
@@ -54923,7 +54939,7 @@
         </is>
       </c>
       <c r="U574" s="2" t="n">
-        <v>45302</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="575">
@@ -56055,7 +56071,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -56132,7 +56148,7 @@
         </is>
       </c>
       <c r="U587" s="2" t="n">
-        <v>45288</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="588">
@@ -56730,7 +56746,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -56811,7 +56827,7 @@
         </is>
       </c>
       <c r="U594" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="595">
@@ -57118,7 +57134,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -57191,7 +57207,7 @@
         <v>0</v>
       </c>
       <c r="S598" t="n">
-        <v>8636</v>
+        <v>8770</v>
       </c>
       <c r="T598" t="inlineStr">
         <is>
@@ -57199,7 +57215,7 @@
         </is>
       </c>
       <c r="U598" s="2" t="n">
-        <v>45303</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="599">
@@ -57506,7 +57522,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -57579,7 +57595,7 @@
         <v>0</v>
       </c>
       <c r="S602" t="n">
-        <v>21995</v>
+        <v>22685</v>
       </c>
       <c r="T602" t="inlineStr">
         <is>
@@ -57587,7 +57603,7 @@
         </is>
       </c>
       <c r="U602" s="2" t="n">
-        <v>45300</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="603">
@@ -57894,7 +57910,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -57967,7 +57983,7 @@
         <v>0</v>
       </c>
       <c r="S606" t="n">
-        <v>8118</v>
+        <v>8419</v>
       </c>
       <c r="T606" t="inlineStr">
         <is>
@@ -57975,7 +57991,7 @@
         </is>
       </c>
       <c r="U606" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="607">
@@ -58185,7 +58201,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -58258,7 +58274,7 @@
         <v>0</v>
       </c>
       <c r="S609" t="n">
-        <v>3463</v>
+        <v>3613</v>
       </c>
       <c r="T609" t="inlineStr">
         <is>
@@ -58266,7 +58282,7 @@
         </is>
       </c>
       <c r="U609" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="610">
@@ -58379,7 +58395,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -58460,7 +58476,7 @@
         </is>
       </c>
       <c r="U611" s="2" t="n">
-        <v>45328</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="612">
@@ -60008,7 +60024,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -60081,7 +60097,7 @@
         <v>0</v>
       </c>
       <c r="S628" t="n">
-        <v>1089</v>
+        <v>1132</v>
       </c>
       <c r="T628" t="inlineStr">
         <is>
@@ -60089,7 +60105,7 @@
         </is>
       </c>
       <c r="U628" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="629">
@@ -60348,7 +60364,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -60421,7 +60437,7 @@
         <v>0</v>
       </c>
       <c r="S632" t="n">
-        <v>13597</v>
+        <v>14271</v>
       </c>
       <c r="T632" t="inlineStr">
         <is>
@@ -60429,7 +60445,7 @@
         </is>
       </c>
       <c r="U632" s="2" t="n">
-        <v>45306</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="633">
@@ -60724,7 +60740,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -60797,7 +60813,7 @@
         <v>0</v>
       </c>
       <c r="S636" t="n">
-        <v>2380</v>
+        <v>2416</v>
       </c>
       <c r="T636" t="inlineStr">
         <is>
@@ -60805,7 +60821,7 @@
         </is>
       </c>
       <c r="U636" s="2" t="n">
-        <v>45329</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="637">
@@ -60821,7 +60837,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
@@ -60894,7 +60910,7 @@
         <v>0</v>
       </c>
       <c r="S637" t="n">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="T637" t="inlineStr">
         <is>
@@ -60902,7 +60918,7 @@
         </is>
       </c>
       <c r="U637" s="2" t="n">
-        <v>45310</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="638">
@@ -60918,7 +60934,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -60991,7 +61007,7 @@
         <v>0</v>
       </c>
       <c r="S638" t="n">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="T638" t="inlineStr">
         <is>
@@ -60999,7 +61015,7 @@
         </is>
       </c>
       <c r="U638" s="2" t="n">
-        <v>45334</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="639">
@@ -61302,7 +61318,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -61375,7 +61391,7 @@
         <v>0</v>
       </c>
       <c r="S642" t="n">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="T642" t="inlineStr">
         <is>
@@ -61383,7 +61399,7 @@
         </is>
       </c>
       <c r="U642" s="2" t="n">
-        <v>45299</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="643">
@@ -62342,7 +62358,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/17</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -62423,7 +62439,7 @@
         </is>
       </c>
       <c r="U654" s="2" t="n">
-        <v>45335</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="655">
@@ -62439,7 +62455,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
@@ -62492,7 +62508,7 @@
         <v>0</v>
       </c>
       <c r="S655" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="T655" t="inlineStr">
         <is>
@@ -62500,7 +62516,7 @@
         </is>
       </c>
       <c r="U655" s="2" t="n">
-        <v>45313</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="656">
@@ -62516,7 +62532,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
@@ -62549,7 +62565,7 @@
         <v>0</v>
       </c>
       <c r="S656" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="T656" t="inlineStr">
         <is>
@@ -62557,7 +62573,7 @@
         </is>
       </c>
       <c r="U656" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="657">
@@ -62573,7 +62589,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
@@ -62606,7 +62622,7 @@
         <v>0</v>
       </c>
       <c r="S657" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="T657" t="inlineStr">
         <is>
@@ -62614,7 +62630,7 @@
         </is>
       </c>
       <c r="U657" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="658">
@@ -62630,7 +62646,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D658" t="inlineStr"/>
@@ -62663,7 +62679,7 @@
         <v>0</v>
       </c>
       <c r="S658" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="T658" t="inlineStr">
         <is>
@@ -62671,7 +62687,7 @@
         </is>
       </c>
       <c r="U658" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="659">
@@ -62687,7 +62703,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D659" t="inlineStr"/>
@@ -62720,7 +62736,7 @@
         <v>0</v>
       </c>
       <c r="S659" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="T659" t="inlineStr">
         <is>
@@ -62728,7 +62744,7 @@
         </is>
       </c>
       <c r="U659" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="660">
@@ -62744,7 +62760,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D660" t="inlineStr"/>
@@ -62777,7 +62793,7 @@
         <v>0</v>
       </c>
       <c r="S660" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="T660" t="inlineStr">
         <is>
@@ -62785,7 +62801,7 @@
         </is>
       </c>
       <c r="U660" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="661">
@@ -62801,7 +62817,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D661" t="inlineStr"/>
@@ -62834,7 +62850,7 @@
         <v>0</v>
       </c>
       <c r="S661" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="T661" t="inlineStr">
         <is>
@@ -62842,7 +62858,7 @@
         </is>
       </c>
       <c r="U661" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="662">
@@ -62858,7 +62874,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
@@ -62891,7 +62907,7 @@
         <v>0</v>
       </c>
       <c r="S662" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="T662" t="inlineStr">
         <is>
@@ -62899,7 +62915,7 @@
         </is>
       </c>
       <c r="U662" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="663">
@@ -62915,7 +62931,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
@@ -62948,7 +62964,7 @@
         <v>0</v>
       </c>
       <c r="S663" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="T663" t="inlineStr">
         <is>
@@ -62956,7 +62972,7 @@
         </is>
       </c>
       <c r="U663" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="664">
@@ -62972,7 +62988,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
@@ -63005,7 +63021,7 @@
         <v>0</v>
       </c>
       <c r="S664" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T664" t="inlineStr">
         <is>
@@ -63013,7 +63029,7 @@
         </is>
       </c>
       <c r="U664" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="665">
@@ -63029,7 +63045,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D665" t="inlineStr"/>
@@ -63062,7 +63078,7 @@
         <v>0</v>
       </c>
       <c r="S665" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="T665" t="inlineStr">
         <is>
@@ -63070,7 +63086,7 @@
         </is>
       </c>
       <c r="U665" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="666">
@@ -63086,7 +63102,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
@@ -63119,7 +63135,7 @@
         <v>0</v>
       </c>
       <c r="S666" t="n">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="T666" t="inlineStr">
         <is>
@@ -63127,7 +63143,7 @@
         </is>
       </c>
       <c r="U666" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="667">
@@ -63143,7 +63159,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
@@ -63176,7 +63192,7 @@
         <v>0</v>
       </c>
       <c r="S667" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="T667" t="inlineStr">
         <is>
@@ -63184,7 +63200,7 @@
         </is>
       </c>
       <c r="U667" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="668">
@@ -63200,7 +63216,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
@@ -63233,7 +63249,7 @@
         <v>0</v>
       </c>
       <c r="S668" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="T668" t="inlineStr">
         <is>
@@ -63241,7 +63257,7 @@
         </is>
       </c>
       <c r="U668" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="669">
@@ -63257,7 +63273,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
@@ -63290,7 +63306,7 @@
         <v>0</v>
       </c>
       <c r="S669" t="n">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="T669" t="inlineStr">
         <is>
@@ -63298,7 +63314,7 @@
         </is>
       </c>
       <c r="U669" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="670">
@@ -63314,7 +63330,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
@@ -63347,7 +63363,7 @@
         <v>0</v>
       </c>
       <c r="S670" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="T670" t="inlineStr">
         <is>
@@ -63355,7 +63371,7 @@
         </is>
       </c>
       <c r="U670" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="671">
@@ -63371,7 +63387,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
@@ -63404,7 +63420,7 @@
         <v>0</v>
       </c>
       <c r="S671" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="T671" t="inlineStr">
         <is>
@@ -63412,7 +63428,7 @@
         </is>
       </c>
       <c r="U671" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="672">
@@ -63428,7 +63444,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
@@ -63461,7 +63477,7 @@
         <v>0</v>
       </c>
       <c r="S672" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="T672" t="inlineStr">
         <is>
@@ -63469,7 +63485,7 @@
         </is>
       </c>
       <c r="U672" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="673">
@@ -63485,7 +63501,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D673" t="inlineStr"/>
@@ -63518,7 +63534,7 @@
         <v>0</v>
       </c>
       <c r="S673" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="T673" t="inlineStr">
         <is>
@@ -63526,7 +63542,7 @@
         </is>
       </c>
       <c r="U673" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="674">
@@ -63542,7 +63558,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D674" t="inlineStr"/>
@@ -63575,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="S674" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="T674" t="inlineStr">
         <is>
@@ -63583,7 +63599,7 @@
         </is>
       </c>
       <c r="U674" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="675">
@@ -63599,7 +63615,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
@@ -63632,7 +63648,7 @@
         <v>0</v>
       </c>
       <c r="S675" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="T675" t="inlineStr">
         <is>
@@ -63640,7 +63656,7 @@
         </is>
       </c>
       <c r="U675" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="676">
@@ -63656,7 +63672,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D676" t="inlineStr"/>
@@ -63689,7 +63705,7 @@
         <v>0</v>
       </c>
       <c r="S676" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T676" t="inlineStr">
         <is>
@@ -63697,7 +63713,7 @@
         </is>
       </c>
       <c r="U676" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="677">
@@ -63713,7 +63729,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
@@ -63746,7 +63762,7 @@
         <v>0</v>
       </c>
       <c r="S677" t="n">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="T677" t="inlineStr">
         <is>
@@ -63754,7 +63770,7 @@
         </is>
       </c>
       <c r="U677" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="678">
@@ -63770,7 +63786,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D678" t="inlineStr"/>
@@ -63803,7 +63819,7 @@
         <v>0</v>
       </c>
       <c r="S678" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="T678" t="inlineStr">
         <is>
@@ -63811,7 +63827,7 @@
         </is>
       </c>
       <c r="U678" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="679">
@@ -63827,7 +63843,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D679" t="inlineStr"/>
@@ -63860,7 +63876,7 @@
         <v>0</v>
       </c>
       <c r="S679" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="T679" t="inlineStr">
         <is>
@@ -63868,7 +63884,7 @@
         </is>
       </c>
       <c r="U679" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="680">
@@ -63884,7 +63900,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
@@ -63917,7 +63933,7 @@
         <v>0</v>
       </c>
       <c r="S680" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="T680" t="inlineStr">
         <is>
@@ -63925,7 +63941,7 @@
         </is>
       </c>
       <c r="U680" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="681">
@@ -63941,7 +63957,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D681" t="inlineStr"/>
@@ -63974,7 +63990,7 @@
         <v>0</v>
       </c>
       <c r="S681" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="T681" t="inlineStr">
         <is>
@@ -63982,7 +63998,7 @@
         </is>
       </c>
       <c r="U681" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="682">
@@ -63998,7 +64014,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D682" t="inlineStr"/>
@@ -64031,7 +64047,7 @@
         <v>0</v>
       </c>
       <c r="S682" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="T682" t="inlineStr">
         <is>
@@ -64039,7 +64055,7 @@
         </is>
       </c>
       <c r="U682" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="683">
@@ -64055,7 +64071,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
@@ -64088,7 +64104,7 @@
         <v>0</v>
       </c>
       <c r="S683" t="n">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="T683" t="inlineStr">
         <is>
@@ -64096,7 +64112,7 @@
         </is>
       </c>
       <c r="U683" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="684">
@@ -64112,7 +64128,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
@@ -64145,7 +64161,7 @@
         <v>0</v>
       </c>
       <c r="S684" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="T684" t="inlineStr">
         <is>
@@ -64153,7 +64169,7 @@
         </is>
       </c>
       <c r="U684" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="685">
@@ -64169,7 +64185,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D685" t="inlineStr"/>
@@ -64202,7 +64218,7 @@
         <v>0</v>
       </c>
       <c r="S685" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T685" t="inlineStr">
         <is>
@@ -64210,7 +64226,7 @@
         </is>
       </c>
       <c r="U685" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="686">
@@ -64226,7 +64242,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
@@ -64259,7 +64275,7 @@
         <v>0</v>
       </c>
       <c r="S686" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="T686" t="inlineStr">
         <is>
@@ -64267,7 +64283,7 @@
         </is>
       </c>
       <c r="U686" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="687">
@@ -64283,7 +64299,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D687" t="inlineStr"/>
@@ -64316,7 +64332,7 @@
         <v>0</v>
       </c>
       <c r="S687" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="T687" t="inlineStr">
         <is>
@@ -64324,7 +64340,7 @@
         </is>
       </c>
       <c r="U687" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="688">
@@ -64340,7 +64356,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
@@ -64373,7 +64389,7 @@
         <v>0</v>
       </c>
       <c r="S688" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="T688" t="inlineStr">
         <is>
@@ -64381,7 +64397,7 @@
         </is>
       </c>
       <c r="U688" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="689">
@@ -64397,7 +64413,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D689" t="inlineStr"/>
@@ -64430,7 +64446,7 @@
         <v>0</v>
       </c>
       <c r="S689" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="T689" t="inlineStr">
         <is>
@@ -64438,7 +64454,7 @@
         </is>
       </c>
       <c r="U689" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="690">
@@ -64454,7 +64470,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
@@ -64487,7 +64503,7 @@
         <v>0</v>
       </c>
       <c r="S690" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="T690" t="inlineStr">
         <is>
@@ -64495,7 +64511,7 @@
         </is>
       </c>
       <c r="U690" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="691">
@@ -64511,7 +64527,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
@@ -64544,7 +64560,7 @@
         <v>0</v>
       </c>
       <c r="S691" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="T691" t="inlineStr">
         <is>
@@ -64552,7 +64568,7 @@
         </is>
       </c>
       <c r="U691" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="692">
@@ -64568,7 +64584,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D692" t="inlineStr"/>
@@ -64601,7 +64617,7 @@
         <v>0</v>
       </c>
       <c r="S692" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="T692" t="inlineStr">
         <is>
@@ -64609,7 +64625,7 @@
         </is>
       </c>
       <c r="U692" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="693">
@@ -64625,7 +64641,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
@@ -64658,7 +64674,7 @@
         <v>0</v>
       </c>
       <c r="S693" t="n">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="T693" t="inlineStr">
         <is>
@@ -64666,7 +64682,7 @@
         </is>
       </c>
       <c r="U693" s="2" t="n">
-        <v>45327</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="694">
@@ -64682,7 +64698,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
@@ -64715,7 +64731,7 @@
         <v>0</v>
       </c>
       <c r="S694" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="T694" t="inlineStr">
         <is>
@@ -64723,7 +64739,7 @@
         </is>
       </c>
       <c r="U694" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="695">
@@ -64739,7 +64755,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
@@ -64772,7 +64788,7 @@
         <v>0</v>
       </c>
       <c r="S695" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="T695" t="inlineStr">
         <is>
@@ -64780,7 +64796,7 @@
         </is>
       </c>
       <c r="U695" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="696">
@@ -64796,7 +64812,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D696" t="inlineStr"/>
@@ -64829,7 +64845,7 @@
         <v>0</v>
       </c>
       <c r="S696" t="n">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="T696" t="inlineStr">
         <is>
@@ -64837,7 +64853,7 @@
         </is>
       </c>
       <c r="U696" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="697">
@@ -64853,7 +64869,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D697" t="inlineStr"/>
@@ -64886,7 +64902,7 @@
         <v>0</v>
       </c>
       <c r="S697" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="T697" t="inlineStr">
         <is>
@@ -64894,7 +64910,7 @@
         </is>
       </c>
       <c r="U697" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="698">
@@ -64910,7 +64926,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D698" t="inlineStr"/>
@@ -64943,7 +64959,7 @@
         <v>0</v>
       </c>
       <c r="S698" t="n">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="T698" t="inlineStr">
         <is>
@@ -64951,7 +64967,7 @@
         </is>
       </c>
       <c r="U698" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="699">
@@ -64967,7 +64983,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D699" t="inlineStr"/>
@@ -65000,7 +65016,7 @@
         <v>0</v>
       </c>
       <c r="S699" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="T699" t="inlineStr">
         <is>
@@ -65008,7 +65024,7 @@
         </is>
       </c>
       <c r="U699" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="700">
@@ -65024,7 +65040,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D700" t="inlineStr"/>
@@ -65057,7 +65073,7 @@
         <v>0</v>
       </c>
       <c r="S700" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="T700" t="inlineStr">
         <is>
@@ -65065,7 +65081,7 @@
         </is>
       </c>
       <c r="U700" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="701">
@@ -65081,7 +65097,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D701" t="inlineStr"/>
@@ -65114,7 +65130,7 @@
         <v>0</v>
       </c>
       <c r="S701" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="T701" t="inlineStr">
         <is>
@@ -65122,7 +65138,7 @@
         </is>
       </c>
       <c r="U701" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="702">
@@ -65138,7 +65154,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D702" t="inlineStr"/>
@@ -65171,7 +65187,7 @@
         <v>0</v>
       </c>
       <c r="S702" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="T702" t="inlineStr">
         <is>
@@ -65179,7 +65195,7 @@
         </is>
       </c>
       <c r="U702" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="703">
@@ -65195,7 +65211,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D703" t="inlineStr"/>
@@ -65228,7 +65244,7 @@
         <v>0</v>
       </c>
       <c r="S703" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="T703" t="inlineStr">
         <is>
@@ -65236,7 +65252,7 @@
         </is>
       </c>
       <c r="U703" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="704">
@@ -65252,7 +65268,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D704" t="inlineStr"/>
@@ -65285,7 +65301,7 @@
         <v>0</v>
       </c>
       <c r="S704" t="n">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="T704" t="inlineStr">
         <is>
@@ -65293,7 +65309,7 @@
         </is>
       </c>
       <c r="U704" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="705">
@@ -65309,7 +65325,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D705" t="inlineStr"/>
@@ -65342,7 +65358,7 @@
         <v>0</v>
       </c>
       <c r="S705" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="T705" t="inlineStr">
         <is>
@@ -65350,7 +65366,7 @@
         </is>
       </c>
       <c r="U705" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="706">
@@ -65366,7 +65382,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D706" t="inlineStr"/>
@@ -65399,7 +65415,7 @@
         <v>0</v>
       </c>
       <c r="S706" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="T706" t="inlineStr">
         <is>
@@ -65407,7 +65423,7 @@
         </is>
       </c>
       <c r="U706" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="707">
@@ -65423,7 +65439,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D707" t="inlineStr"/>
@@ -65456,7 +65472,7 @@
         <v>0</v>
       </c>
       <c r="S707" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="T707" t="inlineStr">
         <is>
@@ -65464,7 +65480,7 @@
         </is>
       </c>
       <c r="U707" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="708">
@@ -65480,7 +65496,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D708" t="inlineStr"/>
@@ -65513,7 +65529,7 @@
         <v>0</v>
       </c>
       <c r="S708" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="T708" t="inlineStr">
         <is>
@@ -65521,7 +65537,7 @@
         </is>
       </c>
       <c r="U708" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="709">
@@ -65537,7 +65553,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D709" t="inlineStr"/>
@@ -65570,7 +65586,7 @@
         <v>0</v>
       </c>
       <c r="S709" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="T709" t="inlineStr">
         <is>
@@ -65578,7 +65594,7 @@
         </is>
       </c>
       <c r="U709" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="710">
@@ -65594,7 +65610,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D710" t="inlineStr"/>
@@ -65627,7 +65643,7 @@
         <v>0</v>
       </c>
       <c r="S710" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="T710" t="inlineStr">
         <is>
@@ -65635,7 +65651,7 @@
         </is>
       </c>
       <c r="U710" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="711">
@@ -65765,7 +65781,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="D713" t="inlineStr"/>
@@ -65798,7 +65814,7 @@
         <v>0</v>
       </c>
       <c r="S713" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="T713" t="inlineStr">
         <is>
@@ -65806,7 +65822,7 @@
         </is>
       </c>
       <c r="U713" s="2" t="n">
-        <v>45307</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="714">
@@ -65985,7 +66001,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>2024/01/30</t>
+          <t>2024/02/15</t>
         </is>
       </c>
       <c r="D717" t="inlineStr"/>
@@ -66014,7 +66030,7 @@
         <v>0</v>
       </c>
       <c r="S717" t="n">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="T717" t="inlineStr">
         <is>
@@ -66022,7 +66038,7 @@
         </is>
       </c>
       <c r="U717" s="2" t="n">
-        <v>45321</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="718">
@@ -66282,6 +66298,55 @@
         <v>45336</v>
       </c>
     </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>TA_PersonalContrata</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Municipalidad de Constitución</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>2024/02/15</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr"/>
+      <c r="E723" t="inlineStr"/>
+      <c r="F723" t="inlineStr"/>
+      <c r="G723" t="inlineStr"/>
+      <c r="H723" t="inlineStr"/>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
+      <c r="L723" t="inlineStr"/>
+      <c r="M723" t="inlineStr"/>
+      <c r="N723" t="inlineStr"/>
+      <c r="O723" t="inlineStr"/>
+      <c r="P723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R723" t="n">
+        <v>0</v>
+      </c>
+      <c r="S723" t="n">
+        <v>59</v>
+      </c>
+      <c r="T723" t="inlineStr">
+        <is>
+          <t>MU064</t>
+        </is>
+      </c>
+      <c r="U723" s="2" t="n">
+        <v>45337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/consolidado3.xlsx
+++ b/consolidado3.xlsx
@@ -882,7 +882,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>9966</v>
+        <v>10090</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="U10" s="2" t="n">
-        <v>45315</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="11">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="U12" s="2" t="n">
-        <v>45309</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="13">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7036</v>
+        <v>7132</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="U17" s="2" t="n">
-        <v>45309</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="18">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>179849</v>
+        <v>182889</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="U24" s="2" t="n">
-        <v>45335</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="25">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4765,7 +4765,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
@@ -4776,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>22043</v>
+        <v>22260</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -4784,7 +4788,7 @@
         </is>
       </c>
       <c r="U51" s="2" t="n">
-        <v>45337</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="52">
@@ -5087,7 +5091,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5145,7 +5149,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
@@ -5156,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>18100</v>
+        <v>18654</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -5164,7 +5172,7 @@
         </is>
       </c>
       <c r="U55" s="2" t="n">
-        <v>45309</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="56">
@@ -5374,7 +5382,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5447,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>80286</v>
+        <v>80560</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5455,7 +5463,7 @@
         </is>
       </c>
       <c r="U58" s="2" t="n">
-        <v>45329</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="59">
@@ -5568,7 +5576,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5645,7 +5653,7 @@
         </is>
       </c>
       <c r="U60" s="2" t="n">
-        <v>45336</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="61">
@@ -6724,7 +6732,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6797,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>80933</v>
+        <v>82474</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -6805,7 +6813,7 @@
         </is>
       </c>
       <c r="U72" s="2" t="n">
-        <v>45314</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="73">
@@ -8761,7 +8769,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -8834,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>8097</v>
+        <v>8133</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -8842,7 +8850,7 @@
         </is>
       </c>
       <c r="U93" s="2" t="n">
-        <v>45339</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="94">
@@ -9432,7 +9440,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -9505,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>107858</v>
+        <v>109739</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -9513,7 +9521,7 @@
         </is>
       </c>
       <c r="U100" s="2" t="n">
-        <v>45301</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="101">
@@ -10111,7 +10119,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -10184,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>24517</v>
+        <v>24731</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -10192,7 +10200,7 @@
         </is>
       </c>
       <c r="U107" s="2" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="108">
@@ -10843,7 +10851,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -10916,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>13710</v>
+        <v>13876</v>
       </c>
       <c r="T115" t="inlineStr">
         <is>
@@ -10924,7 +10932,7 @@
         </is>
       </c>
       <c r="U115" s="2" t="n">
-        <v>45315</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="116">
@@ -11425,7 +11433,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -11498,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>7136</v>
+        <v>7224</v>
       </c>
       <c r="T121" t="inlineStr">
         <is>
@@ -11506,7 +11514,7 @@
         </is>
       </c>
       <c r="U121" s="2" t="n">
-        <v>45308</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="122">
@@ -12100,7 +12108,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -12169,7 +12177,7 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>47571</v>
+        <v>48476</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
@@ -12177,7 +12185,7 @@
         </is>
       </c>
       <c r="U128" s="2" t="n">
-        <v>45307</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="129">
@@ -13450,7 +13458,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -13511,7 +13519,7 @@
         </is>
       </c>
       <c r="U142" s="2" t="n">
-        <v>45307</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="143">
@@ -14012,7 +14020,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -14085,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>5960</v>
+        <v>6063</v>
       </c>
       <c r="T148" t="inlineStr">
         <is>
@@ -14093,7 +14101,7 @@
         </is>
       </c>
       <c r="U148" s="2" t="n">
-        <v>45303</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="149">
@@ -14206,7 +14214,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/18</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -14279,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="S150" t="n">
-        <v>14238</v>
+        <v>14277</v>
       </c>
       <c r="T150" t="inlineStr">
         <is>
@@ -14287,7 +14295,7 @@
         </is>
       </c>
       <c r="U150" s="2" t="n">
-        <v>45336</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="151">
@@ -14687,7 +14695,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -14768,7 +14776,7 @@
         </is>
       </c>
       <c r="U155" s="2" t="n">
-        <v>45335</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="156">
@@ -14784,7 +14792,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -14857,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="S156" t="n">
-        <v>54204</v>
+        <v>54321</v>
       </c>
       <c r="T156" t="inlineStr">
         <is>
@@ -14865,7 +14873,7 @@
         </is>
       </c>
       <c r="U156" s="2" t="n">
-        <v>45336</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="157">
@@ -15269,7 +15277,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -15342,7 +15350,7 @@
         <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>4450</v>
+        <v>4507</v>
       </c>
       <c r="T161" t="inlineStr">
         <is>
@@ -15350,7 +15358,7 @@
         </is>
       </c>
       <c r="U161" s="2" t="n">
-        <v>45324</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="162">
@@ -15799,7 +15807,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -15872,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="S167" t="n">
-        <v>9017</v>
+        <v>9065</v>
       </c>
       <c r="T167" t="inlineStr">
         <is>
@@ -15880,7 +15888,7 @@
         </is>
       </c>
       <c r="U167" s="2" t="n">
-        <v>45300</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="168">
@@ -16284,7 +16292,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -16357,7 +16365,7 @@
         <v>0</v>
       </c>
       <c r="S172" t="n">
-        <v>38123</v>
+        <v>38215</v>
       </c>
       <c r="T172" t="inlineStr">
         <is>
@@ -16365,7 +16373,7 @@
         </is>
       </c>
       <c r="U172" s="2" t="n">
-        <v>45329</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="173">
@@ -16575,7 +16583,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -16648,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>10655</v>
+        <v>10691</v>
       </c>
       <c r="T175" t="inlineStr">
         <is>
@@ -16656,7 +16664,7 @@
         </is>
       </c>
       <c r="U175" s="2" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="176">
@@ -17638,7 +17646,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -17719,7 +17727,7 @@
         </is>
       </c>
       <c r="U186" s="2" t="n">
-        <v>45334</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="187">
@@ -18317,7 +18325,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -18390,7 +18398,7 @@
         <v>0</v>
       </c>
       <c r="S193" t="n">
-        <v>16380</v>
+        <v>16431</v>
       </c>
       <c r="T193" t="inlineStr">
         <is>
@@ -18398,7 +18406,7 @@
         </is>
       </c>
       <c r="U193" s="2" t="n">
-        <v>45338</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="194">
@@ -19279,7 +19287,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -19352,7 +19360,7 @@
         <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>6696</v>
+        <v>6803</v>
       </c>
       <c r="T203" t="inlineStr">
         <is>
@@ -19360,7 +19368,7 @@
         </is>
       </c>
       <c r="U203" s="2" t="n">
-        <v>45307</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="204">
@@ -20536,7 +20544,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -20609,7 +20617,7 @@
         <v>0</v>
       </c>
       <c r="S216" t="n">
-        <v>31532</v>
+        <v>32081</v>
       </c>
       <c r="T216" t="inlineStr">
         <is>
@@ -20617,7 +20625,7 @@
         </is>
       </c>
       <c r="U216" s="2" t="n">
-        <v>45307</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="217">
@@ -21167,7 +21175,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2024/02/03</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -21240,7 +21248,7 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>4626</v>
+        <v>4703</v>
       </c>
       <c r="T223" t="inlineStr">
         <is>
@@ -21248,7 +21256,7 @@
         </is>
       </c>
       <c r="U223" s="2" t="n">
-        <v>45325</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="224">
@@ -23051,7 +23059,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -23124,7 +23132,7 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>16803</v>
+        <v>16935</v>
       </c>
       <c r="T243" t="inlineStr">
         <is>
@@ -23132,7 +23140,7 @@
         </is>
       </c>
       <c r="U243" s="2" t="n">
-        <v>45303</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="244">
@@ -23245,7 +23253,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -23318,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>23272</v>
+        <v>23316</v>
       </c>
       <c r="T245" t="inlineStr">
         <is>
@@ -23326,7 +23334,7 @@
         </is>
       </c>
       <c r="U245" s="2" t="n">
-        <v>45327</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="246">
@@ -23827,7 +23835,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2024/02/10</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -23900,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>15231</v>
+        <v>15313</v>
       </c>
       <c r="T251" t="inlineStr">
         <is>
@@ -23908,7 +23916,7 @@
         </is>
       </c>
       <c r="U251" s="2" t="n">
-        <v>45332</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="252">
@@ -24405,7 +24413,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -24486,7 +24494,7 @@
         </is>
       </c>
       <c r="U257" s="2" t="n">
-        <v>45334</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="258">
@@ -24878,7 +24886,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -24959,7 +24967,7 @@
         </is>
       </c>
       <c r="U262" s="2" t="n">
-        <v>45331</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="263">
@@ -25169,7 +25177,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -25242,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>192028</v>
+        <v>195234</v>
       </c>
       <c r="T265" t="inlineStr">
         <is>
@@ -25250,7 +25258,7 @@
         </is>
       </c>
       <c r="U265" s="2" t="n">
-        <v>45328</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="266">
@@ -26713,7 +26721,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -26786,7 +26794,7 @@
         <v>0</v>
       </c>
       <c r="S281" t="n">
-        <v>2094</v>
+        <v>2168</v>
       </c>
       <c r="T281" t="inlineStr">
         <is>
@@ -26794,7 +26802,7 @@
         </is>
       </c>
       <c r="U281" s="2" t="n">
-        <v>45336</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="282">
@@ -29417,7 +29425,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -29490,7 +29498,7 @@
         <v>0</v>
       </c>
       <c r="S309" t="n">
-        <v>38614</v>
+        <v>38753</v>
       </c>
       <c r="T309" t="inlineStr">
         <is>
@@ -29498,7 +29506,7 @@
         </is>
       </c>
       <c r="U309" s="2" t="n">
-        <v>45337</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="310">
@@ -29611,7 +29619,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -29684,7 +29692,7 @@
         <v>0</v>
       </c>
       <c r="S311" t="n">
-        <v>16063</v>
+        <v>16367</v>
       </c>
       <c r="T311" t="inlineStr">
         <is>
@@ -29692,7 +29700,7 @@
         </is>
       </c>
       <c r="U311" s="2" t="n">
-        <v>45308</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="312">
@@ -29805,7 +29813,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -29874,7 +29882,7 @@
         <v>0</v>
       </c>
       <c r="S313" t="n">
-        <v>70626</v>
+        <v>71674</v>
       </c>
       <c r="T313" t="inlineStr">
         <is>
@@ -29882,7 +29890,7 @@
         </is>
       </c>
       <c r="U313" s="2" t="n">
-        <v>45338</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="314">
@@ -29995,7 +30003,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -30068,7 +30076,7 @@
         <v>0</v>
       </c>
       <c r="S315" t="n">
-        <v>137759</v>
+        <v>141529</v>
       </c>
       <c r="T315" t="inlineStr">
         <is>
@@ -30076,7 +30084,7 @@
         </is>
       </c>
       <c r="U315" s="2" t="n">
-        <v>45314</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="316">
@@ -30092,7 +30100,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/02/18</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -30173,7 +30181,7 @@
         </is>
       </c>
       <c r="U316" s="2" t="n">
-        <v>45339</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="317">
@@ -30238,7 +30246,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -30311,7 +30319,7 @@
         <v>0</v>
       </c>
       <c r="S318" t="n">
-        <v>10560</v>
+        <v>10614</v>
       </c>
       <c r="T318" t="inlineStr">
         <is>
@@ -30319,7 +30327,7 @@
         </is>
       </c>
       <c r="U318" s="2" t="n">
-        <v>45335</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="319">
@@ -31499,7 +31507,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -31568,7 +31576,7 @@
         <v>0</v>
       </c>
       <c r="S331" t="n">
-        <v>6184</v>
+        <v>6288</v>
       </c>
       <c r="T331" t="inlineStr">
         <is>
@@ -31576,7 +31584,7 @@
         </is>
       </c>
       <c r="U331" s="2" t="n">
-        <v>45310</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="332">
@@ -32174,7 +32182,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -32247,7 +32255,7 @@
         <v>0</v>
       </c>
       <c r="S338" t="n">
-        <v>56233</v>
+        <v>56980</v>
       </c>
       <c r="T338" t="inlineStr">
         <is>
@@ -32255,7 +32263,7 @@
         </is>
       </c>
       <c r="U338" s="2" t="n">
-        <v>45306</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="339">
@@ -32368,7 +32376,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -32441,7 +32449,7 @@
         <v>0</v>
       </c>
       <c r="S340" t="n">
-        <v>11383</v>
+        <v>11521</v>
       </c>
       <c r="T340" t="inlineStr">
         <is>
@@ -32449,7 +32457,7 @@
         </is>
       </c>
       <c r="U340" s="2" t="n">
-        <v>45307</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="341">
@@ -32853,7 +32861,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -32926,7 +32934,7 @@
         <v>0</v>
       </c>
       <c r="S345" t="n">
-        <v>38292</v>
+        <v>38725</v>
       </c>
       <c r="T345" t="inlineStr">
         <is>
@@ -32934,7 +32942,7 @@
         </is>
       </c>
       <c r="U345" s="2" t="n">
-        <v>45338</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="346">
@@ -33435,7 +33443,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -33508,7 +33516,7 @@
         <v>0</v>
       </c>
       <c r="S351" t="n">
-        <v>40586</v>
+        <v>41053</v>
       </c>
       <c r="T351" t="inlineStr">
         <is>
@@ -33516,7 +33524,7 @@
         </is>
       </c>
       <c r="U351" s="2" t="n">
-        <v>45306</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="352">
@@ -36438,7 +36446,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -36519,7 +36527,7 @@
         </is>
       </c>
       <c r="U382" s="2" t="n">
-        <v>45334</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="383">
@@ -37117,7 +37125,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -37198,7 +37206,7 @@
         </is>
       </c>
       <c r="U389" s="2" t="n">
-        <v>45335</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="390">
@@ -39251,7 +39259,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -39324,7 +39332,7 @@
         <v>0</v>
       </c>
       <c r="S411" t="n">
-        <v>1739</v>
+        <v>1748</v>
       </c>
       <c r="T411" t="inlineStr">
         <is>
@@ -39332,7 +39340,7 @@
         </is>
       </c>
       <c r="U411" s="2" t="n">
-        <v>45329</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="412">
@@ -39829,7 +39837,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -39902,7 +39910,7 @@
         <v>0</v>
       </c>
       <c r="S417" t="n">
-        <v>8138</v>
+        <v>8219</v>
       </c>
       <c r="T417" t="inlineStr">
         <is>
@@ -39910,7 +39918,7 @@
         </is>
       </c>
       <c r="U417" s="2" t="n">
-        <v>45306</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="418">
@@ -40019,7 +40027,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -40100,7 +40108,7 @@
         </is>
       </c>
       <c r="U419" s="2" t="n">
-        <v>45337</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="420">
@@ -41220,7 +41228,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -41301,7 +41309,7 @@
         </is>
       </c>
       <c r="U432" s="2" t="n">
-        <v>45336</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="433">
@@ -41705,7 +41713,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -41759,7 +41767,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O437" t="inlineStr"/>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P437" t="n">
         <v>0</v>
       </c>
@@ -41770,7 +41782,7 @@
         <v>0</v>
       </c>
       <c r="S437" t="n">
-        <v>7289</v>
+        <v>7388</v>
       </c>
       <c r="T437" t="inlineStr">
         <is>
@@ -41778,7 +41790,7 @@
         </is>
       </c>
       <c r="U437" s="2" t="n">
-        <v>45303</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="438">
@@ -42457,7 +42469,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -42530,7 +42542,7 @@
         <v>0</v>
       </c>
       <c r="S445" t="n">
-        <v>35981</v>
+        <v>36519</v>
       </c>
       <c r="T445" t="inlineStr">
         <is>
@@ -42538,7 +42550,7 @@
         </is>
       </c>
       <c r="U445" s="2" t="n">
-        <v>45306</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="446">
@@ -42651,7 +42663,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -42724,7 +42736,7 @@
         <v>0</v>
       </c>
       <c r="S447" t="n">
-        <v>4965</v>
+        <v>4998</v>
       </c>
       <c r="T447" t="inlineStr">
         <is>
@@ -42732,7 +42744,7 @@
         </is>
       </c>
       <c r="U447" s="2" t="n">
-        <v>45334</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="448">
@@ -43136,7 +43148,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -43209,7 +43221,7 @@
         <v>0</v>
       </c>
       <c r="S452" t="n">
-        <v>8481</v>
+        <v>8536</v>
       </c>
       <c r="T452" t="inlineStr">
         <is>
@@ -43217,7 +43229,7 @@
         </is>
       </c>
       <c r="U452" s="2" t="n">
-        <v>45337</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="453">
@@ -43520,7 +43532,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -43589,7 +43601,7 @@
         <v>0</v>
       </c>
       <c r="S456" t="n">
-        <v>13833</v>
+        <v>13914</v>
       </c>
       <c r="T456" t="inlineStr">
         <is>
@@ -43597,7 +43609,7 @@
         </is>
       </c>
       <c r="U456" s="2" t="n">
-        <v>45337</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="457">
@@ -43807,7 +43819,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -43880,7 +43892,7 @@
         <v>0</v>
       </c>
       <c r="S459" t="n">
-        <v>23352</v>
+        <v>23401</v>
       </c>
       <c r="T459" t="inlineStr">
         <is>
@@ -43888,7 +43900,7 @@
         </is>
       </c>
       <c r="U459" s="2" t="n">
-        <v>45306</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="460">
@@ -44486,7 +44498,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -44567,7 +44579,7 @@
         </is>
       </c>
       <c r="U466" s="2" t="n">
-        <v>45336</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="467">
@@ -44777,7 +44789,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -44850,7 +44862,7 @@
         <v>0</v>
       </c>
       <c r="S469" t="n">
-        <v>3556</v>
+        <v>3599</v>
       </c>
       <c r="T469" t="inlineStr">
         <is>
@@ -44858,7 +44870,7 @@
         </is>
       </c>
       <c r="U469" s="2" t="n">
-        <v>45314</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="470">
@@ -45456,7 +45468,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
@@ -45513,7 +45525,7 @@
         </is>
       </c>
       <c r="U476" s="2" t="n">
-        <v>45337</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="477">
@@ -45723,7 +45735,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -45781,7 +45793,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O479" t="inlineStr"/>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P479" t="n">
         <v>0</v>
       </c>
@@ -45792,7 +45808,7 @@
         <v>0</v>
       </c>
       <c r="S479" t="n">
-        <v>8523</v>
+        <v>8633</v>
       </c>
       <c r="T479" t="inlineStr">
         <is>
@@ -45800,7 +45816,7 @@
         </is>
       </c>
       <c r="U479" s="2" t="n">
-        <v>45278</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="480">
@@ -46107,7 +46123,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -46180,7 +46196,7 @@
         <v>0</v>
       </c>
       <c r="S483" t="n">
-        <v>3294</v>
+        <v>3329</v>
       </c>
       <c r="T483" t="inlineStr">
         <is>
@@ -46188,7 +46204,7 @@
         </is>
       </c>
       <c r="U483" s="2" t="n">
-        <v>45329</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="484">
@@ -47267,7 +47283,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -47348,7 +47364,7 @@
         </is>
       </c>
       <c r="U495" s="2" t="n">
-        <v>45331</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="496">
@@ -47946,7 +47962,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -48019,7 +48035,7 @@
         <v>0</v>
       </c>
       <c r="S502" t="n">
-        <v>6045</v>
+        <v>6119</v>
       </c>
       <c r="T502" t="inlineStr">
         <is>
@@ -48027,7 +48043,7 @@
         </is>
       </c>
       <c r="U502" s="2" t="n">
-        <v>45306</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="503">
@@ -48722,7 +48738,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -48795,7 +48811,7 @@
         <v>0</v>
       </c>
       <c r="S510" t="n">
-        <v>7090</v>
+        <v>7125</v>
       </c>
       <c r="T510" t="inlineStr">
         <is>
@@ -48803,7 +48819,7 @@
         </is>
       </c>
       <c r="U510" s="2" t="n">
-        <v>45339</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="511">
@@ -49304,7 +49320,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -49377,7 +49393,7 @@
         <v>0</v>
       </c>
       <c r="S516" t="n">
-        <v>22478</v>
+        <v>22533</v>
       </c>
       <c r="T516" t="inlineStr">
         <is>
@@ -49385,7 +49401,7 @@
         </is>
       </c>
       <c r="U516" s="2" t="n">
-        <v>45334</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="517">
@@ -49886,7 +49902,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -49967,7 +49983,7 @@
         </is>
       </c>
       <c r="U522" s="2" t="n">
-        <v>45338</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="523">
@@ -49983,7 +49999,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -50056,7 +50072,7 @@
         <v>0</v>
       </c>
       <c r="S523" t="n">
-        <v>17478</v>
+        <v>17529</v>
       </c>
       <c r="T523" t="inlineStr">
         <is>
@@ -50064,7 +50080,7 @@
         </is>
       </c>
       <c r="U523" s="2" t="n">
-        <v>45335</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="524">
@@ -51483,7 +51499,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -51564,7 +51580,7 @@
         </is>
       </c>
       <c r="U539" s="2" t="n">
-        <v>45316</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="540">
@@ -52162,7 +52178,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -52243,7 +52259,7 @@
         </is>
       </c>
       <c r="U546" s="2" t="n">
-        <v>45302</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="547">
@@ -53031,7 +53047,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -53104,7 +53120,7 @@
         <v>0</v>
       </c>
       <c r="S555" t="n">
-        <v>5925</v>
+        <v>5947</v>
       </c>
       <c r="T555" t="inlineStr">
         <is>
@@ -53112,7 +53128,7 @@
         </is>
       </c>
       <c r="U555" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="556">
@@ -53508,7 +53524,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -53581,7 +53597,7 @@
         <v>0</v>
       </c>
       <c r="S560" t="n">
-        <v>65144</v>
+        <v>66240</v>
       </c>
       <c r="T560" t="inlineStr">
         <is>
@@ -53589,7 +53605,7 @@
         </is>
       </c>
       <c r="U560" s="2" t="n">
-        <v>45308</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="561">
@@ -54280,7 +54296,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -54353,7 +54369,7 @@
         <v>0</v>
       </c>
       <c r="S568" t="n">
-        <v>2355</v>
+        <v>2463</v>
       </c>
       <c r="T568" t="inlineStr">
         <is>
@@ -54361,7 +54377,7 @@
         </is>
       </c>
       <c r="U568" s="2" t="n">
-        <v>45307</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="569">
@@ -54955,7 +54971,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -55028,7 +55044,7 @@
         <v>0</v>
       </c>
       <c r="S575" t="n">
-        <v>3346</v>
+        <v>3396</v>
       </c>
       <c r="T575" t="inlineStr">
         <is>
@@ -55036,7 +55052,7 @@
         </is>
       </c>
       <c r="U575" s="2" t="n">
-        <v>45316</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="576">
@@ -55780,7 +55796,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -55853,7 +55869,7 @@
         <v>0</v>
       </c>
       <c r="S584" t="n">
-        <v>7605</v>
+        <v>7640</v>
       </c>
       <c r="T584" t="inlineStr">
         <is>
@@ -55861,7 +55877,7 @@
         </is>
       </c>
       <c r="U584" s="2" t="n">
-        <v>45331</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="585">
@@ -55877,7 +55893,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -55958,7 +55974,7 @@
         </is>
       </c>
       <c r="U585" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="586">
@@ -56071,7 +56087,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -56148,7 +56164,7 @@
         </is>
       </c>
       <c r="U587" s="2" t="n">
-        <v>45337</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="588">
@@ -56358,7 +56374,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -56431,7 +56447,7 @@
         <v>0</v>
       </c>
       <c r="S590" t="n">
-        <v>27991</v>
+        <v>28221</v>
       </c>
       <c r="T590" t="inlineStr">
         <is>
@@ -56439,7 +56455,7 @@
         </is>
       </c>
       <c r="U590" s="2" t="n">
-        <v>45327</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="591">
@@ -57231,7 +57247,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>2024/01/14</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -57304,7 +57320,7 @@
         <v>0</v>
       </c>
       <c r="S599" t="n">
-        <v>53206</v>
+        <v>53836</v>
       </c>
       <c r="T599" t="inlineStr">
         <is>
@@ -57312,7 +57328,7 @@
         </is>
       </c>
       <c r="U599" s="2" t="n">
-        <v>45305</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="600">
@@ -57910,7 +57926,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -57991,7 +58007,7 @@
         </is>
       </c>
       <c r="U606" s="2" t="n">
-        <v>45337</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="607">
@@ -58395,7 +58411,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -58468,7 +58484,7 @@
         <v>0</v>
       </c>
       <c r="S611" t="n">
-        <v>60177</v>
+        <v>62825</v>
       </c>
       <c r="T611" t="inlineStr">
         <is>
@@ -58476,7 +58492,7 @@
         </is>
       </c>
       <c r="U611" s="2" t="n">
-        <v>45337</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="612">
@@ -62589,7 +62605,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
@@ -62630,7 +62646,7 @@
         </is>
       </c>
       <c r="U657" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="658">
@@ -62931,7 +62947,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
@@ -62972,7 +62988,7 @@
         </is>
       </c>
       <c r="U663" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="664">
@@ -63102,7 +63118,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
@@ -63143,7 +63159,7 @@
         </is>
       </c>
       <c r="U666" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="667">
@@ -63387,7 +63403,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
@@ -63420,7 +63436,7 @@
         <v>0</v>
       </c>
       <c r="S671" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T671" t="inlineStr">
         <is>
@@ -63428,7 +63444,7 @@
         </is>
       </c>
       <c r="U671" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="672">
@@ -63615,7 +63631,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D675" t="inlineStr"/>
@@ -63648,7 +63664,7 @@
         <v>0</v>
       </c>
       <c r="S675" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T675" t="inlineStr">
         <is>
@@ -63656,7 +63672,7 @@
         </is>
       </c>
       <c r="U675" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="676">
@@ -63729,7 +63745,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
@@ -63770,7 +63786,7 @@
         </is>
       </c>
       <c r="U677" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="678">
@@ -63900,7 +63916,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
@@ -63933,7 +63949,7 @@
         <v>0</v>
       </c>
       <c r="S680" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T680" t="inlineStr">
         <is>
@@ -63941,7 +63957,7 @@
         </is>
       </c>
       <c r="U680" s="2" t="n">
-        <v>45338</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="681">
@@ -64527,7 +64543,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
@@ -64568,7 +64584,7 @@
         </is>
       </c>
       <c r="U691" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="692">
@@ -64641,7 +64657,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D693" t="inlineStr"/>
@@ -64674,7 +64690,7 @@
         <v>0</v>
       </c>
       <c r="S693" t="n">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="T693" t="inlineStr">
         <is>
@@ -64682,7 +64698,7 @@
         </is>
       </c>
       <c r="U693" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="694">
@@ -65496,7 +65512,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D708" t="inlineStr"/>
@@ -65537,7 +65553,7 @@
         </is>
       </c>
       <c r="U708" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="709">
@@ -65610,7 +65626,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D710" t="inlineStr"/>
@@ -65651,7 +65667,7 @@
         </is>
       </c>
       <c r="U710" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="711">
@@ -66311,7 +66327,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D723" t="inlineStr"/>
@@ -66336,7 +66352,7 @@
         <v>0</v>
       </c>
       <c r="S723" t="n">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="T723" t="inlineStr">
         <is>
@@ -66344,7 +66360,7 @@
         </is>
       </c>
       <c r="U723" s="2" t="n">
-        <v>45337</v>
+        <v>45343</v>
       </c>
     </row>
   </sheetData>
